--- a/data/tables/main.xlsx
+++ b/data/tables/main.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jgcha\Desktop\Python\Códigos\Tsakonian tools\TsakonianDB\tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jgcha\Desktop\Python\Códigos\Tsakonian tools\data\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F570979-89E3-486E-8470-62EDFF198CF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D69EFF31-5C28-4455-8DB5-5E831462D087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2115" yWindow="2115" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14490" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="702">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="834">
   <si>
     <t>tsakonian</t>
   </si>
@@ -2126,13 +2126,409 @@
   </si>
   <si>
     <t>source_id</t>
+  </si>
+  <si>
+    <t>αγκατέ</t>
+  </si>
+  <si>
+    <t>φράχτης</t>
+  </si>
+  <si>
+    <t>αδερέ</t>
+  </si>
+  <si>
+    <t>νερουλός</t>
+  </si>
+  <si>
+    <t>συγγενήδε</t>
+  </si>
+  <si>
+    <t>συγγενείς</t>
+  </si>
+  <si>
+    <t>γον̇ία</t>
+  </si>
+  <si>
+    <t>γονιός</t>
+  </si>
+  <si>
+    <t>έγγονε</t>
+  </si>
+  <si>
+    <t>εγγονός</t>
+  </si>
+  <si>
+    <t>τσία</t>
+  </si>
+  <si>
+    <t>γέρου</t>
+  </si>
+  <si>
+    <t>γέρος</t>
+  </si>
+  <si>
+    <t>γρία</t>
+  </si>
+  <si>
+    <t>γριά</t>
+  </si>
+  <si>
+    <t>συντζενικό</t>
+  </si>
+  <si>
+    <t>κουνιάδος</t>
+  </si>
+  <si>
+    <t>συντζενικά</t>
+  </si>
+  <si>
+    <t>κουνιάδα</t>
+  </si>
+  <si>
+    <t>νονέ</t>
+  </si>
+  <si>
+    <t>νονός</t>
+  </si>
+  <si>
+    <t>νονά</t>
+  </si>
+  <si>
+    <t>βαφκισκό</t>
+  </si>
+  <si>
+    <t>βαφτισιμιός</t>
+  </si>
+  <si>
+    <t>τσ̌ίχα</t>
+  </si>
+  <si>
+    <t>τρίχα</t>
+  </si>
+  <si>
+    <t>φρύδι</t>
+  </si>
+  <si>
+    <t>τ̇ούμα</t>
+  </si>
+  <si>
+    <t>στόμα</t>
+  </si>
+  <si>
+    <t>σταγόνι</t>
+  </si>
+  <si>
+    <t>σαγόνι</t>
+  </si>
+  <si>
+    <t>γρούσσα</t>
+  </si>
+  <si>
+    <t>γλώσσα</t>
+  </si>
+  <si>
+    <t>μάγουλε</t>
+  </si>
+  <si>
+    <t>μάγουλο</t>
+  </si>
+  <si>
+    <t>Υ3</t>
+  </si>
+  <si>
+    <t>ακ̇ουκικα</t>
+  </si>
+  <si>
+    <t>αυχένας</t>
+  </si>
+  <si>
+    <t>ίσ̌α</t>
+  </si>
+  <si>
+    <t>πλάτη</t>
+  </si>
+  <si>
+    <t>αμοσκά</t>
+  </si>
+  <si>
+    <t>μασχάλη</t>
+  </si>
+  <si>
+    <t>φούκ̇α</t>
+  </si>
+  <si>
+    <t>κοιλιά</t>
+  </si>
+  <si>
+    <t>καρδία</t>
+  </si>
+  <si>
+    <t>καρδιά</t>
+  </si>
+  <si>
+    <t>σ̌κόκι</t>
+  </si>
+  <si>
+    <t>σηκώτι</t>
+  </si>
+  <si>
+    <t>χέρα</t>
+  </si>
+  <si>
+    <t>χέρι</t>
+  </si>
+  <si>
+    <t>ακγώνα</t>
+  </si>
+  <si>
+    <t>αγκώνας</t>
+  </si>
+  <si>
+    <t>δάτ̇υλε</t>
+  </si>
+  <si>
+    <t>δάκτυλος</t>
+  </si>
+  <si>
+    <t>γούνα</t>
+  </si>
+  <si>
+    <t>γόνατο</t>
+  </si>
+  <si>
+    <t>τσαμπό</t>
+  </si>
+  <si>
+    <t>μηρός</t>
+  </si>
+  <si>
+    <t>μισά</t>
+  </si>
+  <si>
+    <t>μέση</t>
+  </si>
+  <si>
+    <t>κόκαλε</t>
+  </si>
+  <si>
+    <t>κόκαλο</t>
+  </si>
+  <si>
+    <t>ασ̌άγαλε</t>
+  </si>
+  <si>
+    <t>αστράγαλος</t>
+  </si>
+  <si>
+    <t>εγκοφό</t>
+  </si>
+  <si>
+    <t>γοφός</t>
+  </si>
+  <si>
+    <t>γκιουμασία</t>
+  </si>
+  <si>
+    <t>ενδυμασία</t>
+  </si>
+  <si>
+    <t>όγκιουμα</t>
+  </si>
+  <si>
+    <t>πουκάμισο</t>
+  </si>
+  <si>
+    <t>σακάτσ̇ι</t>
+  </si>
+  <si>
+    <t>σακάκι</t>
+  </si>
+  <si>
+    <t>ουρίδα</t>
+  </si>
+  <si>
+    <t>λουρίδα</t>
+  </si>
+  <si>
+    <t>μπρούσα</t>
+  </si>
+  <si>
+    <t>τσέπι</t>
+  </si>
+  <si>
+    <t>βραχάνι</t>
+  </si>
+  <si>
+    <t>φουστάνι</t>
+  </si>
+  <si>
+    <t>τσ̌έρβουλε</t>
+  </si>
+  <si>
+    <t>παπούτσι</t>
+  </si>
+  <si>
+    <t>είιδε</t>
+  </si>
+  <si>
+    <t>ρούχα</t>
+  </si>
+  <si>
+    <t>τσ̇έα</t>
+  </si>
+  <si>
+    <t>σπίτι</t>
+  </si>
+  <si>
+    <t>στσεπή</t>
+  </si>
+  <si>
+    <t>σκεπή</t>
+  </si>
+  <si>
+    <t>τσ̇έραμο</t>
+  </si>
+  <si>
+    <t>κεραμίδι</t>
+  </si>
+  <si>
+    <t>γων̇ία</t>
+  </si>
+  <si>
+    <t>γωνιά</t>
+  </si>
+  <si>
+    <t>πόρε</t>
+  </si>
+  <si>
+    <t>πόρτα</t>
+  </si>
+  <si>
+    <t>παναθούρι</t>
+  </si>
+  <si>
+    <t>παράθυρο</t>
+  </si>
+  <si>
+    <t>καταράχτα</t>
+  </si>
+  <si>
+    <t>καταπακτή</t>
+  </si>
+  <si>
+    <t>εμποκό</t>
+  </si>
+  <si>
+    <t>αχυρώνας</t>
+  </si>
+  <si>
+    <t>θουρίδα</t>
+  </si>
+  <si>
+    <t>θυρίδα</t>
+  </si>
+  <si>
+    <t>ξωστάγι</t>
+  </si>
+  <si>
+    <t>εξώστης</t>
+  </si>
+  <si>
+    <t>σκα</t>
+  </si>
+  <si>
+    <t>σκάλα</t>
+  </si>
+  <si>
+    <t>ιστορία</t>
+  </si>
+  <si>
+    <t>πάσα μέρα</t>
+  </si>
+  <si>
+    <t>καθημερινά</t>
+  </si>
+  <si>
+    <t>πληροφορία</t>
+  </si>
+  <si>
+    <t>γραμμακική</t>
+  </si>
+  <si>
+    <t>γραμματική</t>
+  </si>
+  <si>
+    <t>προφορά</t>
+  </si>
+  <si>
+    <t>κείμενο</t>
+  </si>
+  <si>
+    <t>πομονή</t>
+  </si>
+  <si>
+    <t>υπομονή</t>
+  </si>
+  <si>
+    <t>αφού</t>
+  </si>
+  <si>
+    <t>ακόμα</t>
+  </si>
+  <si>
+    <t>πλέτερα</t>
+  </si>
+  <si>
+    <t>περισσότερα</t>
+  </si>
+  <si>
+    <t>λουπάϊ</t>
+  </si>
+  <si>
+    <t>τσουκάλι</t>
+  </si>
+  <si>
+    <t>τεγάνε</t>
+  </si>
+  <si>
+    <t>τηγάνι</t>
+  </si>
+  <si>
+    <t>κηρούνι</t>
+  </si>
+  <si>
+    <t>πηρούνι</t>
+  </si>
+  <si>
+    <t>μύσ̌α</t>
+  </si>
+  <si>
+    <t>κουτάλι</t>
+  </si>
+  <si>
+    <t>σκουτέα</t>
+  </si>
+  <si>
+    <t>βαθύ πιάτο</t>
+  </si>
+  <si>
+    <t>κράκα</t>
+  </si>
+  <si>
+    <t>κλειδί</t>
+  </si>
+  <si>
+    <t>κρεβάτ̇α</t>
+  </si>
+  <si>
+    <t>κρεβάτι</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2151,6 +2547,12 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2187,12 +2589,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2309,8 +2712,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5EF29A5B-8D20-4CD7-8E92-F1C4AD49B7BE}" name="Tabla1" displayName="Tabla1" ref="A1:D351" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4">
-  <autoFilter ref="A1:D351" xr:uid="{5EF29A5B-8D20-4CD7-8E92-F1C4AD49B7BE}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5EF29A5B-8D20-4CD7-8E92-F1C4AD49B7BE}" name="Tabla1" displayName="Tabla1" ref="A1:D421" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4">
+  <autoFilter ref="A1:D421" xr:uid="{5EF29A5B-8D20-4CD7-8E92-F1C4AD49B7BE}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D351">
     <sortCondition ref="A1:A351"/>
   </sortState>
@@ -2609,10 +3012,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D351"/>
+  <dimension ref="A1:D421"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A399" workbookViewId="0">
+      <selection activeCell="A422" sqref="A422"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7422,28 +7825,1018 @@
       </c>
     </row>
     <row r="348" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A348" s="2"/>
-      <c r="B348" s="2"/>
-      <c r="C348" s="2"/>
-      <c r="D348" s="2"/>
+      <c r="A348" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B348" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C348" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D348" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="349" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A349" s="2"/>
-      <c r="B349" s="2"/>
+      <c r="A349" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="B349" s="2" t="s">
+        <v>703</v>
+      </c>
       <c r="C349" s="2"/>
-      <c r="D349" s="2"/>
+      <c r="D349" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="350" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A350" s="2"/>
-      <c r="B350" s="2"/>
+      <c r="A350" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="B350" s="2" t="s">
+        <v>705</v>
+      </c>
       <c r="C350" s="2"/>
-      <c r="D350" s="2"/>
+      <c r="D350" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="351" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A351" s="2"/>
-      <c r="B351" s="2"/>
+      <c r="A351" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="B351" s="2" t="s">
+        <v>707</v>
+      </c>
       <c r="C351" s="2"/>
-      <c r="D351" s="2"/>
+      <c r="D351" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A352" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="B352" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="C352" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="D352" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A353" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="B353" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="C353" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D353" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A354" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B354" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C354" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D354" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A355" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="B355" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="C355" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="D355" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A356" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="B356" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="C356" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D356" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A357" s="3" t="s">
+        <v>715</v>
+      </c>
+      <c r="B357" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="C357" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D357" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A358" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="B358" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="C358" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D358" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A359" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="B359" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="C359" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D359" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A360" s="3" t="s">
+        <v>721</v>
+      </c>
+      <c r="B360" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="C360" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D360" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A361" s="3" t="s">
+        <v>723</v>
+      </c>
+      <c r="B361" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="C361" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D361" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A362" s="3" t="s">
+        <v>724</v>
+      </c>
+      <c r="B362" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="C362" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D362" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A363" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="B363" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="C363" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D363" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A364" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="B364" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="C364" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D364" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A365" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B365" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C365" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D365" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A366" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="B366" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="C366" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D366" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A367" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="B367" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="C367" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="D367" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A368" s="3" t="s">
+        <v>733</v>
+      </c>
+      <c r="B368" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="C368" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D368" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A369" s="3" t="s">
+        <v>735</v>
+      </c>
+      <c r="B369" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="C369" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D369" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A370" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="B370" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="C370" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="D370" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A371" s="3" t="s">
+        <v>740</v>
+      </c>
+      <c r="B371" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="C371" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D371" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A372" s="3" t="s">
+        <v>742</v>
+      </c>
+      <c r="B372" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="C372" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="D372" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A373" s="3" t="s">
+        <v>744</v>
+      </c>
+      <c r="B373" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="C373" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D373" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A374" s="3" t="s">
+        <v>746</v>
+      </c>
+      <c r="B374" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="C374" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D374" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A375" s="3" t="s">
+        <v>748</v>
+      </c>
+      <c r="B375" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="C375" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="D375" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A376" s="3" t="s">
+        <v>750</v>
+      </c>
+      <c r="B376" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="C376" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D376" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A377" s="3" t="s">
+        <v>752</v>
+      </c>
+      <c r="B377" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="C377" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D377" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A378" s="3" t="s">
+        <v>754</v>
+      </c>
+      <c r="B378" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="C378" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D378" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A379" s="3" t="s">
+        <v>756</v>
+      </c>
+      <c r="B379" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="C379" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D379" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A380" s="3" t="s">
+        <v>758</v>
+      </c>
+      <c r="B380" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="C380" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D380" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A381" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="B381" s="2" t="s">
+        <v>761</v>
+      </c>
+      <c r="C381" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D381" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A382" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="B382" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="C382" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D382" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A383" s="3" t="s">
+        <v>762</v>
+      </c>
+      <c r="B383" s="2" t="s">
+        <v>763</v>
+      </c>
+      <c r="C383" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D383" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A384" s="3" t="s">
+        <v>764</v>
+      </c>
+      <c r="B384" s="2" t="s">
+        <v>765</v>
+      </c>
+      <c r="C384" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D384" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A385" s="3" t="s">
+        <v>766</v>
+      </c>
+      <c r="B385" s="2" t="s">
+        <v>767</v>
+      </c>
+      <c r="C385" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D385" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A386" s="3" t="s">
+        <v>768</v>
+      </c>
+      <c r="B386" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="C386" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D386" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A387" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="B387" s="2" t="s">
+        <v>771</v>
+      </c>
+      <c r="C387" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D387" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A388" s="3" t="s">
+        <v>772</v>
+      </c>
+      <c r="B388" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="C388" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="D388" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A389" s="3" t="s">
+        <v>774</v>
+      </c>
+      <c r="B389" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="C389" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D389" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A390" s="3" t="s">
+        <v>776</v>
+      </c>
+      <c r="B390" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="C390" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D390" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A391" s="3" t="s">
+        <v>778</v>
+      </c>
+      <c r="B391" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="C391" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="D391" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A392" s="3" t="s">
+        <v>780</v>
+      </c>
+      <c r="B392" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="C392" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D392" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A393" s="3" t="s">
+        <v>782</v>
+      </c>
+      <c r="B393" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="C393" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D393" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A394" s="3" t="s">
+        <v>784</v>
+      </c>
+      <c r="B394" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="C394" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D394" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A395" s="3" t="s">
+        <v>786</v>
+      </c>
+      <c r="B395" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="C395" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D395" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A396" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="B396" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="C396" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D396" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A397" s="3" t="s">
+        <v>790</v>
+      </c>
+      <c r="B397" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="C397" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D397" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A398" s="3" t="s">
+        <v>792</v>
+      </c>
+      <c r="B398" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="C398" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D398" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A399" s="3" t="s">
+        <v>794</v>
+      </c>
+      <c r="B399" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="C399" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="D399" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A400" s="3" t="s">
+        <v>796</v>
+      </c>
+      <c r="B400" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="C400" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D400" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A401" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="B401" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="C401" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D401" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A402" s="3" t="s">
+        <v>800</v>
+      </c>
+      <c r="B402" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="C402" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D402" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A403" s="3" t="s">
+        <v>802</v>
+      </c>
+      <c r="B403" s="2" t="s">
+        <v>803</v>
+      </c>
+      <c r="C403" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="D403" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A404" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="B404" s="2" t="s">
+        <v>805</v>
+      </c>
+      <c r="C404" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="D404" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A405" s="3" t="s">
+        <v>806</v>
+      </c>
+      <c r="B405" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="C405" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D405" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A406" s="3" t="s">
+        <v>807</v>
+      </c>
+      <c r="B406" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="C406" s="2"/>
+      <c r="D406" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A407" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="B407" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="C407" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D407" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A408" s="3" t="s">
+        <v>810</v>
+      </c>
+      <c r="B408" s="2" t="s">
+        <v>811</v>
+      </c>
+      <c r="C408" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D408" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A409" s="3" t="s">
+        <v>812</v>
+      </c>
+      <c r="B409" s="3" t="s">
+        <v>812</v>
+      </c>
+      <c r="C409" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D409" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A410" s="3" t="s">
+        <v>813</v>
+      </c>
+      <c r="B410" s="3" t="s">
+        <v>813</v>
+      </c>
+      <c r="C410" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D410" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A411" s="3" t="s">
+        <v>814</v>
+      </c>
+      <c r="B411" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="C411" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D411" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A412" s="3" t="s">
+        <v>816</v>
+      </c>
+      <c r="B412" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="C412" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D412" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A413" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B413" s="2" t="s">
+        <v>817</v>
+      </c>
+      <c r="C413" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D413" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A414" s="3" t="s">
+        <v>818</v>
+      </c>
+      <c r="B414" s="2" t="s">
+        <v>819</v>
+      </c>
+      <c r="C414" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D414" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A415" s="3" t="s">
+        <v>820</v>
+      </c>
+      <c r="B415" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="C415" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="D415" s="3"/>
+    </row>
+    <row r="416" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A416" s="3" t="s">
+        <v>822</v>
+      </c>
+      <c r="B416" s="2" t="s">
+        <v>823</v>
+      </c>
+      <c r="C416" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D416" s="3"/>
+    </row>
+    <row r="417" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A417" s="3" t="s">
+        <v>824</v>
+      </c>
+      <c r="B417" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="C417" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="D417" s="3"/>
+    </row>
+    <row r="418" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A418" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="B418" s="2" t="s">
+        <v>827</v>
+      </c>
+      <c r="C418" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D418" s="3"/>
+    </row>
+    <row r="419" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A419" s="3" t="s">
+        <v>828</v>
+      </c>
+      <c r="B419" s="2" t="s">
+        <v>829</v>
+      </c>
+      <c r="C419" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="D419" s="3"/>
+    </row>
+    <row r="420" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A420" s="3" t="s">
+        <v>830</v>
+      </c>
+      <c r="B420" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="C420" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D420" s="3"/>
+    </row>
+    <row r="421" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A421" s="3" t="s">
+        <v>832</v>
+      </c>
+      <c r="B421" s="2" t="s">
+        <v>833</v>
+      </c>
+      <c r="C421" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D421" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/tables/main.xlsx
+++ b/data/tables/main.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jgcha\Desktop\Python\Códigos\Tsakonian tools\data\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D69EFF31-5C28-4455-8DB5-5E831462D087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31C2100C-2D20-41FD-91FF-356200672972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14490" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7305" yWindow="900" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="834">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1455" uniqueCount="935">
   <si>
     <t>tsakonian</t>
   </si>
@@ -2522,13 +2522,316 @@
   </si>
   <si>
     <t>κρεβάτι</t>
+  </si>
+  <si>
+    <t>κοϊθίνι</t>
+  </si>
+  <si>
+    <t>κοφίνι</t>
+  </si>
+  <si>
+    <t>ντρυνικό</t>
+  </si>
+  <si>
+    <t>μεγάλο καλάθι, τρυγοκόφινο</t>
+  </si>
+  <si>
+    <t>σάκ̇ο</t>
+  </si>
+  <si>
+    <t>σακί</t>
+  </si>
+  <si>
+    <t>μάτουκα</t>
+  </si>
+  <si>
+    <t>τσάπα</t>
+  </si>
+  <si>
+    <t>ξινιάρι</t>
+  </si>
+  <si>
+    <t>µπίκο</t>
+  </si>
+  <si>
+    <t>κασµάς</t>
+  </si>
+  <si>
+    <t>έρατσ̌ε</t>
+  </si>
+  <si>
+    <t>αλέτρι</t>
+  </si>
+  <si>
+    <t>σ̌ίνακα</t>
+  </si>
+  <si>
+    <t>δικριάνι</t>
+  </si>
+  <si>
+    <t>φκιάρι</t>
+  </si>
+  <si>
+    <t>φτυάρι</t>
+  </si>
+  <si>
+    <t>κακίστρι</t>
+  </si>
+  <si>
+    <t>καπίστρι</t>
+  </si>
+  <si>
+    <t>τριχία</t>
+  </si>
+  <si>
+    <t>τριχιά</t>
+  </si>
+  <si>
+    <t>γκιτσία</t>
+  </si>
+  <si>
+    <t>πιστιά</t>
+  </si>
+  <si>
+    <t>δίγκα</t>
+  </si>
+  <si>
+    <t>ίγκλα</t>
+  </si>
+  <si>
+    <t>πράνα</t>
+  </si>
+  <si>
+    <t>κόπανος</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>ατσίμπτανε</t>
+  </si>
+  <si>
+    <t>σφενδάμι</t>
+  </si>
+  <si>
+    <t>χαρουπία</t>
+  </si>
+  <si>
+    <t>χαρουπιά</t>
+  </si>
+  <si>
+    <t>αχλαδιά</t>
+  </si>
+  <si>
+    <t>συντζά</t>
+  </si>
+  <si>
+    <t>συκιά</t>
+  </si>
+  <si>
+    <t>μουρία</t>
+  </si>
+  <si>
+    <t>µουριά</t>
+  </si>
+  <si>
+    <t>λεµον̇ία</t>
+  </si>
+  <si>
+    <t>λεµονιά</t>
+  </si>
+  <si>
+    <t>πορτοκαλ̣ία</t>
+  </si>
+  <si>
+    <t>πορτοκαλιά</t>
+  </si>
+  <si>
+    <t>τσ̇υδωνία</t>
+  </si>
+  <si>
+    <t>κυδωνιά</t>
+  </si>
+  <si>
+    <t>καϊσία</t>
+  </si>
+  <si>
+    <t>καϊσιά (βερυκοκιά)</t>
+  </si>
+  <si>
+    <t>καζ̌ά</t>
+  </si>
+  <si>
+    <t>καρυδιά</t>
+  </si>
+  <si>
+    <t>κράµα</t>
+  </si>
+  <si>
+    <t>κλήµα</t>
+  </si>
+  <si>
+    <t>αλιοχρά</t>
+  </si>
+  <si>
+    <t>αγριαχλαδιά (γκορτσιά)</t>
+  </si>
+  <si>
+    <t>πρίνε</t>
+  </si>
+  <si>
+    <t>πουρνάρι</t>
+  </si>
+  <si>
+    <t>τσ̌ούα</t>
+  </si>
+  <si>
+    <t>βελανιδιά</t>
+  </si>
+  <si>
+    <t>μουνταλία</t>
+  </si>
+  <si>
+    <t>µυρτιά</t>
+  </si>
+  <si>
+    <t>φίλ̣υτσ̌ε</t>
+  </si>
+  <si>
+    <t>γλαντινιά</t>
+  </si>
+  <si>
+    <t>κούμαρε</t>
+  </si>
+  <si>
+    <t>κουµαριά</t>
+  </si>
+  <si>
+    <t>ακόρβατ̇ε</t>
+  </si>
+  <si>
+    <t>βάτο</t>
+  </si>
+  <si>
+    <t>φτερένισε</t>
+  </si>
+  <si>
+    <t>κοκορεβιθιά</t>
+  </si>
+  <si>
+    <t>π̇άντι</t>
+  </si>
+  <si>
+    <t>σπάρτο</t>
+  </si>
+  <si>
+    <t>απ̇αλία</t>
+  </si>
+  <si>
+    <t>σφαλάχτρι</t>
+  </si>
+  <si>
+    <t>κουκουτσία</t>
+  </si>
+  <si>
+    <t>κουτσουπιά</t>
+  </si>
+  <si>
+    <t>έατε</t>
+  </si>
+  <si>
+    <t>έλατο</t>
+  </si>
+  <si>
+    <t>τσίνε</t>
+  </si>
+  <si>
+    <t>σχίντο</t>
+  </si>
+  <si>
+    <t>νυγδαλ̣ία</t>
+  </si>
+  <si>
+    <t>αμυγδαλιά</t>
+  </si>
+  <si>
+    <t>κρέµµου</t>
+  </si>
+  <si>
+    <t>κρεμμύδι</t>
+  </si>
+  <si>
+    <t>απ̇άρα</t>
+  </si>
+  <si>
+    <t>καρναμπίτσ̇ι</t>
+  </si>
+  <si>
+    <t>κουνουπίδι</t>
+  </si>
+  <si>
+    <t>ντουµάτα</t>
+  </si>
+  <si>
+    <t>δέηµα</t>
+  </si>
+  <si>
+    <t>κοντό κολοκύθι</t>
+  </si>
+  <si>
+    <t>μακουνία</t>
+  </si>
+  <si>
+    <t>παπαρούνα</t>
+  </si>
+  <si>
+    <t>κοκαλία</t>
+  </si>
+  <si>
+    <t>καυκαλήθρα</t>
+  </si>
+  <si>
+    <t>κ̇άντζικα</t>
+  </si>
+  <si>
+    <t>μυρώνι</t>
+  </si>
+  <si>
+    <t>ζ̌ογκό</t>
+  </si>
+  <si>
+    <t>τζοχός</t>
+  </si>
+  <si>
+    <t>κόκ̇ο</t>
+  </si>
+  <si>
+    <t>ατζίναρε</t>
+  </si>
+  <si>
+    <t>ελία</t>
+  </si>
+  <si>
+    <t>άρτουµα</t>
+  </si>
+  <si>
+    <t>π̇ίτια</t>
+  </si>
+  <si>
+    <t>χυλοπίτες</t>
+  </si>
+  <si>
+    <t>φαέ</t>
+  </si>
+  <si>
+    <t>στάρι</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2553,6 +2856,12 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2647,6 +2956,13 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <top style="thin">
           <color auto="1"/>
         </top>
@@ -2662,13 +2978,6 @@
         <sz val="14"/>
         <name val="Calibri"/>
       </font>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -2712,8 +3021,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5EF29A5B-8D20-4CD7-8E92-F1C4AD49B7BE}" name="Tabla1" displayName="Tabla1" ref="A1:D421" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4">
-  <autoFilter ref="A1:D421" xr:uid="{5EF29A5B-8D20-4CD7-8E92-F1C4AD49B7BE}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5EF29A5B-8D20-4CD7-8E92-F1C4AD49B7BE}" name="Tabla1" displayName="Tabla1" ref="A1:D496" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6" headerRowBorderDxfId="4" tableBorderDxfId="5">
+  <autoFilter ref="A1:D496" xr:uid="{5EF29A5B-8D20-4CD7-8E92-F1C4AD49B7BE}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D351">
     <sortCondition ref="A1:A351"/>
   </sortState>
@@ -3012,10 +3321,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D421"/>
+  <dimension ref="A1:P496"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A399" workbookViewId="0">
-      <selection activeCell="A422" sqref="A422"/>
+    <sheetView tabSelected="1" topLeftCell="A482" workbookViewId="0">
+      <selection activeCell="A491" sqref="A491"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8560,7 +8869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A401" s="3" t="s">
         <v>798</v>
       </c>
@@ -8574,7 +8883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="402" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A402" s="3" t="s">
         <v>800</v>
       </c>
@@ -8588,7 +8897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A403" s="3" t="s">
         <v>802</v>
       </c>
@@ -8602,7 +8911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="404" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A404" s="2" t="s">
         <v>804</v>
       </c>
@@ -8616,7 +8925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="405" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A405" s="3" t="s">
         <v>806</v>
       </c>
@@ -8630,7 +8939,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="406" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A406" s="3" t="s">
         <v>807</v>
       </c>
@@ -8642,7 +8951,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="407" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A407" s="2" t="s">
         <v>809</v>
       </c>
@@ -8656,7 +8965,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="408" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A408" s="3" t="s">
         <v>810</v>
       </c>
@@ -8670,7 +8979,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="409" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A409" s="3" t="s">
         <v>812</v>
       </c>
@@ -8684,7 +8993,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="410" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A410" s="3" t="s">
         <v>813</v>
       </c>
@@ -8698,7 +9007,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="411" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A411" s="3" t="s">
         <v>814</v>
       </c>
@@ -8712,7 +9021,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="412" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A412" s="3" t="s">
         <v>816</v>
       </c>
@@ -8726,7 +9035,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="413" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A413" s="3" t="s">
         <v>46</v>
       </c>
@@ -8740,7 +9049,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="414" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A414" s="3" t="s">
         <v>818</v>
       </c>
@@ -8753,8 +9062,11 @@
       <c r="D414" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="415" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="P414" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="415" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A415" s="3" t="s">
         <v>820</v>
       </c>
@@ -8764,9 +9076,11 @@
       <c r="C415" s="2" t="s">
         <v>737</v>
       </c>
-      <c r="D415" s="3"/>
-    </row>
-    <row r="416" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D415" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="416" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A416" s="3" t="s">
         <v>822</v>
       </c>
@@ -8776,7 +9090,9 @@
       <c r="C416" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D416" s="3"/>
+      <c r="D416" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="417" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A417" s="3" t="s">
@@ -8788,7 +9104,9 @@
       <c r="C417" s="2" t="s">
         <v>737</v>
       </c>
-      <c r="D417" s="3"/>
+      <c r="D417" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="418" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A418" s="3" t="s">
@@ -8800,7 +9118,9 @@
       <c r="C418" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D418" s="3"/>
+      <c r="D418" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="419" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A419" s="3" t="s">
@@ -8812,7 +9132,9 @@
       <c r="C419" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="D419" s="3"/>
+      <c r="D419" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="420" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A420" s="3" t="s">
@@ -8824,7 +9146,9 @@
       <c r="C420" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D420" s="3"/>
+      <c r="D420" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="421" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A421" s="3" t="s">
@@ -8836,9 +9160,1060 @@
       <c r="C421" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D421" s="3"/>
+      <c r="D421" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A422" s="3" t="s">
+        <v>834</v>
+      </c>
+      <c r="B422" s="3" t="s">
+        <v>835</v>
+      </c>
+      <c r="C422" s="3" t="s">
+        <v>737</v>
+      </c>
+      <c r="D422" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A423" s="3" t="s">
+        <v>836</v>
+      </c>
+      <c r="B423" s="3" t="s">
+        <v>837</v>
+      </c>
+      <c r="C423" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D423" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A424" s="3" t="s">
+        <v>838</v>
+      </c>
+      <c r="B424" s="3" t="s">
+        <v>839</v>
+      </c>
+      <c r="C424" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D424" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A425" s="3" t="s">
+        <v>840</v>
+      </c>
+      <c r="B425" s="3" t="s">
+        <v>841</v>
+      </c>
+      <c r="C425" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D425" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A426" s="3" t="s">
+        <v>712</v>
+      </c>
+      <c r="B426" s="3" t="s">
+        <v>842</v>
+      </c>
+      <c r="C426" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D426" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A427" s="3" t="s">
+        <v>843</v>
+      </c>
+      <c r="B427" s="3" t="s">
+        <v>844</v>
+      </c>
+      <c r="C427" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D427" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A428" s="3" t="s">
+        <v>845</v>
+      </c>
+      <c r="B428" s="3" t="s">
+        <v>846</v>
+      </c>
+      <c r="C428" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D428" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A429" s="3" t="s">
+        <v>847</v>
+      </c>
+      <c r="B429" s="3" t="s">
+        <v>848</v>
+      </c>
+      <c r="C429" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D429" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A430" s="3" t="s">
+        <v>849</v>
+      </c>
+      <c r="B430" s="3" t="s">
+        <v>850</v>
+      </c>
+      <c r="C430" s="3" t="s">
+        <v>737</v>
+      </c>
+      <c r="D430" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A431" s="3" t="s">
+        <v>851</v>
+      </c>
+      <c r="B431" s="3" t="s">
+        <v>852</v>
+      </c>
+      <c r="C431" s="3" t="s">
+        <v>737</v>
+      </c>
+      <c r="D431" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A432" s="3" t="s">
+        <v>853</v>
+      </c>
+      <c r="B432" s="3" t="s">
+        <v>854</v>
+      </c>
+      <c r="C432" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="D432" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A433" s="3" t="s">
+        <v>855</v>
+      </c>
+      <c r="B433" s="3" t="s">
+        <v>856</v>
+      </c>
+      <c r="C433" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D433" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A434" s="3" t="s">
+        <v>857</v>
+      </c>
+      <c r="B434" s="3" t="s">
+        <v>858</v>
+      </c>
+      <c r="C434" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D434" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A435" s="3" t="s">
+        <v>859</v>
+      </c>
+      <c r="B435" s="3" t="s">
+        <v>860</v>
+      </c>
+      <c r="C435" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D435" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A436" s="3" t="s">
+        <v>862</v>
+      </c>
+      <c r="B436" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="C436" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D436" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A437" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="B437" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C437" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D437" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A438" s="3" t="s">
+        <v>864</v>
+      </c>
+      <c r="B438" s="3" t="s">
+        <v>865</v>
+      </c>
+      <c r="C438" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D438" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A439" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B439" s="3" t="s">
+        <v>866</v>
+      </c>
+      <c r="C439" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D439" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A440" s="3" t="s">
+        <v>867</v>
+      </c>
+      <c r="B440" s="3" t="s">
+        <v>868</v>
+      </c>
+      <c r="C440" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D440" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A441" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="B441" s="3" t="s">
+        <v>870</v>
+      </c>
+      <c r="C441" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D441" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A442" s="3" t="s">
+        <v>871</v>
+      </c>
+      <c r="B442" s="3" t="s">
+        <v>872</v>
+      </c>
+      <c r="C442" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D442" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A443" s="3" t="s">
+        <v>873</v>
+      </c>
+      <c r="B443" s="3" t="s">
+        <v>874</v>
+      </c>
+      <c r="C443" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D443" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A444" s="3" t="s">
+        <v>875</v>
+      </c>
+      <c r="B444" s="3" t="s">
+        <v>876</v>
+      </c>
+      <c r="C444" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D444" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A445" s="3" t="s">
+        <v>877</v>
+      </c>
+      <c r="B445" s="3" t="s">
+        <v>878</v>
+      </c>
+      <c r="C445" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D445" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A446" s="3" t="s">
+        <v>879</v>
+      </c>
+      <c r="B446" s="3" t="s">
+        <v>880</v>
+      </c>
+      <c r="C446" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D446" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A447" s="3" t="s">
+        <v>881</v>
+      </c>
+      <c r="B447" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="C447" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D447" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A448" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="B448" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C448" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D448" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A449" s="3" t="s">
+        <v>864</v>
+      </c>
+      <c r="B449" s="3" t="s">
+        <v>865</v>
+      </c>
+      <c r="C449" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D449" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A450" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B450" s="3" t="s">
+        <v>866</v>
+      </c>
+      <c r="C450" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D450" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A451" s="3" t="s">
+        <v>867</v>
+      </c>
+      <c r="B451" s="3" t="s">
+        <v>868</v>
+      </c>
+      <c r="C451" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D451" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A452" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="B452" s="3" t="s">
+        <v>870</v>
+      </c>
+      <c r="C452" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D452" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A453" s="3" t="s">
+        <v>871</v>
+      </c>
+      <c r="B453" s="3" t="s">
+        <v>872</v>
+      </c>
+      <c r="C453" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D453" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A454" s="3" t="s">
+        <v>873</v>
+      </c>
+      <c r="B454" s="3" t="s">
+        <v>874</v>
+      </c>
+      <c r="C454" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D454" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A455" s="3" t="s">
+        <v>875</v>
+      </c>
+      <c r="B455" s="3" t="s">
+        <v>876</v>
+      </c>
+      <c r="C455" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D455" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A456" s="3" t="s">
+        <v>877</v>
+      </c>
+      <c r="B456" s="3" t="s">
+        <v>878</v>
+      </c>
+      <c r="C456" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D456" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A457" s="3" t="s">
+        <v>879</v>
+      </c>
+      <c r="B457" s="3" t="s">
+        <v>880</v>
+      </c>
+      <c r="C457" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D457" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A458" s="3" t="s">
+        <v>881</v>
+      </c>
+      <c r="B458" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="C458" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D458" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A459" s="3" t="s">
+        <v>883</v>
+      </c>
+      <c r="B459" s="3" t="s">
+        <v>884</v>
+      </c>
+      <c r="C459" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D459" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A460" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="B460" s="3" t="s">
+        <v>886</v>
+      </c>
+      <c r="C460" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D460" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A461" s="3" t="s">
+        <v>887</v>
+      </c>
+      <c r="B461" s="3" t="s">
+        <v>888</v>
+      </c>
+      <c r="C461" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="D461" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A462" s="3" t="s">
+        <v>889</v>
+      </c>
+      <c r="B462" s="3" t="s">
+        <v>890</v>
+      </c>
+      <c r="C462" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D462" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A463" s="3" t="s">
+        <v>891</v>
+      </c>
+      <c r="B463" s="3" t="s">
+        <v>892</v>
+      </c>
+      <c r="C463" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D463" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A464" s="3" t="s">
+        <v>893</v>
+      </c>
+      <c r="B464" s="3" t="s">
+        <v>894</v>
+      </c>
+      <c r="C464" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D464" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A465" s="3" t="s">
+        <v>895</v>
+      </c>
+      <c r="B465" s="3" t="s">
+        <v>896</v>
+      </c>
+      <c r="C465" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D465" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A466" s="3" t="s">
+        <v>897</v>
+      </c>
+      <c r="B466" s="3" t="s">
+        <v>898</v>
+      </c>
+      <c r="C466" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D466" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A467" s="3" t="s">
+        <v>899</v>
+      </c>
+      <c r="B467" s="3" t="s">
+        <v>900</v>
+      </c>
+      <c r="C467" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D467" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A468" s="3" t="s">
+        <v>901</v>
+      </c>
+      <c r="B468" s="3" t="s">
+        <v>902</v>
+      </c>
+      <c r="C468" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D468" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A469" s="3" t="s">
+        <v>903</v>
+      </c>
+      <c r="B469" s="3" t="s">
+        <v>904</v>
+      </c>
+      <c r="C469" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D469" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A470" s="3" t="s">
+        <v>905</v>
+      </c>
+      <c r="B470" s="3" t="s">
+        <v>906</v>
+      </c>
+      <c r="C470" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D470" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A471" s="3" t="s">
+        <v>907</v>
+      </c>
+      <c r="B471" s="3" t="s">
+        <v>908</v>
+      </c>
+      <c r="C471" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D471" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A472" s="3" t="s">
+        <v>909</v>
+      </c>
+      <c r="B472" s="3" t="s">
+        <v>910</v>
+      </c>
+      <c r="C472" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D472" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A473" s="3" t="s">
+        <v>911</v>
+      </c>
+      <c r="B473" s="3" t="s">
+        <v>912</v>
+      </c>
+      <c r="C473" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D473" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A474" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="B474" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="C474" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D474" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A475" s="3" t="s">
+        <v>913</v>
+      </c>
+      <c r="B475" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C475" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D475" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A476" s="3" t="s">
+        <v>914</v>
+      </c>
+      <c r="B476" s="3" t="s">
+        <v>915</v>
+      </c>
+      <c r="C476" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D476" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A477" s="3" t="s">
+        <v>916</v>
+      </c>
+      <c r="B477" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="C477" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D477" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A478" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="B478" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="C478" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D478" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A479" s="3" t="s">
+        <v>917</v>
+      </c>
+      <c r="B479" s="3" t="s">
+        <v>918</v>
+      </c>
+      <c r="C479" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D479" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A480" s="3" t="s">
+        <v>919</v>
+      </c>
+      <c r="B480" s="3" t="s">
+        <v>920</v>
+      </c>
+      <c r="C480" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D480" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A481" s="3" t="s">
+        <v>921</v>
+      </c>
+      <c r="B481" s="3" t="s">
+        <v>922</v>
+      </c>
+      <c r="C481" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D481" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A482" s="3" t="s">
+        <v>923</v>
+      </c>
+      <c r="B482" s="3" t="s">
+        <v>924</v>
+      </c>
+      <c r="C482" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D482" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A483" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="B483" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="C483" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D483" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A484" s="3" t="s">
+        <v>925</v>
+      </c>
+      <c r="B484" s="3" t="s">
+        <v>926</v>
+      </c>
+      <c r="C484" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D484" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A485" s="3" t="s">
+        <v>927</v>
+      </c>
+      <c r="B485" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="C485" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="D485" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A486" s="3" t="s">
+        <v>928</v>
+      </c>
+      <c r="B486" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C486" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D486" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A487" s="3" t="s">
+        <v>929</v>
+      </c>
+      <c r="B487" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C487" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D487" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A488" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="B488" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="C488" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D488" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A489" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B489" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C489" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D489" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A490" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B490" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C490" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D490" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A491" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B491" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C491" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D491" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A492" s="3" t="s">
+        <v>930</v>
+      </c>
+      <c r="B492" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C492" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D492" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A493" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B493" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C493" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D493" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A494" s="3" t="s">
+        <v>931</v>
+      </c>
+      <c r="B494" s="3" t="s">
+        <v>932</v>
+      </c>
+      <c r="C494" s="3"/>
+      <c r="D494" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A495" s="3" t="s">
+        <v>933</v>
+      </c>
+      <c r="B495" s="3" t="s">
+        <v>934</v>
+      </c>
+      <c r="C495" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="D495" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A496" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="B496" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="C496" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D496" s="3">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/data/tables/main.xlsx
+++ b/data/tables/main.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jgcha\Desktop\Python\Códigos\Tsakonian tools\data\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31C2100C-2D20-41FD-91FF-356200672972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DCCEC4B-23B8-4CE8-88F6-69644EE82B62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7305" yWindow="900" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1455" uniqueCount="935">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1535" uniqueCount="953">
   <si>
     <t>tsakonian</t>
   </si>
@@ -2825,6 +2825,60 @@
   </si>
   <si>
     <t>στάρι</t>
+  </si>
+  <si>
+    <t>κουλίντζου</t>
+  </si>
+  <si>
+    <t>είδος ζυμαρικού</t>
+  </si>
+  <si>
+    <t>κολιούρα</t>
+  </si>
+  <si>
+    <t>πίτα που ψήνεται στην πλάνη</t>
+  </si>
+  <si>
+    <t>γριτσ̇έα</t>
+  </si>
+  <si>
+    <t>κουλούρα</t>
+  </si>
+  <si>
+    <t>κάζ̌υ</t>
+  </si>
+  <si>
+    <t>καρύδι</t>
+  </si>
+  <si>
+    <t>κουνάρι</t>
+  </si>
+  <si>
+    <t>σκυλάκι</t>
+  </si>
+  <si>
+    <t>μονάρι</t>
+  </si>
+  <si>
+    <t>μουλάρι</t>
+  </si>
+  <si>
+    <t>βου</t>
+  </si>
+  <si>
+    <t>βόδι</t>
+  </si>
+  <si>
+    <t>ρουφάλι</t>
+  </si>
+  <si>
+    <t>κατσικάκι</t>
+  </si>
+  <si>
+    <t>τσ̌άο</t>
+  </si>
+  <si>
+    <t>τραγί</t>
   </si>
 </sst>
 </file>
@@ -2856,6 +2910,7 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2956,13 +3011,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <top style="thin">
           <color auto="1"/>
         </top>
@@ -2978,6 +3026,13 @@
         <sz val="14"/>
         <name val="Calibri"/>
       </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -3021,8 +3076,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5EF29A5B-8D20-4CD7-8E92-F1C4AD49B7BE}" name="Tabla1" displayName="Tabla1" ref="A1:D496" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6" headerRowBorderDxfId="4" tableBorderDxfId="5">
-  <autoFilter ref="A1:D496" xr:uid="{5EF29A5B-8D20-4CD7-8E92-F1C4AD49B7BE}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5EF29A5B-8D20-4CD7-8E92-F1C4AD49B7BE}" name="Tabla1" displayName="Tabla1" ref="A1:D524" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4">
+  <autoFilter ref="A1:D524" xr:uid="{5EF29A5B-8D20-4CD7-8E92-F1C4AD49B7BE}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D351">
     <sortCondition ref="A1:A351"/>
   </sortState>
@@ -3321,10 +3376,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P496"/>
+  <dimension ref="A1:P524"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A482" workbookViewId="0">
-      <selection activeCell="A491" sqref="A491"/>
+    <sheetView tabSelected="1" topLeftCell="A508" workbookViewId="0">
+      <selection activeCell="A524" sqref="A524"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10212,6 +10267,388 @@
         <v>1</v>
       </c>
     </row>
+    <row r="497" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A497" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="B497" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="C497" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="D497" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A498" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B498" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C498" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D498" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A499" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B499" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C499" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D499" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A500" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B500" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C500" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D500" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="501" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A501" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="B501" s="2" t="s">
+        <v>936</v>
+      </c>
+      <c r="C501" s="2"/>
+      <c r="D501" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="502" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A502" s="2" t="s">
+        <v>937</v>
+      </c>
+      <c r="B502" s="2" t="s">
+        <v>938</v>
+      </c>
+      <c r="C502" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D502" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="503" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A503" s="2" t="s">
+        <v>939</v>
+      </c>
+      <c r="B503" s="2" t="s">
+        <v>940</v>
+      </c>
+      <c r="C503" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="D503" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="504" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A504" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B504" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C504" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D504" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="505" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A505" s="2" t="s">
+        <v>941</v>
+      </c>
+      <c r="B505" s="2" t="s">
+        <v>942</v>
+      </c>
+      <c r="C505" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D505" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="506" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A506" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="B506" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="C506" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D506" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="507" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A507" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="B507" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="C507" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D507" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="508" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A508" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="B508" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="C508" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="D508" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="509" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A509" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B509" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="C509" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="D509" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A510" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B510" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="C510" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D510" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A511" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B511" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C511" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D511" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A512" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="B512" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="C512" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D512" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A513" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="B513" s="2" t="s">
+        <v>946</v>
+      </c>
+      <c r="C513" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="D513" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A514" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B514" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C514" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="D514" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A515" s="2" t="s">
+        <v>947</v>
+      </c>
+      <c r="B515" s="2" t="s">
+        <v>948</v>
+      </c>
+      <c r="C515" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="D515" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A516" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="B516" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="C516" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D516" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A517" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="B517" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="C517" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D517" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A518" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="B518" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="C518" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="D518" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A519" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B519" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C519" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D519" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A520" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B520" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C520" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="D520" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A521" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B521" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C521" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D521" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A522" s="2" t="s">
+        <v>949</v>
+      </c>
+      <c r="B522" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="C522" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="D522" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A523" s="2" t="s">
+        <v>951</v>
+      </c>
+      <c r="B523" s="2" t="s">
+        <v>952</v>
+      </c>
+      <c r="C523" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="D523" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A524" s="2"/>
+      <c r="B524" s="2"/>
+      <c r="C524" s="2"/>
+      <c r="D524" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/tables/main.xlsx
+++ b/data/tables/main.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jgcha\Desktop\Python\Códigos\TsakonianDB\data\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A8DC75D-286B-44B8-8274-B95AC4C2E32D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C885B99-D7DC-4A07-B9DD-D1537A5357E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="6900" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2313" uniqueCount="1508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2337" uniqueCount="1520">
   <si>
     <t>tsakonian</t>
   </si>
@@ -4544,6 +4544,42 @@
   </si>
   <si>
     <t>πλεύρα</t>
+  </si>
+  <si>
+    <t>κείνα</t>
+  </si>
+  <si>
+    <t>στσεγκουμένε</t>
+  </si>
+  <si>
+    <t>σκέφτομαι</t>
+  </si>
+  <si>
+    <t>ιδέα</t>
+  </si>
+  <si>
+    <t>πιο</t>
+  </si>
+  <si>
+    <t>τσαπρούκ̇ου</t>
+  </si>
+  <si>
+    <t>ξαπλώνω</t>
+  </si>
+  <si>
+    <t>φόλα</t>
+  </si>
+  <si>
+    <t>ψοφού</t>
+  </si>
+  <si>
+    <t>ψοφώ</t>
+  </si>
+  <si>
+    <t>προχωρού</t>
+  </si>
+  <si>
+    <t>προχωράω</t>
   </si>
 </sst>
 </file>
@@ -4906,10 +4942,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D804"/>
+  <dimension ref="A1:D812"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A780" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A805" sqref="A805"/>
+    <sheetView tabSelected="1" topLeftCell="A796" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A813" sqref="A813"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15846,6 +15882,94 @@
         <v>37</v>
       </c>
     </row>
+    <row r="805" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A805" t="s">
+        <v>1508</v>
+      </c>
+      <c r="B805" t="s">
+        <v>605</v>
+      </c>
+      <c r="C805" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="806" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A806" t="s">
+        <v>1509</v>
+      </c>
+      <c r="B806" t="s">
+        <v>1510</v>
+      </c>
+      <c r="C806" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="807" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A807" t="s">
+        <v>1511</v>
+      </c>
+      <c r="B807" t="s">
+        <v>1511</v>
+      </c>
+      <c r="C807" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="808" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A808" t="s">
+        <v>1512</v>
+      </c>
+      <c r="B808" t="s">
+        <v>1512</v>
+      </c>
+      <c r="C808" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="809" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A809" t="s">
+        <v>1513</v>
+      </c>
+      <c r="B809" t="s">
+        <v>1514</v>
+      </c>
+      <c r="C809" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="810" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A810" t="s">
+        <v>1515</v>
+      </c>
+      <c r="B810" t="s">
+        <v>1515</v>
+      </c>
+      <c r="C810" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="811" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A811" t="s">
+        <v>1516</v>
+      </c>
+      <c r="B811" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C811" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="812" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A812" t="s">
+        <v>1518</v>
+      </c>
+      <c r="B812" t="s">
+        <v>1519</v>
+      </c>
+      <c r="C812" t="s">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/tables/main.xlsx
+++ b/data/tables/main.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jgcha\Desktop\Python\Códigos\TsakonianDB\data\tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://havas-my.sharepoint.com/personal/jaime_garcia_globalservs_com/Documents/Desktop/Tsakonian repo/TsakonianDB/data/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C885B99-D7DC-4A07-B9DD-D1537A5357E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{1C885B99-D7DC-4A07-B9DD-D1537A5357E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A40164C-4BB0-40C2-A666-057D682BB457}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="6900" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2337" uniqueCount="1520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2340" uniqueCount="1521">
   <si>
     <t>tsakonian</t>
   </si>
@@ -4580,6 +4580,9 @@
   </si>
   <si>
     <t>προχωράω</t>
+  </si>
+  <si>
+    <t>ναι</t>
   </si>
 </sst>
 </file>
@@ -4942,15 +4945,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D812"/>
+  <dimension ref="A1:D813"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A796" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="A813" sqref="A813"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4964,7 +4967,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -4978,7 +4981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -4989,7 +4992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -5000,7 +5003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -5014,7 +5017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -5028,7 +5031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -5042,7 +5045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -5056,7 +5059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -5070,7 +5073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -5081,7 +5084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -5092,7 +5095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -5106,7 +5109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -5120,7 +5123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -5134,7 +5137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>38</v>
       </c>
@@ -5148,7 +5151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>40</v>
       </c>
@@ -5162,7 +5165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>43</v>
       </c>
@@ -5176,7 +5179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>45</v>
       </c>
@@ -5190,7 +5193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>47</v>
       </c>
@@ -5204,7 +5207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>50</v>
       </c>
@@ -5218,7 +5221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>52</v>
       </c>
@@ -5232,7 +5235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>55</v>
       </c>
@@ -5246,7 +5249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>57</v>
       </c>
@@ -5260,7 +5263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>59</v>
       </c>
@@ -5274,7 +5277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>61</v>
       </c>
@@ -5288,7 +5291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>63</v>
       </c>
@@ -5302,7 +5305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>66</v>
       </c>
@@ -5316,7 +5319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>69</v>
       </c>
@@ -5330,7 +5333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>71</v>
       </c>
@@ -5344,7 +5347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>74</v>
       </c>
@@ -5358,7 +5361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>76</v>
       </c>
@@ -5372,7 +5375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>78</v>
       </c>
@@ -5383,7 +5386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>80</v>
       </c>
@@ -5397,7 +5400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>82</v>
       </c>
@@ -5408,7 +5411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>84</v>
       </c>
@@ -5419,7 +5422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>86</v>
       </c>
@@ -5433,7 +5436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>88</v>
       </c>
@@ -5447,7 +5450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>91</v>
       </c>
@@ -5461,7 +5464,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>93</v>
       </c>
@@ -5475,7 +5478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>95</v>
       </c>
@@ -5486,7 +5489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>97</v>
       </c>
@@ -5500,7 +5503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>99</v>
       </c>
@@ -5511,7 +5514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>101</v>
       </c>
@@ -5525,7 +5528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>103</v>
       </c>
@@ -5539,7 +5542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>105</v>
       </c>
@@ -5553,7 +5556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>107</v>
       </c>
@@ -5567,7 +5570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>109</v>
       </c>
@@ -5581,7 +5584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>111</v>
       </c>
@@ -5595,7 +5598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>113</v>
       </c>
@@ -5609,7 +5612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>115</v>
       </c>
@@ -5620,7 +5623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>117</v>
       </c>
@@ -5634,7 +5637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>119</v>
       </c>
@@ -5648,7 +5651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>121</v>
       </c>
@@ -5659,7 +5662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>122</v>
       </c>
@@ -5673,7 +5676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>124</v>
       </c>
@@ -5684,7 +5687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>126</v>
       </c>
@@ -5698,7 +5701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>128</v>
       </c>
@@ -5712,7 +5715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>130</v>
       </c>
@@ -5726,7 +5729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>132</v>
       </c>
@@ -5740,7 +5743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>134</v>
       </c>
@@ -5754,7 +5757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>136</v>
       </c>
@@ -5768,7 +5771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>138</v>
       </c>
@@ -5782,7 +5785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>140</v>
       </c>
@@ -5796,7 +5799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>142</v>
       </c>
@@ -5810,7 +5813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>144</v>
       </c>
@@ -5824,7 +5827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>146</v>
       </c>
@@ -5838,7 +5841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>148</v>
       </c>
@@ -5852,7 +5855,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>150</v>
       </c>
@@ -5866,7 +5869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>152</v>
       </c>
@@ -5880,7 +5883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>154</v>
       </c>
@@ -5894,7 +5897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>156</v>
       </c>
@@ -5905,7 +5908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>158</v>
       </c>
@@ -5919,7 +5922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>159</v>
       </c>
@@ -5933,7 +5936,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>161</v>
       </c>
@@ -5947,7 +5950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>163</v>
       </c>
@@ -5961,7 +5964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>166</v>
       </c>
@@ -5975,7 +5978,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>168</v>
       </c>
@@ -5989,7 +5992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>170</v>
       </c>
@@ -6000,7 +6003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>172</v>
       </c>
@@ -6014,7 +6017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>174</v>
       </c>
@@ -6028,7 +6031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>176</v>
       </c>
@@ -6042,7 +6045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>178</v>
       </c>
@@ -6056,7 +6059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>181</v>
       </c>
@@ -6070,7 +6073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>183</v>
       </c>
@@ -6084,7 +6087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>185</v>
       </c>
@@ -6098,7 +6101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>186</v>
       </c>
@@ -6112,7 +6115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>188</v>
       </c>
@@ -6123,7 +6126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>190</v>
       </c>
@@ -6137,7 +6140,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>192</v>
       </c>
@@ -6151,7 +6154,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>194</v>
       </c>
@@ -6165,7 +6168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>196</v>
       </c>
@@ -6179,7 +6182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>198</v>
       </c>
@@ -6193,7 +6196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>200</v>
       </c>
@@ -6207,7 +6210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>202</v>
       </c>
@@ -6221,7 +6224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>204</v>
       </c>
@@ -6235,7 +6238,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>206</v>
       </c>
@@ -6249,7 +6252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>208</v>
       </c>
@@ -6263,7 +6266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>210</v>
       </c>
@@ -6277,7 +6280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>212</v>
       </c>
@@ -6291,7 +6294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>213</v>
       </c>
@@ -6305,7 +6308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>215</v>
       </c>
@@ -6319,7 +6322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>217</v>
       </c>
@@ -6333,7 +6336,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>219</v>
       </c>
@@ -6347,7 +6350,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>221</v>
       </c>
@@ -6361,7 +6364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>223</v>
       </c>
@@ -6375,7 +6378,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>225</v>
       </c>
@@ -6389,7 +6392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>227</v>
       </c>
@@ -6403,7 +6406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>229</v>
       </c>
@@ -6417,7 +6420,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>231</v>
       </c>
@@ -6431,7 +6434,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>233</v>
       </c>
@@ -6445,7 +6448,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>235</v>
       </c>
@@ -6459,7 +6462,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>237</v>
       </c>
@@ -6473,7 +6476,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>239</v>
       </c>
@@ -6484,7 +6487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>241</v>
       </c>
@@ -6498,7 +6501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>243</v>
       </c>
@@ -6509,7 +6512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>244</v>
       </c>
@@ -6520,7 +6523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>246</v>
       </c>
@@ -6534,7 +6537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>248</v>
       </c>
@@ -6548,7 +6551,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>250</v>
       </c>
@@ -6562,7 +6565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>252</v>
       </c>
@@ -6576,7 +6579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>254</v>
       </c>
@@ -6590,7 +6593,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>256</v>
       </c>
@@ -6604,7 +6607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>258</v>
       </c>
@@ -6618,7 +6621,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>260</v>
       </c>
@@ -6629,7 +6632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>262</v>
       </c>
@@ -6643,7 +6646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>264</v>
       </c>
@@ -6657,7 +6660,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>266</v>
       </c>
@@ -6668,7 +6671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>267</v>
       </c>
@@ -6682,7 +6685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>269</v>
       </c>
@@ -6696,7 +6699,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>271</v>
       </c>
@@ -6710,7 +6713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>273</v>
       </c>
@@ -6724,7 +6727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>275</v>
       </c>
@@ -6738,7 +6741,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>277</v>
       </c>
@@ -6752,7 +6755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>279</v>
       </c>
@@ -6766,7 +6769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>280</v>
       </c>
@@ -6780,7 +6783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>283</v>
       </c>
@@ -6794,7 +6797,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>285</v>
       </c>
@@ -6808,7 +6811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>287</v>
       </c>
@@ -6822,7 +6825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>289</v>
       </c>
@@ -6836,7 +6839,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>291</v>
       </c>
@@ -6850,7 +6853,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>292</v>
       </c>
@@ -6864,7 +6867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>295</v>
       </c>
@@ -6878,7 +6881,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>297</v>
       </c>
@@ -6892,7 +6895,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>299</v>
       </c>
@@ -6906,7 +6909,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>300</v>
       </c>
@@ -6920,7 +6923,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>302</v>
       </c>
@@ -6934,7 +6937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>304</v>
       </c>
@@ -6948,7 +6951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>306</v>
       </c>
@@ -6962,7 +6965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>308</v>
       </c>
@@ -6973,7 +6976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>310</v>
       </c>
@@ -6987,7 +6990,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>312</v>
       </c>
@@ -7001,7 +7004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>314</v>
       </c>
@@ -7015,7 +7018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>316</v>
       </c>
@@ -7029,7 +7032,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>318</v>
       </c>
@@ -7043,7 +7046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>319</v>
       </c>
@@ -7054,7 +7057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>320</v>
       </c>
@@ -7068,7 +7071,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>322</v>
       </c>
@@ -7082,7 +7085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>325</v>
       </c>
@@ -7096,7 +7099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>327</v>
       </c>
@@ -7110,7 +7113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>328</v>
       </c>
@@ -7124,7 +7127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>330</v>
       </c>
@@ -7138,7 +7141,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>332</v>
       </c>
@@ -7152,7 +7155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>334</v>
       </c>
@@ -7166,7 +7169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>336</v>
       </c>
@@ -7180,7 +7183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>338</v>
       </c>
@@ -7194,7 +7197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>340</v>
       </c>
@@ -7208,7 +7211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>342</v>
       </c>
@@ -7222,7 +7225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>344</v>
       </c>
@@ -7236,7 +7239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>344</v>
       </c>
@@ -7250,7 +7253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>348</v>
       </c>
@@ -7264,7 +7267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>350</v>
       </c>
@@ -7278,7 +7281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>351</v>
       </c>
@@ -7292,7 +7295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>353</v>
       </c>
@@ -7303,7 +7306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>355</v>
       </c>
@@ -7314,7 +7317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>357</v>
       </c>
@@ -7325,7 +7328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>359</v>
       </c>
@@ -7339,7 +7342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>361</v>
       </c>
@@ -7353,7 +7356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>364</v>
       </c>
@@ -7367,7 +7370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>366</v>
       </c>
@@ -7381,7 +7384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>367</v>
       </c>
@@ -7392,7 +7395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>368</v>
       </c>
@@ -7406,7 +7409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>370</v>
       </c>
@@ -7420,7 +7423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>372</v>
       </c>
@@ -7434,7 +7437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>373</v>
       </c>
@@ -7448,7 +7451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>375</v>
       </c>
@@ -7462,7 +7465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>377</v>
       </c>
@@ -7476,7 +7479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>379</v>
       </c>
@@ -7490,7 +7493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>381</v>
       </c>
@@ -7501,7 +7504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>383</v>
       </c>
@@ -7515,7 +7518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>385</v>
       </c>
@@ -7526,7 +7529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>386</v>
       </c>
@@ -7540,7 +7543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>388</v>
       </c>
@@ -7554,7 +7557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>390</v>
       </c>
@@ -7568,7 +7571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>392</v>
       </c>
@@ -7582,7 +7585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>394</v>
       </c>
@@ -7596,7 +7599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>396</v>
       </c>
@@ -7607,7 +7610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>398</v>
       </c>
@@ -7621,7 +7624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>400</v>
       </c>
@@ -7635,7 +7638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>402</v>
       </c>
@@ -7649,7 +7652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>404</v>
       </c>
@@ -7663,7 +7666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>406</v>
       </c>
@@ -7677,7 +7680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>408</v>
       </c>
@@ -7691,7 +7694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>410</v>
       </c>
@@ -7705,7 +7708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>412</v>
       </c>
@@ -7719,7 +7722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>414</v>
       </c>
@@ -7733,7 +7736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>416</v>
       </c>
@@ -7747,7 +7750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>417</v>
       </c>
@@ -7761,7 +7764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>419</v>
       </c>
@@ -7775,7 +7778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>421</v>
       </c>
@@ -7789,7 +7792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>423</v>
       </c>
@@ -7803,7 +7806,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>425</v>
       </c>
@@ -7817,7 +7820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>426</v>
       </c>
@@ -7831,7 +7834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>428</v>
       </c>
@@ -7845,7 +7848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>430</v>
       </c>
@@ -7856,7 +7859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>432</v>
       </c>
@@ -7870,7 +7873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>434</v>
       </c>
@@ -7884,7 +7887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>436</v>
       </c>
@@ -7898,7 +7901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>438</v>
       </c>
@@ -7912,7 +7915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>440</v>
       </c>
@@ -7926,7 +7929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>442</v>
       </c>
@@ -7940,7 +7943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>444</v>
       </c>
@@ -7954,7 +7957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>446</v>
       </c>
@@ -7965,7 +7968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>448</v>
       </c>
@@ -7979,7 +7982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>449</v>
       </c>
@@ -7993,7 +7996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>451</v>
       </c>
@@ -8007,7 +8010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>453</v>
       </c>
@@ -8018,7 +8021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>455</v>
       </c>
@@ -8032,7 +8035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>457</v>
       </c>
@@ -8043,7 +8046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>459</v>
       </c>
@@ -8057,7 +8060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>461</v>
       </c>
@@ -8071,7 +8074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>463</v>
       </c>
@@ -8085,7 +8088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>465</v>
       </c>
@@ -8099,7 +8102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>466</v>
       </c>
@@ -8113,7 +8116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>467</v>
       </c>
@@ -8127,7 +8130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>469</v>
       </c>
@@ -8141,7 +8144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>471</v>
       </c>
@@ -8155,7 +8158,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>473</v>
       </c>
@@ -8169,7 +8172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>475</v>
       </c>
@@ -8183,7 +8186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>476</v>
       </c>
@@ -8197,7 +8200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>478</v>
       </c>
@@ -8208,7 +8211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>479</v>
       </c>
@@ -8222,7 +8225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>481</v>
       </c>
@@ -8236,7 +8239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>483</v>
       </c>
@@ -8250,7 +8253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>485</v>
       </c>
@@ -8264,7 +8267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>487</v>
       </c>
@@ -8278,7 +8281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>488</v>
       </c>
@@ -8292,7 +8295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>490</v>
       </c>
@@ -8303,7 +8306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>492</v>
       </c>
@@ -8317,7 +8320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>494</v>
       </c>
@@ -8331,7 +8334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>495</v>
       </c>
@@ -8342,7 +8345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>497</v>
       </c>
@@ -8356,7 +8359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>499</v>
       </c>
@@ -8367,7 +8370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>501</v>
       </c>
@@ -8381,7 +8384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>503</v>
       </c>
@@ -8395,7 +8398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>505</v>
       </c>
@@ -8406,7 +8409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>507</v>
       </c>
@@ -8420,7 +8423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>509</v>
       </c>
@@ -8431,7 +8434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>511</v>
       </c>
@@ -8445,7 +8448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>513</v>
       </c>
@@ -8459,7 +8462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>515</v>
       </c>
@@ -8473,7 +8476,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>516</v>
       </c>
@@ -8487,7 +8490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>518</v>
       </c>
@@ -8501,7 +8504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>519</v>
       </c>
@@ -8515,7 +8518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>521</v>
       </c>
@@ -8529,7 +8532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>523</v>
       </c>
@@ -8543,7 +8546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>525</v>
       </c>
@@ -8557,7 +8560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>527</v>
       </c>
@@ -8571,7 +8574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>529</v>
       </c>
@@ -8582,7 +8585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>531</v>
       </c>
@@ -8596,7 +8599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>533</v>
       </c>
@@ -8610,7 +8613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>535</v>
       </c>
@@ -8624,7 +8627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>537</v>
       </c>
@@ -8638,7 +8641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>539</v>
       </c>
@@ -8652,7 +8655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>540</v>
       </c>
@@ -8666,7 +8669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>542</v>
       </c>
@@ -8680,7 +8683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>543</v>
       </c>
@@ -8694,7 +8697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>545</v>
       </c>
@@ -8708,7 +8711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>547</v>
       </c>
@@ -8719,7 +8722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>548</v>
       </c>
@@ -8733,7 +8736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>550</v>
       </c>
@@ -8747,7 +8750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>552</v>
       </c>
@@ -8761,7 +8764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>554</v>
       </c>
@@ -8775,7 +8778,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>555</v>
       </c>
@@ -8789,7 +8792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>557</v>
       </c>
@@ -8803,7 +8806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>559</v>
       </c>
@@ -8817,7 +8820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>561</v>
       </c>
@@ -8831,7 +8834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>562</v>
       </c>
@@ -8845,7 +8848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>564</v>
       </c>
@@ -8859,7 +8862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>566</v>
       </c>
@@ -8873,7 +8876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>568</v>
       </c>
@@ -8887,7 +8890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>570</v>
       </c>
@@ -8901,7 +8904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>572</v>
       </c>
@@ -8915,7 +8918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>575</v>
       </c>
@@ -8929,7 +8932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>577</v>
       </c>
@@ -8943,7 +8946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>579</v>
       </c>
@@ -8957,7 +8960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>581</v>
       </c>
@@ -8971,7 +8974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>583</v>
       </c>
@@ -8985,7 +8988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>585</v>
       </c>
@@ -8999,7 +9002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>587</v>
       </c>
@@ -9013,7 +9016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>588</v>
       </c>
@@ -9027,7 +9030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>591</v>
       </c>
@@ -9041,7 +9044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>593</v>
       </c>
@@ -9055,7 +9058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>595</v>
       </c>
@@ -9066,7 +9069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>597</v>
       </c>
@@ -9077,7 +9080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>598</v>
       </c>
@@ -9091,7 +9094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>600</v>
       </c>
@@ -9105,7 +9108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>602</v>
       </c>
@@ -9119,7 +9122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>604</v>
       </c>
@@ -9133,7 +9136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>606</v>
       </c>
@@ -9147,7 +9150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>608</v>
       </c>
@@ -9161,7 +9164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>610</v>
       </c>
@@ -9175,7 +9178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>612</v>
       </c>
@@ -9189,7 +9192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>614</v>
       </c>
@@ -9203,7 +9206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>616</v>
       </c>
@@ -9217,7 +9220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>618</v>
       </c>
@@ -9231,7 +9234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>619</v>
       </c>
@@ -9245,7 +9248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>621</v>
       </c>
@@ -9259,7 +9262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>623</v>
       </c>
@@ -9273,7 +9276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>625</v>
       </c>
@@ -9284,7 +9287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>627</v>
       </c>
@@ -9298,7 +9301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>629</v>
       </c>
@@ -9312,7 +9315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>631</v>
       </c>
@@ -9326,7 +9329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>633</v>
       </c>
@@ -9340,7 +9343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>635</v>
       </c>
@@ -9354,7 +9357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>637</v>
       </c>
@@ -9368,7 +9371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>639</v>
       </c>
@@ -9382,7 +9385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>641</v>
       </c>
@@ -9396,7 +9399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>642</v>
       </c>
@@ -9410,7 +9413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>644</v>
       </c>
@@ -9424,7 +9427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>646</v>
       </c>
@@ -9438,7 +9441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>648</v>
       </c>
@@ -9452,7 +9455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>650</v>
       </c>
@@ -9466,7 +9469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>652</v>
       </c>
@@ -9480,7 +9483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>654</v>
       </c>
@@ -9494,7 +9497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>656</v>
       </c>
@@ -9508,7 +9511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>658</v>
       </c>
@@ -9522,7 +9525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>660</v>
       </c>
@@ -9536,7 +9539,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>661</v>
       </c>
@@ -9550,7 +9553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>663</v>
       </c>
@@ -9564,7 +9567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>665</v>
       </c>
@@ -9575,7 +9578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>665</v>
       </c>
@@ -9589,7 +9592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>668</v>
       </c>
@@ -9603,7 +9606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>670</v>
       </c>
@@ -9617,7 +9620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>672</v>
       </c>
@@ -9631,7 +9634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>674</v>
       </c>
@@ -9645,7 +9648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>676</v>
       </c>
@@ -9659,7 +9662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>678</v>
       </c>
@@ -9673,7 +9676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>680</v>
       </c>
@@ -9687,7 +9690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>681</v>
       </c>
@@ -9701,7 +9704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>683</v>
       </c>
@@ -9715,7 +9718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>685</v>
       </c>
@@ -9729,7 +9732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>687</v>
       </c>
@@ -9743,7 +9746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>689</v>
       </c>
@@ -9757,7 +9760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>691</v>
       </c>
@@ -9771,7 +9774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>693</v>
       </c>
@@ -9785,7 +9788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>695</v>
       </c>
@@ -9799,7 +9802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>697</v>
       </c>
@@ -9813,7 +9816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>187</v>
       </c>
@@ -9824,7 +9827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>699</v>
       </c>
@@ -9838,7 +9841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>701</v>
       </c>
@@ -9849,7 +9852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>703</v>
       </c>
@@ -9863,7 +9866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>705</v>
       </c>
@@ -9874,7 +9877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>707</v>
       </c>
@@ -9888,7 +9891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>709</v>
       </c>
@@ -9902,7 +9905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>711</v>
       </c>
@@ -9916,7 +9919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>713</v>
       </c>
@@ -9930,7 +9933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>715</v>
       </c>
@@ -9944,7 +9947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>717</v>
       </c>
@@ -9958,7 +9961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>719</v>
       </c>
@@ -9972,7 +9975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>721</v>
       </c>
@@ -9983,7 +9986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>723</v>
       </c>
@@ -9997,7 +10000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>725</v>
       </c>
@@ -10011,7 +10014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>727</v>
       </c>
@@ -10025,7 +10028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>729</v>
       </c>
@@ -10039,7 +10042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>732</v>
       </c>
@@ -10053,7 +10056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>733</v>
       </c>
@@ -10067,7 +10070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>735</v>
       </c>
@@ -10081,7 +10084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>737</v>
       </c>
@@ -10095,7 +10098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>739</v>
       </c>
@@ -10109,7 +10112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>741</v>
       </c>
@@ -10123,7 +10126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>743</v>
       </c>
@@ -10137,7 +10140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>745</v>
       </c>
@@ -10151,7 +10154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>747</v>
       </c>
@@ -10165,7 +10168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>749</v>
       </c>
@@ -10179,7 +10182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>751</v>
       </c>
@@ -10193,7 +10196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>753</v>
       </c>
@@ -10207,7 +10210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>756</v>
       </c>
@@ -10221,7 +10224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>757</v>
       </c>
@@ -10232,7 +10235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>759</v>
       </c>
@@ -10246,7 +10249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>760</v>
       </c>
@@ -10260,7 +10263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>762</v>
       </c>
@@ -10274,7 +10277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>764</v>
       </c>
@@ -10288,7 +10291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>766</v>
       </c>
@@ -10302,7 +10305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>768</v>
       </c>
@@ -10316,7 +10319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>770</v>
       </c>
@@ -10330,7 +10333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>771</v>
       </c>
@@ -10344,7 +10347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>773</v>
       </c>
@@ -10355,7 +10358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>775</v>
       </c>
@@ -10369,7 +10372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>777</v>
       </c>
@@ -10383,7 +10386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>779</v>
       </c>
@@ -10397,7 +10400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>780</v>
       </c>
@@ -10411,7 +10414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>782</v>
       </c>
@@ -10425,7 +10428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>784</v>
       </c>
@@ -10439,7 +10442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>785</v>
       </c>
@@ -10453,7 +10456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>787</v>
       </c>
@@ -10467,7 +10470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>788</v>
       </c>
@@ -10481,7 +10484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>790</v>
       </c>
@@ -10495,7 +10498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>792</v>
       </c>
@@ -10509,7 +10512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>793</v>
       </c>
@@ -10523,7 +10526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>795</v>
       </c>
@@ -10537,7 +10540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>796</v>
       </c>
@@ -10551,7 +10554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>798</v>
       </c>
@@ -10565,7 +10568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>800</v>
       </c>
@@ -10576,7 +10579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>802</v>
       </c>
@@ -10587,7 +10590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>804</v>
       </c>
@@ -10601,7 +10604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>806</v>
       </c>
@@ -10615,7 +10618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>807</v>
       </c>
@@ -10629,7 +10632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>809</v>
       </c>
@@ -10640,7 +10643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>811</v>
       </c>
@@ -10651,7 +10654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>813</v>
       </c>
@@ -10665,7 +10668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>816</v>
       </c>
@@ -10679,7 +10682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>818</v>
       </c>
@@ -10693,7 +10696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>98</v>
       </c>
@@ -10704,7 +10707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>819</v>
       </c>
@@ -10718,7 +10721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>820</v>
       </c>
@@ -10732,7 +10735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>822</v>
       </c>
@@ -10746,7 +10749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>824</v>
       </c>
@@ -10757,7 +10760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>826</v>
       </c>
@@ -10771,7 +10774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>829</v>
       </c>
@@ -10785,7 +10788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>830</v>
       </c>
@@ -10799,7 +10802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>831</v>
       </c>
@@ -10813,7 +10816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>832</v>
       </c>
@@ -10827,7 +10830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>833</v>
       </c>
@@ -10841,7 +10844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>835</v>
       </c>
@@ -10855,7 +10858,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>837</v>
       </c>
@@ -10869,7 +10872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>839</v>
       </c>
@@ -10880,7 +10883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>841</v>
       </c>
@@ -10891,7 +10894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>842</v>
       </c>
@@ -10905,7 +10908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>843</v>
       </c>
@@ -10919,7 +10922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>845</v>
       </c>
@@ -10933,7 +10936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>848</v>
       </c>
@@ -10947,7 +10950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>850</v>
       </c>
@@ -10961,7 +10964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>851</v>
       </c>
@@ -10975,7 +10978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>852</v>
       </c>
@@ -10989,7 +10992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>854</v>
       </c>
@@ -11003,7 +11006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>856</v>
       </c>
@@ -11017,7 +11020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>858</v>
       </c>
@@ -11028,7 +11031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>859</v>
       </c>
@@ -11039,7 +11042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>860</v>
       </c>
@@ -11053,7 +11056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>862</v>
       </c>
@@ -11067,7 +11070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>864</v>
       </c>
@@ -11078,7 +11081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>866</v>
       </c>
@@ -11092,7 +11095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>868</v>
       </c>
@@ -11106,7 +11109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>870</v>
       </c>
@@ -11120,7 +11123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>872</v>
       </c>
@@ -11134,7 +11137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
         <v>874</v>
       </c>
@@ -11148,7 +11151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>876</v>
       </c>
@@ -11162,7 +11165,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
         <v>878</v>
       </c>
@@ -11176,7 +11179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
         <v>880</v>
       </c>
@@ -11190,7 +11193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>882</v>
       </c>
@@ -11201,7 +11204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>884</v>
       </c>
@@ -11215,7 +11218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>886</v>
       </c>
@@ -11229,7 +11232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>888</v>
       </c>
@@ -11243,7 +11246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>890</v>
       </c>
@@ -11257,7 +11260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>892</v>
       </c>
@@ -11271,7 +11274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>894</v>
       </c>
@@ -11285,7 +11288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>895</v>
       </c>
@@ -11299,7 +11302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
         <v>897</v>
       </c>
@@ -11313,7 +11316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
         <v>899</v>
       </c>
@@ -11324,7 +11327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
         <v>900</v>
       </c>
@@ -11338,7 +11341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
         <v>901</v>
       </c>
@@ -11352,7 +11355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
         <v>903</v>
       </c>
@@ -11366,7 +11369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
         <v>905</v>
       </c>
@@ -11377,7 +11380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
         <v>906</v>
       </c>
@@ -11391,7 +11394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
         <v>908</v>
       </c>
@@ -11405,7 +11408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
         <v>910</v>
       </c>
@@ -11419,7 +11422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
         <v>912</v>
       </c>
@@ -11433,7 +11436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
         <v>27</v>
       </c>
@@ -11444,7 +11447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
         <v>914</v>
       </c>
@@ -11458,7 +11461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
         <v>915</v>
       </c>
@@ -11472,7 +11475,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
         <v>917</v>
       </c>
@@ -11486,7 +11489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
         <v>919</v>
       </c>
@@ -11500,7 +11503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
         <v>921</v>
       </c>
@@ -11514,7 +11517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
         <v>923</v>
       </c>
@@ -11525,7 +11528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
         <v>925</v>
       </c>
@@ -11539,7 +11542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
         <v>926</v>
       </c>
@@ -11553,7 +11556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
         <v>928</v>
       </c>
@@ -11567,7 +11570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
         <v>930</v>
       </c>
@@ -11581,7 +11584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
         <v>932</v>
       </c>
@@ -11595,7 +11598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
         <v>934</v>
       </c>
@@ -11609,7 +11612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
         <v>936</v>
       </c>
@@ -11623,7 +11626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
         <v>937</v>
       </c>
@@ -11637,7 +11640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
         <v>939</v>
       </c>
@@ -11651,7 +11654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="494" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
         <v>941</v>
       </c>
@@ -11665,7 +11668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="495" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
         <v>943</v>
       </c>
@@ -11679,7 +11682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="496" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
         <v>945</v>
       </c>
@@ -11693,7 +11696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="497" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
         <v>947</v>
       </c>
@@ -11707,7 +11710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="498" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
         <v>949</v>
       </c>
@@ -11718,7 +11721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="499" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
         <v>951</v>
       </c>
@@ -11732,7 +11735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="500" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
         <v>952</v>
       </c>
@@ -11746,7 +11749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="501" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
         <v>954</v>
       </c>
@@ -11760,7 +11763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="502" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
         <v>955</v>
       </c>
@@ -11774,7 +11777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="503" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
         <v>956</v>
       </c>
@@ -11788,7 +11791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="504" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
         <v>958</v>
       </c>
@@ -11802,7 +11805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="505" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
         <v>960</v>
       </c>
@@ -11816,7 +11819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="506" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
         <v>962</v>
       </c>
@@ -11830,7 +11833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="507" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
         <v>964</v>
       </c>
@@ -11844,7 +11847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="508" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
         <v>966</v>
       </c>
@@ -11855,7 +11858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="509" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
         <v>968</v>
       </c>
@@ -11869,7 +11872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="510" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
         <v>970</v>
       </c>
@@ -11880,7 +11883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="511" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
         <v>972</v>
       </c>
@@ -11894,7 +11897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="512" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
         <v>974</v>
       </c>
@@ -11908,7 +11911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="513" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
         <v>975</v>
       </c>
@@ -11922,7 +11925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="514" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
         <v>976</v>
       </c>
@@ -11936,7 +11939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="515" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
         <v>978</v>
       </c>
@@ -11950,7 +11953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="516" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
         <v>980</v>
       </c>
@@ -11964,7 +11967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="517" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
         <v>982</v>
       </c>
@@ -11978,7 +11981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="518" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
         <v>984</v>
       </c>
@@ -11989,7 +11992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="519" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
         <v>986</v>
       </c>
@@ -12003,7 +12006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="520" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
         <v>987</v>
       </c>
@@ -12017,7 +12020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="521" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
         <v>989</v>
       </c>
@@ -12031,7 +12034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="522" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
         <v>991</v>
       </c>
@@ -12045,7 +12048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="523" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
         <v>993</v>
       </c>
@@ -12056,7 +12059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="524" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
         <v>995</v>
       </c>
@@ -12067,7 +12070,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="525" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
         <v>997</v>
       </c>
@@ -12081,7 +12084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="526" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
         <v>998</v>
       </c>
@@ -12095,7 +12098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="527" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
         <v>1000</v>
       </c>
@@ -12109,7 +12112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="528" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
         <v>1002</v>
       </c>
@@ -12123,7 +12126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="529" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
         <v>1004</v>
       </c>
@@ -12137,7 +12140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="530" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
         <v>1006</v>
       </c>
@@ -12151,7 +12154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="531" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
         <v>1007</v>
       </c>
@@ -12165,7 +12168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="532" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
         <v>1009</v>
       </c>
@@ -12179,7 +12182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="533" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
         <v>1011</v>
       </c>
@@ -12190,7 +12193,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="534" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
         <v>1013</v>
       </c>
@@ -12204,7 +12207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="535" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
         <v>1015</v>
       </c>
@@ -12218,7 +12221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="536" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
         <v>1017</v>
       </c>
@@ -12232,7 +12235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="537" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
         <v>1019</v>
       </c>
@@ -12243,7 +12246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="538" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
         <v>1021</v>
       </c>
@@ -12254,7 +12257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="539" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
         <v>1023</v>
       </c>
@@ -12268,7 +12271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="540" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
         <v>1024</v>
       </c>
@@ -12282,7 +12285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="541" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
         <v>1026</v>
       </c>
@@ -12296,7 +12299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="542" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
         <v>1028</v>
       </c>
@@ -12310,7 +12313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="543" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
         <v>1029</v>
       </c>
@@ -12321,7 +12324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="544" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
         <v>1030</v>
       </c>
@@ -12335,7 +12338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="545" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
         <v>1032</v>
       </c>
@@ -12346,7 +12349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="546" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
         <v>1034</v>
       </c>
@@ -12360,7 +12363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="547" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
         <v>1035</v>
       </c>
@@ -12374,7 +12377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="548" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
         <v>1037</v>
       </c>
@@ -12388,7 +12391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="549" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
         <v>1039</v>
       </c>
@@ -12402,7 +12405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="550" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
         <v>1041</v>
       </c>
@@ -12416,7 +12419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="551" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
         <v>1043</v>
       </c>
@@ -12430,7 +12433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="552" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
         <v>1045</v>
       </c>
@@ -12444,7 +12447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="553" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
         <v>1047</v>
       </c>
@@ -12458,7 +12461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="554" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
         <v>1049</v>
       </c>
@@ -12472,7 +12475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="555" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A555" t="s">
         <v>1051</v>
       </c>
@@ -12486,7 +12489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="556" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
         <v>1053</v>
       </c>
@@ -12500,7 +12503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="557" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
         <v>1055</v>
       </c>
@@ -12514,7 +12517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="558" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A558" t="s">
         <v>1057</v>
       </c>
@@ -12528,7 +12531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="559" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
         <v>1058</v>
       </c>
@@ -12542,7 +12545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="560" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
         <v>1060</v>
       </c>
@@ -12556,7 +12559,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="561" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A561" t="s">
         <v>1062</v>
       </c>
@@ -12567,7 +12570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="562" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A562" t="s">
         <v>1064</v>
       </c>
@@ -12578,7 +12581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="563" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A563" t="s">
         <v>1066</v>
       </c>
@@ -12592,7 +12595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="564" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A564" t="s">
         <v>1068</v>
       </c>
@@ -12606,7 +12609,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="565" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A565" t="s">
         <v>1069</v>
       </c>
@@ -12620,7 +12623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="566" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A566" t="s">
         <v>1071</v>
       </c>
@@ -12634,7 +12637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="567" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A567" t="s">
         <v>1073</v>
       </c>
@@ -12648,7 +12651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="568" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A568" t="s">
         <v>1075</v>
       </c>
@@ -12662,7 +12665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="569" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A569" t="s">
         <v>1077</v>
       </c>
@@ -12676,7 +12679,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="570" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A570" t="s">
         <v>1079</v>
       </c>
@@ -12690,7 +12693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="571" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A571" t="s">
         <v>1081</v>
       </c>
@@ -12704,7 +12707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="572" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A572" t="s">
         <v>1083</v>
       </c>
@@ -12718,7 +12721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="573" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A573" t="s">
         <v>1085</v>
       </c>
@@ -12732,7 +12735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="574" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A574" t="s">
         <v>1087</v>
       </c>
@@ -12746,7 +12749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="575" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A575" t="s">
         <v>669</v>
       </c>
@@ -12760,7 +12763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="576" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A576" t="s">
         <v>1090</v>
       </c>
@@ -12771,7 +12774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="577" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A577" t="s">
         <v>1091</v>
       </c>
@@ -12785,7 +12788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="578" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
         <v>1093</v>
       </c>
@@ -12799,7 +12802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="579" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A579" t="s">
         <v>1095</v>
       </c>
@@ -12813,7 +12816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="580" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A580" t="s">
         <v>1097</v>
       </c>
@@ -12827,7 +12830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="581" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A581" t="s">
         <v>1099</v>
       </c>
@@ -12838,7 +12841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="582" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A582" t="s">
         <v>1100</v>
       </c>
@@ -12852,7 +12855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="583" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A583" t="s">
         <v>1102</v>
       </c>
@@ -12866,7 +12869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="584" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A584" t="s">
         <v>1104</v>
       </c>
@@ -12880,7 +12883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="585" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A585" t="s">
         <v>1106</v>
       </c>
@@ -12894,7 +12897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="586" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A586" t="s">
         <v>1108</v>
       </c>
@@ -12908,7 +12911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="587" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A587" t="s">
         <v>1109</v>
       </c>
@@ -12922,7 +12925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="588" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A588" t="s">
         <v>1111</v>
       </c>
@@ -12936,7 +12939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="589" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A589" t="s">
         <v>1112</v>
       </c>
@@ -12950,7 +12953,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="590" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A590" t="s">
         <v>1113</v>
       </c>
@@ -12964,7 +12967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="591" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A591" t="s">
         <v>1115</v>
       </c>
@@ -12978,7 +12981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="592" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A592" t="s">
         <v>1117</v>
       </c>
@@ -12992,7 +12995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="593" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A593" t="s">
         <v>1119</v>
       </c>
@@ -13006,7 +13009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="594" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A594" t="s">
         <v>1121</v>
       </c>
@@ -13017,7 +13020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="595" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A595" t="s">
         <v>1123</v>
       </c>
@@ -13031,7 +13034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="596" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A596" t="s">
         <v>1125</v>
       </c>
@@ -13045,7 +13048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="597" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A597" t="s">
         <v>1127</v>
       </c>
@@ -13059,7 +13062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="598" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A598" t="s">
         <v>1129</v>
       </c>
@@ -13073,7 +13076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="599" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A599" t="s">
         <v>1131</v>
       </c>
@@ -13087,7 +13090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="600" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A600" t="s">
         <v>1134</v>
       </c>
@@ -13101,7 +13104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="601" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A601" t="s">
         <v>1136</v>
       </c>
@@ -13115,7 +13118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="602" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A602" t="s">
         <v>1138</v>
       </c>
@@ -13129,7 +13132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="603" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A603" t="s">
         <v>1140</v>
       </c>
@@ -13140,7 +13143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="604" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A604" t="s">
         <v>1142</v>
       </c>
@@ -13154,7 +13157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="605" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A605" t="s">
         <v>1144</v>
       </c>
@@ -13168,7 +13171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="606" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A606" t="s">
         <v>1146</v>
       </c>
@@ -13182,7 +13185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="607" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A607" t="s">
         <v>1148</v>
       </c>
@@ -13196,7 +13199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="608" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A608" t="s">
         <v>1150</v>
       </c>
@@ -13210,7 +13213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="609" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A609" t="s">
         <v>1152</v>
       </c>
@@ -13224,7 +13227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="610" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A610" t="s">
         <v>1154</v>
       </c>
@@ -13235,7 +13238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="611" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A611" t="s">
         <v>1156</v>
       </c>
@@ -13249,7 +13252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="612" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A612" t="s">
         <v>1158</v>
       </c>
@@ -13263,7 +13266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="613" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A613" t="s">
         <v>1160</v>
       </c>
@@ -13277,7 +13280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="614" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A614" t="s">
         <v>1162</v>
       </c>
@@ -13291,7 +13294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="615" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A615" t="s">
         <v>1164</v>
       </c>
@@ -13305,7 +13308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="616" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A616" t="s">
         <v>1166</v>
       </c>
@@ -13319,7 +13322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="617" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A617" t="s">
         <v>1167</v>
       </c>
@@ -13333,7 +13336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="618" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A618" t="s">
         <v>1169</v>
       </c>
@@ -13347,7 +13350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="619" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A619" t="s">
         <v>1171</v>
       </c>
@@ -13361,7 +13364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="620" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A620" t="s">
         <v>1173</v>
       </c>
@@ -13375,7 +13378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="621" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A621" t="s">
         <v>1173</v>
       </c>
@@ -13386,7 +13389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="622" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A622" t="s">
         <v>1176</v>
       </c>
@@ -13397,7 +13400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="623" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A623" t="s">
         <v>1178</v>
       </c>
@@ -13411,7 +13414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="624" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A624" t="s">
         <v>1180</v>
       </c>
@@ -13425,7 +13428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="625" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A625" t="s">
         <v>1181</v>
       </c>
@@ -13439,7 +13442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="626" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A626" t="s">
         <v>1183</v>
       </c>
@@ -13453,7 +13456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="627" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A627" t="s">
         <v>1185</v>
       </c>
@@ -13464,7 +13467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="628" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A628" t="s">
         <v>1187</v>
       </c>
@@ -13478,7 +13481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="629" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A629" t="s">
         <v>1189</v>
       </c>
@@ -13492,7 +13495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="630" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A630" t="s">
         <v>1191</v>
       </c>
@@ -13506,7 +13509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="631" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A631" t="s">
         <v>1193</v>
       </c>
@@ -13520,7 +13523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="632" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A632" t="s">
         <v>1195</v>
       </c>
@@ -13534,7 +13537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="633" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A633" t="s">
         <v>1197</v>
       </c>
@@ -13548,7 +13551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="634" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A634" t="s">
         <v>1199</v>
       </c>
@@ -13562,7 +13565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="635" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A635" t="s">
         <v>1201</v>
       </c>
@@ -13576,7 +13579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="636" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A636" t="s">
         <v>1203</v>
       </c>
@@ -13590,7 +13593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="637" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A637" t="s">
         <v>1205</v>
       </c>
@@ -13604,7 +13607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="638" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A638" t="s">
         <v>1207</v>
       </c>
@@ -13618,7 +13621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="639" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A639" t="s">
         <v>1209</v>
       </c>
@@ -13632,7 +13635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="640" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A640" t="s">
         <v>1211</v>
       </c>
@@ -13646,7 +13649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="641" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A641" t="s">
         <v>1212</v>
       </c>
@@ -13660,7 +13663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="642" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A642" t="s">
         <v>1214</v>
       </c>
@@ -13674,7 +13677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="643" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A643" t="s">
         <v>1216</v>
       </c>
@@ -13688,7 +13691,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="644" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A644" t="s">
         <v>1217</v>
       </c>
@@ -13702,7 +13705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="645" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A645" t="s">
         <v>1219</v>
       </c>
@@ -13716,7 +13719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="646" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A646" t="s">
         <v>1220</v>
       </c>
@@ -13730,7 +13733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="647" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A647" t="s">
         <v>1221</v>
       </c>
@@ -13744,7 +13747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="648" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A648" t="s">
         <v>1222</v>
       </c>
@@ -13758,7 +13761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="649" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A649" t="s">
         <v>1224</v>
       </c>
@@ -13769,7 +13772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="650" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A650" t="s">
         <v>1226</v>
       </c>
@@ -13783,7 +13786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="651" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A651" t="s">
         <v>1228</v>
       </c>
@@ -13797,7 +13800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="652" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A652" t="s">
         <v>1230</v>
       </c>
@@ -13811,7 +13814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="653" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A653" t="s">
         <v>1232</v>
       </c>
@@ -13825,7 +13828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="654" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A654" t="s">
         <v>1234</v>
       </c>
@@ -13836,7 +13839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="655" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A655" t="s">
         <v>1235</v>
       </c>
@@ -13850,7 +13853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="656" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A656" t="s">
         <v>1237</v>
       </c>
@@ -13864,7 +13867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="657" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A657" t="s">
         <v>1238</v>
       </c>
@@ -13878,7 +13881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="658" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A658" t="s">
         <v>1240</v>
       </c>
@@ -13892,7 +13895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="659" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A659" t="s">
         <v>1242</v>
       </c>
@@ -13906,7 +13909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="660" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A660" t="s">
         <v>1244</v>
       </c>
@@ -13920,7 +13923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="661" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A661" t="s">
         <v>1246</v>
       </c>
@@ -13934,7 +13937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="662" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A662" t="s">
         <v>1248</v>
       </c>
@@ -13948,7 +13951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="663" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A663" t="s">
         <v>1250</v>
       </c>
@@ -13962,7 +13965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="664" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A664" t="s">
         <v>1252</v>
       </c>
@@ -13976,7 +13979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="665" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A665" t="s">
         <v>1254</v>
       </c>
@@ -13990,7 +13993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="666" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A666" t="s">
         <v>1256</v>
       </c>
@@ -14004,7 +14007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="667" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A667" t="s">
         <v>1258</v>
       </c>
@@ -14018,7 +14021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="668" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A668" t="s">
         <v>1260</v>
       </c>
@@ -14032,7 +14035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="669" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A669" t="s">
         <v>1262</v>
       </c>
@@ -14043,7 +14046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="670" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A670" t="s">
         <v>1264</v>
       </c>
@@ -14057,7 +14060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="671" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A671" t="s">
         <v>1266</v>
       </c>
@@ -14071,7 +14074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="672" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A672" t="s">
         <v>1268</v>
       </c>
@@ -14085,7 +14088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="673" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A673" t="s">
         <v>1270</v>
       </c>
@@ -14099,7 +14102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="674" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A674" t="s">
         <v>1271</v>
       </c>
@@ -14113,7 +14116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="675" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A675" t="s">
         <v>1272</v>
       </c>
@@ -14127,7 +14130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="676" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A676" t="s">
         <v>1273</v>
       </c>
@@ -14141,7 +14144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="677" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A677" t="s">
         <v>1275</v>
       </c>
@@ -14155,7 +14158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="678" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A678" t="s">
         <v>1276</v>
       </c>
@@ -14169,7 +14172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="679" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A679" t="s">
         <v>1278</v>
       </c>
@@ -14183,7 +14186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="680" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A680" t="s">
         <v>1280</v>
       </c>
@@ -14197,7 +14200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="681" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A681" t="s">
         <v>1282</v>
       </c>
@@ -14211,7 +14214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="682" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A682" t="s">
         <v>1283</v>
       </c>
@@ -14222,7 +14225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="683" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A683" t="s">
         <v>1284</v>
       </c>
@@ -14236,7 +14239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="684" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A684" t="s">
         <v>1286</v>
       </c>
@@ -14250,7 +14253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="685" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A685" t="s">
         <v>1288</v>
       </c>
@@ -14264,7 +14267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="686" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A686" t="s">
         <v>1290</v>
       </c>
@@ -14275,7 +14278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="687" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A687" t="s">
         <v>1292</v>
       </c>
@@ -14289,7 +14292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="688" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A688" t="s">
         <v>1294</v>
       </c>
@@ -14303,7 +14306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="689" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A689" t="s">
         <v>1296</v>
       </c>
@@ -14317,7 +14320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="690" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A690" t="s">
         <v>1298</v>
       </c>
@@ -14331,7 +14334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="691" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A691" t="s">
         <v>1299</v>
       </c>
@@ -14345,7 +14348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="692" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A692" t="s">
         <v>1300</v>
       </c>
@@ -14359,7 +14362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="693" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A693" t="s">
         <v>1302</v>
       </c>
@@ -14373,7 +14376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="694" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A694" t="s">
         <v>1304</v>
       </c>
@@ -14387,7 +14390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="695" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A695" t="s">
         <v>1306</v>
       </c>
@@ -14401,7 +14404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="696" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A696" t="s">
         <v>1308</v>
       </c>
@@ -14415,7 +14418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="697" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A697" t="s">
         <v>1310</v>
       </c>
@@ -14429,7 +14432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="698" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A698" t="s">
         <v>1312</v>
       </c>
@@ -14440,7 +14443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="699" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A699" t="s">
         <v>1314</v>
       </c>
@@ -14454,7 +14457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="700" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A700" t="s">
         <v>1316</v>
       </c>
@@ -14468,7 +14471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="701" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A701" t="s">
         <v>1318</v>
       </c>
@@ -14479,7 +14482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="702" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A702" t="s">
         <v>1320</v>
       </c>
@@ -14493,7 +14496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="703" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A703" t="s">
         <v>1322</v>
       </c>
@@ -14507,7 +14510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="704" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A704" t="s">
         <v>1324</v>
       </c>
@@ -14521,7 +14524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="705" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A705" t="s">
         <v>1326</v>
       </c>
@@ -14535,7 +14538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="706" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A706" t="s">
         <v>1328</v>
       </c>
@@ -14546,7 +14549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="707" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A707" t="s">
         <v>1330</v>
       </c>
@@ -14560,7 +14563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="708" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A708" t="s">
         <v>1332</v>
       </c>
@@ -14574,7 +14577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="709" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A709" t="s">
         <v>1334</v>
       </c>
@@ -14588,7 +14591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="710" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A710" t="s">
         <v>1336</v>
       </c>
@@ -14602,7 +14605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="711" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A711" t="s">
         <v>1338</v>
       </c>
@@ -14616,7 +14619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="712" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A712" t="s">
         <v>1339</v>
       </c>
@@ -14630,7 +14633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="713" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A713" t="s">
         <v>1341</v>
       </c>
@@ -14644,7 +14647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="714" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A714" t="s">
         <v>1343</v>
       </c>
@@ -14658,7 +14661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="715" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A715" t="s">
         <v>1345</v>
       </c>
@@ -14672,7 +14675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="716" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A716" t="s">
         <v>1347</v>
       </c>
@@ -14686,7 +14689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="717" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A717" t="s">
         <v>1349</v>
       </c>
@@ -14700,7 +14703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="718" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A718" t="s">
         <v>1351</v>
       </c>
@@ -14714,7 +14717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="719" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A719" t="s">
         <v>1353</v>
       </c>
@@ -14728,7 +14731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="720" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A720" t="s">
         <v>1355</v>
       </c>
@@ -14742,7 +14745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="721" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A721" t="s">
         <v>1356</v>
       </c>
@@ -14756,7 +14759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="722" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A722" t="s">
         <v>1357</v>
       </c>
@@ -14770,7 +14773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="723" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A723" t="s">
         <v>1359</v>
       </c>
@@ -14784,7 +14787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="724" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A724" t="s">
         <v>1361</v>
       </c>
@@ -14798,7 +14801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="725" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A725" t="s">
         <v>1363</v>
       </c>
@@ -14812,7 +14815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="726" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A726" t="s">
         <v>1365</v>
       </c>
@@ -14823,7 +14826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="727" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A727" t="s">
         <v>1367</v>
       </c>
@@ -14837,7 +14840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="728" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A728" t="s">
         <v>1369</v>
       </c>
@@ -14851,7 +14854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="729" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A729" t="s">
         <v>1371</v>
       </c>
@@ -14865,7 +14868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="730" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A730" t="s">
         <v>1372</v>
       </c>
@@ -14879,7 +14882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="731" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A731" t="s">
         <v>1374</v>
       </c>
@@ -14893,7 +14896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="732" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A732" t="s">
         <v>1376</v>
       </c>
@@ -14907,7 +14910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="733" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A733" t="s">
         <v>1378</v>
       </c>
@@ -14921,7 +14924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="734" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A734" t="s">
         <v>1379</v>
       </c>
@@ -14935,7 +14938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="735" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A735" t="s">
         <v>1381</v>
       </c>
@@ -14949,7 +14952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="736" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A736" t="s">
         <v>1383</v>
       </c>
@@ -14963,7 +14966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="737" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A737" t="s">
         <v>1385</v>
       </c>
@@ -14977,7 +14980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="738" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A738" t="s">
         <v>1387</v>
       </c>
@@ -14991,7 +14994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="739" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A739" t="s">
         <v>1389</v>
       </c>
@@ -15005,7 +15008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="740" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A740" t="s">
         <v>1390</v>
       </c>
@@ -15019,7 +15022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="741" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A741" t="s">
         <v>1392</v>
       </c>
@@ -15033,7 +15036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="742" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A742" t="s">
         <v>1394</v>
       </c>
@@ -15044,7 +15047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="743" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A743" t="s">
         <v>1396</v>
       </c>
@@ -15058,7 +15061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="744" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A744" t="s">
         <v>1398</v>
       </c>
@@ -15072,7 +15075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="745" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A745" t="s">
         <v>1400</v>
       </c>
@@ -15086,7 +15089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="746" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A746" t="s">
         <v>1402</v>
       </c>
@@ -15100,7 +15103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="747" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A747" t="s">
         <v>1403</v>
       </c>
@@ -15114,7 +15117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="748" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A748" t="s">
         <v>1405</v>
       </c>
@@ -15128,7 +15131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="749" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A749" t="s">
         <v>1407</v>
       </c>
@@ -15142,7 +15145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="750" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A750" t="s">
         <v>1409</v>
       </c>
@@ -15156,7 +15159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="751" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A751" t="s">
         <v>1411</v>
       </c>
@@ -15170,7 +15173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="752" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A752" t="s">
         <v>1412</v>
       </c>
@@ -15184,7 +15187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="753" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A753" t="s">
         <v>1414</v>
       </c>
@@ -15198,7 +15201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="754" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A754" t="s">
         <v>1415</v>
       </c>
@@ -15212,7 +15215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="755" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A755" t="s">
         <v>1417</v>
       </c>
@@ -15226,7 +15229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="756" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A756" t="s">
         <v>1419</v>
       </c>
@@ -15240,7 +15243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="757" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A757" t="s">
         <v>1421</v>
       </c>
@@ -15254,7 +15257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="758" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A758" t="s">
         <v>1423</v>
       </c>
@@ -15268,7 +15271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="759" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A759" t="s">
         <v>1425</v>
       </c>
@@ -15282,7 +15285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="760" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A760" t="s">
         <v>1427</v>
       </c>
@@ -15296,7 +15299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="761" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A761" t="s">
         <v>1428</v>
       </c>
@@ -15310,7 +15313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="762" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A762" t="s">
         <v>1430</v>
       </c>
@@ -15324,7 +15327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="763" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A763" t="s">
         <v>1432</v>
       </c>
@@ -15338,7 +15341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="764" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A764" t="s">
         <v>1434</v>
       </c>
@@ -15352,7 +15355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="765" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A765" t="s">
         <v>1436</v>
       </c>
@@ -15366,7 +15369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="766" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A766" t="s">
         <v>1438</v>
       </c>
@@ -15380,7 +15383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="767" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A767" t="s">
         <v>1440</v>
       </c>
@@ -15394,7 +15397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="768" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A768" t="s">
         <v>1442</v>
       </c>
@@ -15405,7 +15408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="769" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A769" t="s">
         <v>1444</v>
       </c>
@@ -15416,7 +15419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="770" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A770" t="s">
         <v>1446</v>
       </c>
@@ -15430,7 +15433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="771" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A771" t="s">
         <v>1448</v>
       </c>
@@ -15441,7 +15444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="772" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A772" t="s">
         <v>1450</v>
       </c>
@@ -15455,7 +15458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="773" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A773" t="s">
         <v>1452</v>
       </c>
@@ -15469,7 +15472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="774" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A774" t="s">
         <v>1454</v>
       </c>
@@ -15483,7 +15486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="775" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A775" t="s">
         <v>1456</v>
       </c>
@@ -15497,7 +15500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="776" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A776" t="s">
         <v>1458</v>
       </c>
@@ -15511,7 +15514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="777" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A777" t="s">
         <v>1460</v>
       </c>
@@ -15525,7 +15528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="778" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A778" t="s">
         <v>1462</v>
       </c>
@@ -15539,7 +15542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="779" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A779" t="s">
         <v>1464</v>
       </c>
@@ -15553,7 +15556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="780" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A780" t="s">
         <v>1466</v>
       </c>
@@ -15567,7 +15570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="781" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A781" t="s">
         <v>1468</v>
       </c>
@@ -15581,7 +15584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="782" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A782" t="s">
         <v>1470</v>
       </c>
@@ -15595,7 +15598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="783" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A783" t="s">
         <v>1472</v>
       </c>
@@ -15609,7 +15612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="784" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A784" t="s">
         <v>1474</v>
       </c>
@@ -15623,7 +15626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="785" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A785" t="s">
         <v>1476</v>
       </c>
@@ -15637,7 +15640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="786" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A786" t="s">
         <v>1478</v>
       </c>
@@ -15651,7 +15654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="787" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A787" t="s">
         <v>1480</v>
       </c>
@@ -15665,7 +15668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="788" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A788" t="s">
         <v>1482</v>
       </c>
@@ -15679,7 +15682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="789" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A789" t="s">
         <v>1484</v>
       </c>
@@ -15693,7 +15696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="790" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A790" t="s">
         <v>1485</v>
       </c>
@@ -15707,7 +15710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="791" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A791" t="s">
         <v>1487</v>
       </c>
@@ -15721,7 +15724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="792" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A792" t="s">
         <v>1489</v>
       </c>
@@ -15735,7 +15738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="793" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A793" t="s">
         <v>1491</v>
       </c>
@@ -15749,7 +15752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="794" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A794" t="s">
         <v>1492</v>
       </c>
@@ -15763,7 +15766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="795" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A795" t="s">
         <v>1494</v>
       </c>
@@ -15777,7 +15780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="796" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A796" t="s">
         <v>1495</v>
       </c>
@@ -15791,7 +15794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="797" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A797" t="s">
         <v>1497</v>
       </c>
@@ -15805,7 +15808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="798" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A798" t="s">
         <v>1499</v>
       </c>
@@ -15816,7 +15819,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="799" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A799" t="s">
         <v>1501</v>
       </c>
@@ -15827,7 +15830,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="800" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A800" t="s">
         <v>1503</v>
       </c>
@@ -15838,7 +15841,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="801" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A801" t="s">
         <v>1504</v>
       </c>
@@ -15849,7 +15852,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="802" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A802" t="s">
         <v>1505</v>
       </c>
@@ -15860,7 +15863,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="803" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A803" t="s">
         <v>1506</v>
       </c>
@@ -15871,7 +15874,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="804" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A804" t="s">
         <v>1507</v>
       </c>
@@ -15882,7 +15885,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="805" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A805" t="s">
         <v>1508</v>
       </c>
@@ -15893,7 +15896,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="806" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A806" t="s">
         <v>1509</v>
       </c>
@@ -15904,7 +15907,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="807" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A807" t="s">
         <v>1511</v>
       </c>
@@ -15915,7 +15918,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="808" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A808" t="s">
         <v>1512</v>
       </c>
@@ -15926,7 +15929,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="809" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A809" t="s">
         <v>1513</v>
       </c>
@@ -15937,7 +15940,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="810" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A810" t="s">
         <v>1515</v>
       </c>
@@ -15948,7 +15951,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="811" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A811" t="s">
         <v>1516</v>
       </c>
@@ -15959,7 +15962,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="812" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A812" t="s">
         <v>1518</v>
       </c>
@@ -15968,6 +15971,17 @@
       </c>
       <c r="C812" t="s">
         <v>49</v>
+      </c>
+    </row>
+    <row r="813" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A813" t="s">
+        <v>1520</v>
+      </c>
+      <c r="B813" t="s">
+        <v>1520</v>
+      </c>
+      <c r="C813" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/data/tables/main.xlsx
+++ b/data/tables/main.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://havas-my.sharepoint.com/personal/jaime_garcia_globalservs_com/Documents/Desktop/Tsakonian repo/TsakonianDB/data/tables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://havas-my.sharepoint.com/personal/jaime_garcia_globalservs_com/Documents/Desktop/Proyectos/Personal/TsakonianDB/data/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{1C885B99-D7DC-4A07-B9DD-D1537A5357E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A40164C-4BB0-40C2-A666-057D682BB457}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{1C885B99-D7DC-4A07-B9DD-D1537A5357E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{415CC695-AF14-4001-8CC0-594406083F91}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2340" uniqueCount="1521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2340" uniqueCount="1523">
   <si>
     <t>tsakonian</t>
   </si>
@@ -4583,6 +4583,12 @@
   </si>
   <si>
     <t>ναι</t>
+  </si>
+  <si>
+    <t>Α6</t>
+  </si>
+  <si>
+    <t>A6</t>
   </si>
 </sst>
 </file>
@@ -4947,8 +4953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D813"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A796" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A813" sqref="A813"/>
+    <sheetView tabSelected="1" topLeftCell="A90" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C99" sqref="C99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5011,7 +5017,7 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>1521</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -5173,7 +5179,7 @@
         <v>44</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>1522</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -5243,7 +5249,7 @@
         <v>56</v>
       </c>
       <c r="C22" t="s">
-        <v>31</v>
+        <v>1522</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -5271,7 +5277,7 @@
         <v>60</v>
       </c>
       <c r="C24" t="s">
-        <v>13</v>
+        <v>1522</v>
       </c>
       <c r="D24">
         <v>1</v>

--- a/data/tables/main.xlsx
+++ b/data/tables/main.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://havas-my.sharepoint.com/personal/jaime_garcia_globalservs_com/Documents/Desktop/Proyectos/Personal/TsakonianDB/data/tables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jgcha\Desktop\Python\Códigos\TsakonianDB\data\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{1C885B99-D7DC-4A07-B9DD-D1537A5357E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{415CC695-AF14-4001-8CC0-594406083F91}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C0018B-C507-426C-A535-480500FA6886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4953,13 +4953,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D813"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C99" sqref="C99"/>
+    <sheetView tabSelected="1" topLeftCell="A682" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C696" sqref="C696"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4973,7 +4973,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -4987,7 +4987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -4998,7 +4998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -5009,7 +5009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -5023,7 +5023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -5037,7 +5037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -5051,7 +5051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -5065,7 +5065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -5079,7 +5079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -5090,7 +5090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -5101,7 +5101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -5115,7 +5115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -5129,7 +5129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -5143,7 +5143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>38</v>
       </c>
@@ -5157,7 +5157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>40</v>
       </c>
@@ -5171,7 +5171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>43</v>
       </c>
@@ -5185,7 +5185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>45</v>
       </c>
@@ -5199,7 +5199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>47</v>
       </c>
@@ -5213,7 +5213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>50</v>
       </c>
@@ -5227,7 +5227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>52</v>
       </c>
@@ -5241,7 +5241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>55</v>
       </c>
@@ -5255,7 +5255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>57</v>
       </c>
@@ -5269,7 +5269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>59</v>
       </c>
@@ -5283,7 +5283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>61</v>
       </c>
@@ -5297,7 +5297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>63</v>
       </c>
@@ -5311,7 +5311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>66</v>
       </c>
@@ -5325,7 +5325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>69</v>
       </c>
@@ -5339,7 +5339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>71</v>
       </c>
@@ -5353,7 +5353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>74</v>
       </c>
@@ -5367,7 +5367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>76</v>
       </c>
@@ -5381,7 +5381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>78</v>
       </c>
@@ -5392,7 +5392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>80</v>
       </c>
@@ -5406,7 +5406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>82</v>
       </c>
@@ -5417,7 +5417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>84</v>
       </c>
@@ -5428,7 +5428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>86</v>
       </c>
@@ -5442,7 +5442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>88</v>
       </c>
@@ -5456,7 +5456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>91</v>
       </c>
@@ -5470,7 +5470,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>93</v>
       </c>
@@ -5484,7 +5484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>95</v>
       </c>
@@ -5495,7 +5495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>97</v>
       </c>
@@ -5509,7 +5509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>99</v>
       </c>
@@ -5520,7 +5520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>101</v>
       </c>
@@ -5534,7 +5534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>103</v>
       </c>
@@ -5548,7 +5548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>105</v>
       </c>
@@ -5562,7 +5562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>107</v>
       </c>
@@ -5576,7 +5576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>109</v>
       </c>
@@ -5590,7 +5590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>111</v>
       </c>
@@ -5604,7 +5604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>113</v>
       </c>
@@ -5618,7 +5618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>115</v>
       </c>
@@ -5629,7 +5629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>117</v>
       </c>
@@ -5643,7 +5643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>119</v>
       </c>
@@ -5657,7 +5657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>121</v>
       </c>
@@ -5668,7 +5668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>122</v>
       </c>
@@ -5682,7 +5682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>124</v>
       </c>
@@ -5693,7 +5693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>126</v>
       </c>
@@ -5707,7 +5707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>128</v>
       </c>
@@ -5721,7 +5721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>130</v>
       </c>
@@ -5735,7 +5735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>132</v>
       </c>
@@ -5749,7 +5749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>134</v>
       </c>
@@ -5763,7 +5763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>136</v>
       </c>
@@ -5777,7 +5777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>138</v>
       </c>
@@ -5791,7 +5791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>140</v>
       </c>
@@ -5805,7 +5805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>142</v>
       </c>
@@ -5819,7 +5819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>144</v>
       </c>
@@ -5833,7 +5833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>146</v>
       </c>
@@ -5847,7 +5847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>148</v>
       </c>
@@ -5861,7 +5861,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>150</v>
       </c>
@@ -5875,7 +5875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>152</v>
       </c>
@@ -5889,7 +5889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>154</v>
       </c>
@@ -5903,7 +5903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>156</v>
       </c>
@@ -5914,7 +5914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>158</v>
       </c>
@@ -5928,7 +5928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>159</v>
       </c>
@@ -5942,7 +5942,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>161</v>
       </c>
@@ -5956,7 +5956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>163</v>
       </c>
@@ -5970,7 +5970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>166</v>
       </c>
@@ -5984,7 +5984,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>168</v>
       </c>
@@ -5998,7 +5998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>170</v>
       </c>
@@ -6009,7 +6009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>172</v>
       </c>
@@ -6023,7 +6023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>174</v>
       </c>
@@ -6037,7 +6037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>176</v>
       </c>
@@ -6051,7 +6051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>178</v>
       </c>
@@ -6065,7 +6065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>181</v>
       </c>
@@ -6079,7 +6079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>183</v>
       </c>
@@ -6093,7 +6093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>185</v>
       </c>
@@ -6107,7 +6107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>186</v>
       </c>
@@ -6121,7 +6121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>188</v>
       </c>
@@ -6132,7 +6132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>190</v>
       </c>
@@ -6146,7 +6146,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>192</v>
       </c>
@@ -6160,7 +6160,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>194</v>
       </c>
@@ -6174,7 +6174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>196</v>
       </c>
@@ -6188,7 +6188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>198</v>
       </c>
@@ -6202,7 +6202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>200</v>
       </c>
@@ -6216,7 +6216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>202</v>
       </c>
@@ -6230,7 +6230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>204</v>
       </c>
@@ -6244,7 +6244,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>206</v>
       </c>
@@ -6258,7 +6258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>208</v>
       </c>
@@ -6272,7 +6272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>210</v>
       </c>
@@ -6286,7 +6286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>212</v>
       </c>
@@ -6300,7 +6300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>213</v>
       </c>
@@ -6314,7 +6314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>215</v>
       </c>
@@ -6328,7 +6328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>217</v>
       </c>
@@ -6342,7 +6342,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>219</v>
       </c>
@@ -6356,7 +6356,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>221</v>
       </c>
@@ -6370,7 +6370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>223</v>
       </c>
@@ -6384,7 +6384,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>225</v>
       </c>
@@ -6398,7 +6398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>227</v>
       </c>
@@ -6412,7 +6412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>229</v>
       </c>
@@ -6426,7 +6426,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>231</v>
       </c>
@@ -6440,7 +6440,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>233</v>
       </c>
@@ -6454,7 +6454,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>235</v>
       </c>
@@ -6468,7 +6468,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>237</v>
       </c>
@@ -6482,7 +6482,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>239</v>
       </c>
@@ -6493,7 +6493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>241</v>
       </c>
@@ -6507,7 +6507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>243</v>
       </c>
@@ -6518,7 +6518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>244</v>
       </c>
@@ -6529,7 +6529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>246</v>
       </c>
@@ -6543,7 +6543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>248</v>
       </c>
@@ -6557,7 +6557,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>250</v>
       </c>
@@ -6571,7 +6571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>252</v>
       </c>
@@ -6585,7 +6585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>254</v>
       </c>
@@ -6599,7 +6599,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>256</v>
       </c>
@@ -6613,7 +6613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>258</v>
       </c>
@@ -6627,7 +6627,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>260</v>
       </c>
@@ -6638,7 +6638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>262</v>
       </c>
@@ -6652,7 +6652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>264</v>
       </c>
@@ -6666,7 +6666,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>266</v>
       </c>
@@ -6677,7 +6677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>267</v>
       </c>
@@ -6691,7 +6691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>269</v>
       </c>
@@ -6705,7 +6705,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>271</v>
       </c>
@@ -6719,7 +6719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>273</v>
       </c>
@@ -6733,7 +6733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>275</v>
       </c>
@@ -6747,7 +6747,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>277</v>
       </c>
@@ -6761,7 +6761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>279</v>
       </c>
@@ -6775,7 +6775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>280</v>
       </c>
@@ -6789,7 +6789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>283</v>
       </c>
@@ -6803,7 +6803,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>285</v>
       </c>
@@ -6817,7 +6817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>287</v>
       </c>
@@ -6831,7 +6831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>289</v>
       </c>
@@ -6845,7 +6845,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>291</v>
       </c>
@@ -6859,7 +6859,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>292</v>
       </c>
@@ -6873,7 +6873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>295</v>
       </c>
@@ -6887,7 +6887,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>297</v>
       </c>
@@ -6901,7 +6901,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>299</v>
       </c>
@@ -6915,7 +6915,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>300</v>
       </c>
@@ -6929,7 +6929,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>302</v>
       </c>
@@ -6943,7 +6943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>304</v>
       </c>
@@ -6957,7 +6957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>306</v>
       </c>
@@ -6971,7 +6971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>308</v>
       </c>
@@ -6982,7 +6982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>310</v>
       </c>
@@ -6996,7 +6996,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>312</v>
       </c>
@@ -7010,7 +7010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>314</v>
       </c>
@@ -7024,7 +7024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>316</v>
       </c>
@@ -7038,7 +7038,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>318</v>
       </c>
@@ -7052,7 +7052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>319</v>
       </c>
@@ -7063,7 +7063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>320</v>
       </c>
@@ -7077,7 +7077,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>322</v>
       </c>
@@ -7091,7 +7091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>325</v>
       </c>
@@ -7105,7 +7105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>327</v>
       </c>
@@ -7119,7 +7119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>328</v>
       </c>
@@ -7133,7 +7133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>330</v>
       </c>
@@ -7147,7 +7147,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>332</v>
       </c>
@@ -7161,7 +7161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>334</v>
       </c>
@@ -7175,7 +7175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>336</v>
       </c>
@@ -7189,7 +7189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>338</v>
       </c>
@@ -7203,7 +7203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>340</v>
       </c>
@@ -7217,7 +7217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>342</v>
       </c>
@@ -7231,7 +7231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>344</v>
       </c>
@@ -7245,7 +7245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>344</v>
       </c>
@@ -7259,7 +7259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>348</v>
       </c>
@@ -7273,7 +7273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>350</v>
       </c>
@@ -7287,7 +7287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>351</v>
       </c>
@@ -7301,7 +7301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>353</v>
       </c>
@@ -7312,7 +7312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>355</v>
       </c>
@@ -7323,7 +7323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>357</v>
       </c>
@@ -7334,7 +7334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>359</v>
       </c>
@@ -7348,7 +7348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>361</v>
       </c>
@@ -7362,7 +7362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>364</v>
       </c>
@@ -7376,7 +7376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>366</v>
       </c>
@@ -7390,7 +7390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>367</v>
       </c>
@@ -7401,7 +7401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>368</v>
       </c>
@@ -7415,7 +7415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>370</v>
       </c>
@@ -7429,7 +7429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>372</v>
       </c>
@@ -7443,7 +7443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>373</v>
       </c>
@@ -7457,7 +7457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>375</v>
       </c>
@@ -7471,7 +7471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>377</v>
       </c>
@@ -7485,7 +7485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>379</v>
       </c>
@@ -7499,7 +7499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>381</v>
       </c>
@@ -7510,7 +7510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>383</v>
       </c>
@@ -7524,7 +7524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>385</v>
       </c>
@@ -7535,7 +7535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>386</v>
       </c>
@@ -7549,7 +7549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>388</v>
       </c>
@@ -7563,7 +7563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>390</v>
       </c>
@@ -7577,7 +7577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>392</v>
       </c>
@@ -7591,7 +7591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>394</v>
       </c>
@@ -7605,7 +7605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>396</v>
       </c>
@@ -7616,7 +7616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>398</v>
       </c>
@@ -7630,7 +7630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>400</v>
       </c>
@@ -7644,7 +7644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>402</v>
       </c>
@@ -7658,7 +7658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>404</v>
       </c>
@@ -7672,7 +7672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>406</v>
       </c>
@@ -7686,7 +7686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>408</v>
       </c>
@@ -7700,7 +7700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>410</v>
       </c>
@@ -7714,7 +7714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>412</v>
       </c>
@@ -7728,7 +7728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>414</v>
       </c>
@@ -7742,7 +7742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>416</v>
       </c>
@@ -7756,7 +7756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>417</v>
       </c>
@@ -7770,7 +7770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>419</v>
       </c>
@@ -7784,7 +7784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>421</v>
       </c>
@@ -7798,7 +7798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>423</v>
       </c>
@@ -7812,7 +7812,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>425</v>
       </c>
@@ -7826,7 +7826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>426</v>
       </c>
@@ -7840,7 +7840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>428</v>
       </c>
@@ -7854,7 +7854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>430</v>
       </c>
@@ -7865,7 +7865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>432</v>
       </c>
@@ -7879,7 +7879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>434</v>
       </c>
@@ -7893,7 +7893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>436</v>
       </c>
@@ -7907,7 +7907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>438</v>
       </c>
@@ -7921,7 +7921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>440</v>
       </c>
@@ -7935,7 +7935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>442</v>
       </c>
@@ -7949,7 +7949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>444</v>
       </c>
@@ -7963,7 +7963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>446</v>
       </c>
@@ -7974,7 +7974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>448</v>
       </c>
@@ -7988,7 +7988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>449</v>
       </c>
@@ -8002,7 +8002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>451</v>
       </c>
@@ -8016,7 +8016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>453</v>
       </c>
@@ -8027,7 +8027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>455</v>
       </c>
@@ -8041,7 +8041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>457</v>
       </c>
@@ -8052,7 +8052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>459</v>
       </c>
@@ -8066,7 +8066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>461</v>
       </c>
@@ -8080,7 +8080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>463</v>
       </c>
@@ -8094,7 +8094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>465</v>
       </c>
@@ -8108,7 +8108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>466</v>
       </c>
@@ -8122,7 +8122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>467</v>
       </c>
@@ -8136,7 +8136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>469</v>
       </c>
@@ -8150,7 +8150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>471</v>
       </c>
@@ -8164,7 +8164,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>473</v>
       </c>
@@ -8178,7 +8178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>475</v>
       </c>
@@ -8192,7 +8192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>476</v>
       </c>
@@ -8206,7 +8206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>478</v>
       </c>
@@ -8217,7 +8217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>479</v>
       </c>
@@ -8231,7 +8231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>481</v>
       </c>
@@ -8245,7 +8245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>483</v>
       </c>
@@ -8259,7 +8259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>485</v>
       </c>
@@ -8273,7 +8273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>487</v>
       </c>
@@ -8287,7 +8287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>488</v>
       </c>
@@ -8301,7 +8301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>490</v>
       </c>
@@ -8312,7 +8312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>492</v>
       </c>
@@ -8326,7 +8326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>494</v>
       </c>
@@ -8340,7 +8340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>495</v>
       </c>
@@ -8351,7 +8351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>497</v>
       </c>
@@ -8365,7 +8365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>499</v>
       </c>
@@ -8376,7 +8376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>501</v>
       </c>
@@ -8390,7 +8390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>503</v>
       </c>
@@ -8404,7 +8404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>505</v>
       </c>
@@ -8415,7 +8415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>507</v>
       </c>
@@ -8429,7 +8429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>509</v>
       </c>
@@ -8440,7 +8440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>511</v>
       </c>
@@ -8454,7 +8454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>513</v>
       </c>
@@ -8468,7 +8468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>515</v>
       </c>
@@ -8482,7 +8482,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>516</v>
       </c>
@@ -8496,7 +8496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>518</v>
       </c>
@@ -8510,7 +8510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>519</v>
       </c>
@@ -8524,7 +8524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>521</v>
       </c>
@@ -8538,7 +8538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>523</v>
       </c>
@@ -8552,7 +8552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>525</v>
       </c>
@@ -8566,7 +8566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>527</v>
       </c>
@@ -8580,7 +8580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>529</v>
       </c>
@@ -8591,7 +8591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>531</v>
       </c>
@@ -8605,7 +8605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>533</v>
       </c>
@@ -8619,7 +8619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>535</v>
       </c>
@@ -8633,7 +8633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>537</v>
       </c>
@@ -8647,7 +8647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>539</v>
       </c>
@@ -8661,7 +8661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>540</v>
       </c>
@@ -8675,7 +8675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>542</v>
       </c>
@@ -8689,7 +8689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>543</v>
       </c>
@@ -8703,7 +8703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>545</v>
       </c>
@@ -8717,7 +8717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>547</v>
       </c>
@@ -8728,7 +8728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>548</v>
       </c>
@@ -8742,7 +8742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>550</v>
       </c>
@@ -8756,7 +8756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>552</v>
       </c>
@@ -8770,7 +8770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>554</v>
       </c>
@@ -8784,7 +8784,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>555</v>
       </c>
@@ -8798,7 +8798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>557</v>
       </c>
@@ -8812,7 +8812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>559</v>
       </c>
@@ -8826,7 +8826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>561</v>
       </c>
@@ -8840,7 +8840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>562</v>
       </c>
@@ -8854,7 +8854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>564</v>
       </c>
@@ -8868,7 +8868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>566</v>
       </c>
@@ -8882,7 +8882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>568</v>
       </c>
@@ -8896,7 +8896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>570</v>
       </c>
@@ -8910,7 +8910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>572</v>
       </c>
@@ -8924,7 +8924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>575</v>
       </c>
@@ -8938,7 +8938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>577</v>
       </c>
@@ -8952,7 +8952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>579</v>
       </c>
@@ -8966,7 +8966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>581</v>
       </c>
@@ -8980,7 +8980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>583</v>
       </c>
@@ -8994,7 +8994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>585</v>
       </c>
@@ -9008,7 +9008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>587</v>
       </c>
@@ -9022,7 +9022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>588</v>
       </c>
@@ -9036,7 +9036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>591</v>
       </c>
@@ -9050,7 +9050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>593</v>
       </c>
@@ -9064,7 +9064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>595</v>
       </c>
@@ -9075,7 +9075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>597</v>
       </c>
@@ -9086,7 +9086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>598</v>
       </c>
@@ -9100,7 +9100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>600</v>
       </c>
@@ -9114,7 +9114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>602</v>
       </c>
@@ -9128,7 +9128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>604</v>
       </c>
@@ -9142,7 +9142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>606</v>
       </c>
@@ -9156,7 +9156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>608</v>
       </c>
@@ -9170,7 +9170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>610</v>
       </c>
@@ -9184,7 +9184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>612</v>
       </c>
@@ -9198,7 +9198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>614</v>
       </c>
@@ -9212,7 +9212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>616</v>
       </c>
@@ -9226,7 +9226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>618</v>
       </c>
@@ -9240,7 +9240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>619</v>
       </c>
@@ -9254,7 +9254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>621</v>
       </c>
@@ -9268,7 +9268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>623</v>
       </c>
@@ -9282,7 +9282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>625</v>
       </c>
@@ -9293,7 +9293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>627</v>
       </c>
@@ -9307,7 +9307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>629</v>
       </c>
@@ -9321,7 +9321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>631</v>
       </c>
@@ -9335,7 +9335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>633</v>
       </c>
@@ -9349,7 +9349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>635</v>
       </c>
@@ -9363,7 +9363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>637</v>
       </c>
@@ -9377,7 +9377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>639</v>
       </c>
@@ -9391,7 +9391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>641</v>
       </c>
@@ -9405,7 +9405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>642</v>
       </c>
@@ -9419,7 +9419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>644</v>
       </c>
@@ -9433,7 +9433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>646</v>
       </c>
@@ -9447,7 +9447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>648</v>
       </c>
@@ -9461,7 +9461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>650</v>
       </c>
@@ -9475,7 +9475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>652</v>
       </c>
@@ -9489,7 +9489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>654</v>
       </c>
@@ -9503,7 +9503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>656</v>
       </c>
@@ -9517,7 +9517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>658</v>
       </c>
@@ -9531,7 +9531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>660</v>
       </c>
@@ -9545,7 +9545,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>661</v>
       </c>
@@ -9559,7 +9559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>663</v>
       </c>
@@ -9573,7 +9573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>665</v>
       </c>
@@ -9584,7 +9584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>665</v>
       </c>
@@ -9598,7 +9598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>668</v>
       </c>
@@ -9612,7 +9612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>670</v>
       </c>
@@ -9626,7 +9626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>672</v>
       </c>
@@ -9640,7 +9640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>674</v>
       </c>
@@ -9654,7 +9654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>676</v>
       </c>
@@ -9668,7 +9668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>678</v>
       </c>
@@ -9682,7 +9682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>680</v>
       </c>
@@ -9696,7 +9696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>681</v>
       </c>
@@ -9710,7 +9710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>683</v>
       </c>
@@ -9724,7 +9724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>685</v>
       </c>
@@ -9738,7 +9738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>687</v>
       </c>
@@ -9752,7 +9752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>689</v>
       </c>
@@ -9766,7 +9766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>691</v>
       </c>
@@ -9780,7 +9780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>693</v>
       </c>
@@ -9794,7 +9794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>695</v>
       </c>
@@ -9808,7 +9808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>697</v>
       </c>
@@ -9822,7 +9822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>187</v>
       </c>
@@ -9833,7 +9833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>699</v>
       </c>
@@ -9847,7 +9847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>701</v>
       </c>
@@ -9858,7 +9858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>703</v>
       </c>
@@ -9872,7 +9872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>705</v>
       </c>
@@ -9883,7 +9883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>707</v>
       </c>
@@ -9897,7 +9897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>709</v>
       </c>
@@ -9911,7 +9911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>711</v>
       </c>
@@ -9925,7 +9925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>713</v>
       </c>
@@ -9939,7 +9939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>715</v>
       </c>
@@ -9953,7 +9953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>717</v>
       </c>
@@ -9967,7 +9967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>719</v>
       </c>
@@ -9981,7 +9981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>721</v>
       </c>
@@ -9992,7 +9992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>723</v>
       </c>
@@ -10006,7 +10006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>725</v>
       </c>
@@ -10020,7 +10020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>727</v>
       </c>
@@ -10034,7 +10034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>729</v>
       </c>
@@ -10048,7 +10048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>732</v>
       </c>
@@ -10062,7 +10062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>733</v>
       </c>
@@ -10076,7 +10076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>735</v>
       </c>
@@ -10090,7 +10090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>737</v>
       </c>
@@ -10104,7 +10104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>739</v>
       </c>
@@ -10118,7 +10118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>741</v>
       </c>
@@ -10132,7 +10132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>743</v>
       </c>
@@ -10146,7 +10146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>745</v>
       </c>
@@ -10160,7 +10160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>747</v>
       </c>
@@ -10174,7 +10174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>749</v>
       </c>
@@ -10188,7 +10188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>751</v>
       </c>
@@ -10202,7 +10202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>753</v>
       </c>
@@ -10216,7 +10216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>756</v>
       </c>
@@ -10230,7 +10230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>757</v>
       </c>
@@ -10241,7 +10241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>759</v>
       </c>
@@ -10255,7 +10255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>760</v>
       </c>
@@ -10269,7 +10269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>762</v>
       </c>
@@ -10283,7 +10283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>764</v>
       </c>
@@ -10297,7 +10297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>766</v>
       </c>
@@ -10311,7 +10311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>768</v>
       </c>
@@ -10325,7 +10325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>770</v>
       </c>
@@ -10339,7 +10339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>771</v>
       </c>
@@ -10353,7 +10353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>773</v>
       </c>
@@ -10364,7 +10364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>775</v>
       </c>
@@ -10378,7 +10378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>777</v>
       </c>
@@ -10392,7 +10392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>779</v>
       </c>
@@ -10406,7 +10406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>780</v>
       </c>
@@ -10420,7 +10420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>782</v>
       </c>
@@ -10434,7 +10434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>784</v>
       </c>
@@ -10448,7 +10448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>785</v>
       </c>
@@ -10462,7 +10462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>787</v>
       </c>
@@ -10476,7 +10476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>788</v>
       </c>
@@ -10490,7 +10490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>790</v>
       </c>
@@ -10504,7 +10504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>792</v>
       </c>
@@ -10518,7 +10518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>793</v>
       </c>
@@ -10532,7 +10532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>795</v>
       </c>
@@ -10546,7 +10546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>796</v>
       </c>
@@ -10560,7 +10560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>798</v>
       </c>
@@ -10574,7 +10574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>800</v>
       </c>
@@ -10585,7 +10585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>802</v>
       </c>
@@ -10596,7 +10596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>804</v>
       </c>
@@ -10610,7 +10610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>806</v>
       </c>
@@ -10624,7 +10624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>807</v>
       </c>
@@ -10638,7 +10638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>809</v>
       </c>
@@ -10649,7 +10649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>811</v>
       </c>
@@ -10660,7 +10660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>813</v>
       </c>
@@ -10674,7 +10674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>816</v>
       </c>
@@ -10688,7 +10688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>818</v>
       </c>
@@ -10702,7 +10702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>98</v>
       </c>
@@ -10713,7 +10713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>819</v>
       </c>
@@ -10727,7 +10727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>820</v>
       </c>
@@ -10741,7 +10741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>822</v>
       </c>
@@ -10755,7 +10755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>824</v>
       </c>
@@ -10766,7 +10766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>826</v>
       </c>
@@ -10780,7 +10780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>829</v>
       </c>
@@ -10794,7 +10794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>830</v>
       </c>
@@ -10808,7 +10808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>831</v>
       </c>
@@ -10822,7 +10822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>832</v>
       </c>
@@ -10836,7 +10836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>833</v>
       </c>
@@ -10850,7 +10850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>835</v>
       </c>
@@ -10864,7 +10864,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>837</v>
       </c>
@@ -10878,7 +10878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>839</v>
       </c>
@@ -10889,7 +10889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>841</v>
       </c>
@@ -10900,7 +10900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>842</v>
       </c>
@@ -10914,7 +10914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>843</v>
       </c>
@@ -10928,7 +10928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>845</v>
       </c>
@@ -10942,7 +10942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>848</v>
       </c>
@@ -10956,7 +10956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>850</v>
       </c>
@@ -10970,7 +10970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>851</v>
       </c>
@@ -10984,7 +10984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>852</v>
       </c>
@@ -10998,7 +10998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>854</v>
       </c>
@@ -11012,7 +11012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>856</v>
       </c>
@@ -11026,7 +11026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>858</v>
       </c>
@@ -11037,7 +11037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>859</v>
       </c>
@@ -11048,7 +11048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>860</v>
       </c>
@@ -11062,7 +11062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>862</v>
       </c>
@@ -11076,7 +11076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>864</v>
       </c>
@@ -11087,7 +11087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>866</v>
       </c>
@@ -11101,7 +11101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>868</v>
       </c>
@@ -11115,7 +11115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>870</v>
       </c>
@@ -11129,7 +11129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>872</v>
       </c>
@@ -11143,7 +11143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>874</v>
       </c>
@@ -11157,7 +11157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>876</v>
       </c>
@@ -11171,7 +11171,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>878</v>
       </c>
@@ -11185,7 +11185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>880</v>
       </c>
@@ -11199,7 +11199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>882</v>
       </c>
@@ -11210,7 +11210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>884</v>
       </c>
@@ -11224,7 +11224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>886</v>
       </c>
@@ -11238,7 +11238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>888</v>
       </c>
@@ -11252,7 +11252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>890</v>
       </c>
@@ -11266,7 +11266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>892</v>
       </c>
@@ -11280,7 +11280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>894</v>
       </c>
@@ -11294,7 +11294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>895</v>
       </c>
@@ -11308,7 +11308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>897</v>
       </c>
@@ -11322,7 +11322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>899</v>
       </c>
@@ -11333,7 +11333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>900</v>
       </c>
@@ -11347,7 +11347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>901</v>
       </c>
@@ -11361,7 +11361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>903</v>
       </c>
@@ -11375,7 +11375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>905</v>
       </c>
@@ -11386,7 +11386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>906</v>
       </c>
@@ -11400,7 +11400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>908</v>
       </c>
@@ -11414,7 +11414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>910</v>
       </c>
@@ -11428,7 +11428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>912</v>
       </c>
@@ -11442,7 +11442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>27</v>
       </c>
@@ -11453,7 +11453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>914</v>
       </c>
@@ -11467,7 +11467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>915</v>
       </c>
@@ -11481,7 +11481,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>917</v>
       </c>
@@ -11495,7 +11495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>919</v>
       </c>
@@ -11509,7 +11509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>921</v>
       </c>
@@ -11523,7 +11523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>923</v>
       </c>
@@ -11534,7 +11534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>925</v>
       </c>
@@ -11548,7 +11548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>926</v>
       </c>
@@ -11562,7 +11562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>928</v>
       </c>
@@ -11576,7 +11576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>930</v>
       </c>
@@ -11590,7 +11590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>932</v>
       </c>
@@ -11604,7 +11604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>934</v>
       </c>
@@ -11618,7 +11618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>936</v>
       </c>
@@ -11632,7 +11632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>937</v>
       </c>
@@ -11646,7 +11646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="493" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>939</v>
       </c>
@@ -11660,7 +11660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="494" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>941</v>
       </c>
@@ -11674,7 +11674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="495" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>943</v>
       </c>
@@ -11688,7 +11688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="496" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>945</v>
       </c>
@@ -11702,7 +11702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="497" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>947</v>
       </c>
@@ -11716,7 +11716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="498" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>949</v>
       </c>
@@ -11727,7 +11727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="499" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>951</v>
       </c>
@@ -11741,7 +11741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="500" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>952</v>
       </c>
@@ -11755,7 +11755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="501" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>954</v>
       </c>
@@ -11769,7 +11769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="502" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>955</v>
       </c>
@@ -11783,7 +11783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="503" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>956</v>
       </c>
@@ -11797,7 +11797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="504" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>958</v>
       </c>
@@ -11811,7 +11811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="505" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>960</v>
       </c>
@@ -11825,7 +11825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="506" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>962</v>
       </c>
@@ -11839,7 +11839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="507" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>964</v>
       </c>
@@ -11853,7 +11853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="508" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>966</v>
       </c>
@@ -11864,7 +11864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="509" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>968</v>
       </c>
@@ -11878,7 +11878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="510" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>970</v>
       </c>
@@ -11889,7 +11889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="511" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>972</v>
       </c>
@@ -11903,7 +11903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="512" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>974</v>
       </c>
@@ -11917,7 +11917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="513" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>975</v>
       </c>
@@ -11931,7 +11931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="514" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>976</v>
       </c>
@@ -11945,7 +11945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="515" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>978</v>
       </c>
@@ -11959,7 +11959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="516" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>980</v>
       </c>
@@ -11973,7 +11973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="517" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>982</v>
       </c>
@@ -11987,7 +11987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="518" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>984</v>
       </c>
@@ -11998,7 +11998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="519" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>986</v>
       </c>
@@ -12012,7 +12012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="520" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>987</v>
       </c>
@@ -12026,7 +12026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="521" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>989</v>
       </c>
@@ -12040,7 +12040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="522" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>991</v>
       </c>
@@ -12054,7 +12054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="523" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>993</v>
       </c>
@@ -12065,7 +12065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="524" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>995</v>
       </c>
@@ -12076,7 +12076,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="525" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>997</v>
       </c>
@@ -12090,7 +12090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="526" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>998</v>
       </c>
@@ -12104,7 +12104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="527" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>1000</v>
       </c>
@@ -12118,7 +12118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="528" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>1002</v>
       </c>
@@ -12132,7 +12132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="529" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>1004</v>
       </c>
@@ -12146,7 +12146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="530" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>1006</v>
       </c>
@@ -12160,7 +12160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="531" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>1007</v>
       </c>
@@ -12174,7 +12174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="532" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>1009</v>
       </c>
@@ -12188,7 +12188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="533" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>1011</v>
       </c>
@@ -12199,7 +12199,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="534" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>1013</v>
       </c>
@@ -12213,7 +12213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="535" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>1015</v>
       </c>
@@ -12227,7 +12227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="536" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>1017</v>
       </c>
@@ -12241,7 +12241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="537" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>1019</v>
       </c>
@@ -12252,7 +12252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="538" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>1021</v>
       </c>
@@ -12263,7 +12263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="539" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>1023</v>
       </c>
@@ -12277,7 +12277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="540" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>1024</v>
       </c>
@@ -12291,7 +12291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="541" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>1026</v>
       </c>
@@ -12305,7 +12305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="542" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>1028</v>
       </c>
@@ -12319,7 +12319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="543" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>1029</v>
       </c>
@@ -12330,7 +12330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="544" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>1030</v>
       </c>
@@ -12344,7 +12344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="545" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>1032</v>
       </c>
@@ -12355,7 +12355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="546" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>1034</v>
       </c>
@@ -12369,7 +12369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="547" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>1035</v>
       </c>
@@ -12383,7 +12383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="548" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>1037</v>
       </c>
@@ -12397,7 +12397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="549" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>1039</v>
       </c>
@@ -12411,7 +12411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="550" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>1041</v>
       </c>
@@ -12425,7 +12425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="551" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>1043</v>
       </c>
@@ -12439,7 +12439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="552" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>1045</v>
       </c>
@@ -12453,7 +12453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="553" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>1047</v>
       </c>
@@ -12467,7 +12467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="554" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>1049</v>
       </c>
@@ -12481,7 +12481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="555" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>1051</v>
       </c>
@@ -12495,7 +12495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="556" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>1053</v>
       </c>
@@ -12509,7 +12509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="557" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>1055</v>
       </c>
@@ -12523,7 +12523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="558" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>1057</v>
       </c>
@@ -12537,7 +12537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="559" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>1058</v>
       </c>
@@ -12551,7 +12551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="560" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>1060</v>
       </c>
@@ -12565,7 +12565,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="561" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>1062</v>
       </c>
@@ -12576,7 +12576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="562" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>1064</v>
       </c>
@@ -12587,7 +12587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="563" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>1066</v>
       </c>
@@ -12601,7 +12601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="564" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>1068</v>
       </c>
@@ -12615,7 +12615,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="565" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>1069</v>
       </c>
@@ -12629,7 +12629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="566" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>1071</v>
       </c>
@@ -12643,7 +12643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="567" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>1073</v>
       </c>
@@ -12657,7 +12657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="568" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>1075</v>
       </c>
@@ -12671,7 +12671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="569" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>1077</v>
       </c>
@@ -12685,7 +12685,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="570" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>1079</v>
       </c>
@@ -12699,7 +12699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="571" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>1081</v>
       </c>
@@ -12713,7 +12713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="572" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>1083</v>
       </c>
@@ -12727,7 +12727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="573" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
         <v>1085</v>
       </c>
@@ -12741,7 +12741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="574" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>1087</v>
       </c>
@@ -12755,7 +12755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="575" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>669</v>
       </c>
@@ -12769,7 +12769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="576" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
         <v>1090</v>
       </c>
@@ -12780,7 +12780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="577" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>1091</v>
       </c>
@@ -12794,7 +12794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="578" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>1093</v>
       </c>
@@ -12808,7 +12808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="579" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>1095</v>
       </c>
@@ -12822,7 +12822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="580" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>1097</v>
       </c>
@@ -12836,7 +12836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="581" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>1099</v>
       </c>
@@ -12847,7 +12847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="582" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>1100</v>
       </c>
@@ -12861,7 +12861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="583" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
         <v>1102</v>
       </c>
@@ -12875,7 +12875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="584" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
         <v>1104</v>
       </c>
@@ -12889,7 +12889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="585" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
         <v>1106</v>
       </c>
@@ -12903,7 +12903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="586" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
         <v>1108</v>
       </c>
@@ -12917,7 +12917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="587" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
         <v>1109</v>
       </c>
@@ -12931,7 +12931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="588" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
         <v>1111</v>
       </c>
@@ -12945,7 +12945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="589" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
         <v>1112</v>
       </c>
@@ -12959,7 +12959,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="590" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
         <v>1113</v>
       </c>
@@ -12973,7 +12973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="591" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
         <v>1115</v>
       </c>
@@ -12987,7 +12987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="592" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
         <v>1117</v>
       </c>
@@ -13001,7 +13001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="593" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
         <v>1119</v>
       </c>
@@ -13015,7 +13015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="594" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
         <v>1121</v>
       </c>
@@ -13026,7 +13026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="595" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
         <v>1123</v>
       </c>
@@ -13040,7 +13040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="596" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
         <v>1125</v>
       </c>
@@ -13054,7 +13054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="597" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
         <v>1127</v>
       </c>
@@ -13068,7 +13068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="598" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
         <v>1129</v>
       </c>
@@ -13082,7 +13082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="599" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
         <v>1131</v>
       </c>
@@ -13096,7 +13096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="600" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
         <v>1134</v>
       </c>
@@ -13110,7 +13110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="601" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
         <v>1136</v>
       </c>
@@ -13124,7 +13124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="602" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
         <v>1138</v>
       </c>
@@ -13138,7 +13138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="603" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
         <v>1140</v>
       </c>
@@ -13149,7 +13149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="604" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
         <v>1142</v>
       </c>
@@ -13163,7 +13163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="605" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
         <v>1144</v>
       </c>
@@ -13177,7 +13177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="606" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
         <v>1146</v>
       </c>
@@ -13191,7 +13191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="607" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
         <v>1148</v>
       </c>
@@ -13205,7 +13205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="608" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
         <v>1150</v>
       </c>
@@ -13219,7 +13219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="609" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
         <v>1152</v>
       </c>
@@ -13233,7 +13233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="610" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
         <v>1154</v>
       </c>
@@ -13244,7 +13244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="611" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
         <v>1156</v>
       </c>
@@ -13258,7 +13258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="612" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
         <v>1158</v>
       </c>
@@ -13272,7 +13272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="613" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
         <v>1160</v>
       </c>
@@ -13286,7 +13286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="614" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
         <v>1162</v>
       </c>
@@ -13300,7 +13300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="615" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
         <v>1164</v>
       </c>
@@ -13314,7 +13314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="616" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
         <v>1166</v>
       </c>
@@ -13328,7 +13328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="617" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
         <v>1167</v>
       </c>
@@ -13342,7 +13342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="618" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
         <v>1169</v>
       </c>
@@ -13356,7 +13356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="619" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
         <v>1171</v>
       </c>
@@ -13370,7 +13370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="620" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
         <v>1173</v>
       </c>
@@ -13384,7 +13384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="621" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
         <v>1173</v>
       </c>
@@ -13395,7 +13395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="622" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
         <v>1176</v>
       </c>
@@ -13406,7 +13406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="623" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
         <v>1178</v>
       </c>
@@ -13420,7 +13420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="624" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
         <v>1180</v>
       </c>
@@ -13434,7 +13434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="625" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
         <v>1181</v>
       </c>
@@ -13448,7 +13448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="626" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
         <v>1183</v>
       </c>
@@ -13462,7 +13462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="627" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
         <v>1185</v>
       </c>
@@ -13473,7 +13473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="628" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
         <v>1187</v>
       </c>
@@ -13487,7 +13487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="629" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
         <v>1189</v>
       </c>
@@ -13501,7 +13501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="630" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
         <v>1191</v>
       </c>
@@ -13515,7 +13515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="631" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
         <v>1193</v>
       </c>
@@ -13529,7 +13529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="632" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
         <v>1195</v>
       </c>
@@ -13543,7 +13543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="633" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
         <v>1197</v>
       </c>
@@ -13557,7 +13557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="634" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
         <v>1199</v>
       </c>
@@ -13571,7 +13571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="635" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
         <v>1201</v>
       </c>
@@ -13585,7 +13585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="636" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
         <v>1203</v>
       </c>
@@ -13599,7 +13599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="637" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
         <v>1205</v>
       </c>
@@ -13613,7 +13613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="638" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
         <v>1207</v>
       </c>
@@ -13627,7 +13627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="639" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
         <v>1209</v>
       </c>
@@ -13641,7 +13641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="640" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
         <v>1211</v>
       </c>
@@ -13655,7 +13655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="641" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
         <v>1212</v>
       </c>
@@ -13669,7 +13669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="642" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
         <v>1214</v>
       </c>
@@ -13683,7 +13683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="643" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
         <v>1216</v>
       </c>
@@ -13697,7 +13697,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="644" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
         <v>1217</v>
       </c>
@@ -13711,7 +13711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="645" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
         <v>1219</v>
       </c>
@@ -13725,7 +13725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="646" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
         <v>1220</v>
       </c>
@@ -13739,7 +13739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="647" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
         <v>1221</v>
       </c>
@@ -13753,7 +13753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="648" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
         <v>1222</v>
       </c>
@@ -13767,7 +13767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="649" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
         <v>1224</v>
       </c>
@@ -13778,7 +13778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="650" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
         <v>1226</v>
       </c>
@@ -13792,7 +13792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="651" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
         <v>1228</v>
       </c>
@@ -13806,7 +13806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="652" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
         <v>1230</v>
       </c>
@@ -13820,7 +13820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="653" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
         <v>1232</v>
       </c>
@@ -13834,7 +13834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="654" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A654" t="s">
         <v>1234</v>
       </c>
@@ -13845,7 +13845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="655" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
         <v>1235</v>
       </c>
@@ -13859,7 +13859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="656" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
         <v>1237</v>
       </c>
@@ -13873,7 +13873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="657" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
         <v>1238</v>
       </c>
@@ -13887,7 +13887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="658" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A658" t="s">
         <v>1240</v>
       </c>
@@ -13901,7 +13901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="659" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A659" t="s">
         <v>1242</v>
       </c>
@@ -13915,7 +13915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="660" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
         <v>1244</v>
       </c>
@@ -13929,7 +13929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="661" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
         <v>1246</v>
       </c>
@@ -13943,7 +13943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="662" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
         <v>1248</v>
       </c>
@@ -13957,7 +13957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="663" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
         <v>1250</v>
       </c>
@@ -13971,7 +13971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="664" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A664" t="s">
         <v>1252</v>
       </c>
@@ -13985,7 +13985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="665" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
         <v>1254</v>
       </c>
@@ -13999,7 +13999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="666" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
         <v>1256</v>
       </c>
@@ -14013,7 +14013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="667" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A667" t="s">
         <v>1258</v>
       </c>
@@ -14027,7 +14027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="668" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A668" t="s">
         <v>1260</v>
       </c>
@@ -14041,7 +14041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="669" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A669" t="s">
         <v>1262</v>
       </c>
@@ -14052,7 +14052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="670" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A670" t="s">
         <v>1264</v>
       </c>
@@ -14066,7 +14066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="671" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A671" t="s">
         <v>1266</v>
       </c>
@@ -14080,7 +14080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="672" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
         <v>1268</v>
       </c>
@@ -14094,7 +14094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="673" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A673" t="s">
         <v>1270</v>
       </c>
@@ -14108,7 +14108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="674" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A674" t="s">
         <v>1271</v>
       </c>
@@ -14122,7 +14122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="675" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A675" t="s">
         <v>1272</v>
       </c>
@@ -14136,7 +14136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="676" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A676" t="s">
         <v>1273</v>
       </c>
@@ -14150,7 +14150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="677" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A677" t="s">
         <v>1275</v>
       </c>
@@ -14164,7 +14164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="678" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A678" t="s">
         <v>1276</v>
       </c>
@@ -14178,7 +14178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="679" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A679" t="s">
         <v>1278</v>
       </c>
@@ -14192,7 +14192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="680" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
         <v>1280</v>
       </c>
@@ -14206,7 +14206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="681" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A681" t="s">
         <v>1282</v>
       </c>
@@ -14220,7 +14220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="682" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A682" t="s">
         <v>1283</v>
       </c>
@@ -14231,7 +14231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="683" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
         <v>1284</v>
       </c>
@@ -14245,7 +14245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="684" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A684" t="s">
         <v>1286</v>
       </c>
@@ -14259,7 +14259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="685" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A685" t="s">
         <v>1288</v>
       </c>
@@ -14273,7 +14273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="686" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A686" t="s">
         <v>1290</v>
       </c>
@@ -14284,7 +14284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="687" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A687" t="s">
         <v>1292</v>
       </c>
@@ -14298,7 +14298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="688" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A688" t="s">
         <v>1294</v>
       </c>
@@ -14312,7 +14312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="689" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A689" t="s">
         <v>1296</v>
       </c>
@@ -14326,7 +14326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="690" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A690" t="s">
         <v>1298</v>
       </c>
@@ -14340,7 +14340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="691" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A691" t="s">
         <v>1299</v>
       </c>
@@ -14354,7 +14354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="692" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A692" t="s">
         <v>1300</v>
       </c>
@@ -14368,7 +14368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="693" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A693" t="s">
         <v>1302</v>
       </c>
@@ -14382,7 +14382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="694" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A694" t="s">
         <v>1304</v>
       </c>
@@ -14396,7 +14396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="695" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A695" t="s">
         <v>1306</v>
       </c>
@@ -14404,13 +14404,13 @@
         <v>1307</v>
       </c>
       <c r="C695" t="s">
-        <v>19</v>
+        <v>180</v>
       </c>
       <c r="D695">
         <v>1</v>
       </c>
     </row>
-    <row r="696" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A696" t="s">
         <v>1308</v>
       </c>
@@ -14424,7 +14424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="697" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A697" t="s">
         <v>1310</v>
       </c>
@@ -14438,7 +14438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="698" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A698" t="s">
         <v>1312</v>
       </c>
@@ -14449,7 +14449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="699" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A699" t="s">
         <v>1314</v>
       </c>
@@ -14463,7 +14463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="700" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A700" t="s">
         <v>1316</v>
       </c>
@@ -14477,7 +14477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="701" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A701" t="s">
         <v>1318</v>
       </c>
@@ -14488,7 +14488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="702" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A702" t="s">
         <v>1320</v>
       </c>
@@ -14502,7 +14502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="703" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A703" t="s">
         <v>1322</v>
       </c>
@@ -14516,7 +14516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="704" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A704" t="s">
         <v>1324</v>
       </c>
@@ -14530,7 +14530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="705" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A705" t="s">
         <v>1326</v>
       </c>
@@ -14544,7 +14544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="706" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A706" t="s">
         <v>1328</v>
       </c>
@@ -14555,7 +14555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="707" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A707" t="s">
         <v>1330</v>
       </c>
@@ -14569,7 +14569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="708" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A708" t="s">
         <v>1332</v>
       </c>
@@ -14583,7 +14583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="709" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A709" t="s">
         <v>1334</v>
       </c>
@@ -14597,7 +14597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="710" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A710" t="s">
         <v>1336</v>
       </c>
@@ -14611,7 +14611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="711" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A711" t="s">
         <v>1338</v>
       </c>
@@ -14625,7 +14625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="712" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A712" t="s">
         <v>1339</v>
       </c>
@@ -14639,7 +14639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="713" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A713" t="s">
         <v>1341</v>
       </c>
@@ -14653,7 +14653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="714" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A714" t="s">
         <v>1343</v>
       </c>
@@ -14667,7 +14667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="715" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A715" t="s">
         <v>1345</v>
       </c>
@@ -14681,7 +14681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="716" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A716" t="s">
         <v>1347</v>
       </c>
@@ -14695,7 +14695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="717" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A717" t="s">
         <v>1349</v>
       </c>
@@ -14709,7 +14709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="718" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A718" t="s">
         <v>1351</v>
       </c>
@@ -14723,7 +14723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="719" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A719" t="s">
         <v>1353</v>
       </c>
@@ -14737,7 +14737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="720" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A720" t="s">
         <v>1355</v>
       </c>
@@ -14751,7 +14751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="721" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A721" t="s">
         <v>1356</v>
       </c>
@@ -14765,7 +14765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="722" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A722" t="s">
         <v>1357</v>
       </c>
@@ -14779,7 +14779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="723" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A723" t="s">
         <v>1359</v>
       </c>
@@ -14793,7 +14793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="724" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A724" t="s">
         <v>1361</v>
       </c>
@@ -14807,7 +14807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="725" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A725" t="s">
         <v>1363</v>
       </c>
@@ -14821,7 +14821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="726" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A726" t="s">
         <v>1365</v>
       </c>
@@ -14832,7 +14832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="727" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A727" t="s">
         <v>1367</v>
       </c>
@@ -14846,7 +14846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="728" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A728" t="s">
         <v>1369</v>
       </c>
@@ -14860,7 +14860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="729" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A729" t="s">
         <v>1371</v>
       </c>
@@ -14874,7 +14874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="730" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A730" t="s">
         <v>1372</v>
       </c>
@@ -14888,7 +14888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="731" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A731" t="s">
         <v>1374</v>
       </c>
@@ -14902,7 +14902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="732" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A732" t="s">
         <v>1376</v>
       </c>
@@ -14916,7 +14916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="733" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A733" t="s">
         <v>1378</v>
       </c>
@@ -14930,7 +14930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="734" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A734" t="s">
         <v>1379</v>
       </c>
@@ -14944,7 +14944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="735" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A735" t="s">
         <v>1381</v>
       </c>
@@ -14958,7 +14958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="736" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A736" t="s">
         <v>1383</v>
       </c>
@@ -14972,7 +14972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="737" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A737" t="s">
         <v>1385</v>
       </c>
@@ -14986,7 +14986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="738" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A738" t="s">
         <v>1387</v>
       </c>
@@ -15000,7 +15000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="739" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A739" t="s">
         <v>1389</v>
       </c>
@@ -15014,7 +15014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="740" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A740" t="s">
         <v>1390</v>
       </c>
@@ -15028,7 +15028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="741" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A741" t="s">
         <v>1392</v>
       </c>
@@ -15042,7 +15042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="742" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A742" t="s">
         <v>1394</v>
       </c>
@@ -15053,7 +15053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="743" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A743" t="s">
         <v>1396</v>
       </c>
@@ -15067,7 +15067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="744" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A744" t="s">
         <v>1398</v>
       </c>
@@ -15081,7 +15081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="745" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A745" t="s">
         <v>1400</v>
       </c>
@@ -15095,7 +15095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="746" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A746" t="s">
         <v>1402</v>
       </c>
@@ -15109,7 +15109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="747" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A747" t="s">
         <v>1403</v>
       </c>
@@ -15123,7 +15123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="748" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A748" t="s">
         <v>1405</v>
       </c>
@@ -15137,7 +15137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="749" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A749" t="s">
         <v>1407</v>
       </c>
@@ -15151,7 +15151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="750" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A750" t="s">
         <v>1409</v>
       </c>
@@ -15165,7 +15165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="751" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A751" t="s">
         <v>1411</v>
       </c>
@@ -15179,7 +15179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="752" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A752" t="s">
         <v>1412</v>
       </c>
@@ -15193,7 +15193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="753" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A753" t="s">
         <v>1414</v>
       </c>
@@ -15207,7 +15207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="754" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A754" t="s">
         <v>1415</v>
       </c>
@@ -15221,7 +15221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="755" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A755" t="s">
         <v>1417</v>
       </c>
@@ -15235,7 +15235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="756" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A756" t="s">
         <v>1419</v>
       </c>
@@ -15249,7 +15249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="757" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A757" t="s">
         <v>1421</v>
       </c>
@@ -15263,7 +15263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="758" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A758" t="s">
         <v>1423</v>
       </c>
@@ -15277,7 +15277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="759" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A759" t="s">
         <v>1425</v>
       </c>
@@ -15291,7 +15291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="760" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A760" t="s">
         <v>1427</v>
       </c>
@@ -15305,7 +15305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="761" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A761" t="s">
         <v>1428</v>
       </c>
@@ -15319,7 +15319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="762" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A762" t="s">
         <v>1430</v>
       </c>
@@ -15333,7 +15333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="763" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A763" t="s">
         <v>1432</v>
       </c>
@@ -15347,7 +15347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="764" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A764" t="s">
         <v>1434</v>
       </c>
@@ -15361,7 +15361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="765" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A765" t="s">
         <v>1436</v>
       </c>
@@ -15375,7 +15375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="766" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A766" t="s">
         <v>1438</v>
       </c>
@@ -15389,7 +15389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="767" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A767" t="s">
         <v>1440</v>
       </c>
@@ -15403,7 +15403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="768" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A768" t="s">
         <v>1442</v>
       </c>
@@ -15414,7 +15414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="769" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A769" t="s">
         <v>1444</v>
       </c>
@@ -15425,7 +15425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="770" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A770" t="s">
         <v>1446</v>
       </c>
@@ -15439,7 +15439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="771" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A771" t="s">
         <v>1448</v>
       </c>
@@ -15450,7 +15450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="772" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A772" t="s">
         <v>1450</v>
       </c>
@@ -15464,7 +15464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="773" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A773" t="s">
         <v>1452</v>
       </c>
@@ -15478,7 +15478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="774" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A774" t="s">
         <v>1454</v>
       </c>
@@ -15492,7 +15492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="775" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A775" t="s">
         <v>1456</v>
       </c>
@@ -15506,7 +15506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="776" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A776" t="s">
         <v>1458</v>
       </c>
@@ -15520,7 +15520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="777" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A777" t="s">
         <v>1460</v>
       </c>
@@ -15534,7 +15534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="778" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A778" t="s">
         <v>1462</v>
       </c>
@@ -15548,7 +15548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="779" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A779" t="s">
         <v>1464</v>
       </c>
@@ -15562,7 +15562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="780" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A780" t="s">
         <v>1466</v>
       </c>
@@ -15576,7 +15576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="781" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A781" t="s">
         <v>1468</v>
       </c>
@@ -15590,7 +15590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="782" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A782" t="s">
         <v>1470</v>
       </c>
@@ -15604,7 +15604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="783" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A783" t="s">
         <v>1472</v>
       </c>
@@ -15618,7 +15618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="784" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A784" t="s">
         <v>1474</v>
       </c>
@@ -15632,7 +15632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="785" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A785" t="s">
         <v>1476</v>
       </c>
@@ -15646,7 +15646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="786" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A786" t="s">
         <v>1478</v>
       </c>
@@ -15660,7 +15660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="787" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A787" t="s">
         <v>1480</v>
       </c>
@@ -15674,7 +15674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="788" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A788" t="s">
         <v>1482</v>
       </c>
@@ -15688,7 +15688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="789" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A789" t="s">
         <v>1484</v>
       </c>
@@ -15702,7 +15702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="790" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A790" t="s">
         <v>1485</v>
       </c>
@@ -15716,7 +15716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="791" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A791" t="s">
         <v>1487</v>
       </c>
@@ -15730,7 +15730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="792" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A792" t="s">
         <v>1489</v>
       </c>
@@ -15744,7 +15744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="793" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A793" t="s">
         <v>1491</v>
       </c>
@@ -15758,7 +15758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="794" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A794" t="s">
         <v>1492</v>
       </c>
@@ -15772,7 +15772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="795" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A795" t="s">
         <v>1494</v>
       </c>
@@ -15786,7 +15786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="796" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A796" t="s">
         <v>1495</v>
       </c>
@@ -15800,7 +15800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="797" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A797" t="s">
         <v>1497</v>
       </c>
@@ -15814,7 +15814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="798" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A798" t="s">
         <v>1499</v>
       </c>
@@ -15825,7 +15825,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="799" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A799" t="s">
         <v>1501</v>
       </c>
@@ -15836,7 +15836,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="800" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A800" t="s">
         <v>1503</v>
       </c>
@@ -15847,7 +15847,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="801" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A801" t="s">
         <v>1504</v>
       </c>
@@ -15858,7 +15858,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="802" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A802" t="s">
         <v>1505</v>
       </c>
@@ -15869,7 +15869,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="803" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A803" t="s">
         <v>1506</v>
       </c>
@@ -15880,7 +15880,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="804" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A804" t="s">
         <v>1507</v>
       </c>
@@ -15891,7 +15891,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="805" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A805" t="s">
         <v>1508</v>
       </c>
@@ -15902,7 +15902,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="806" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A806" t="s">
         <v>1509</v>
       </c>
@@ -15913,7 +15913,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="807" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A807" t="s">
         <v>1511</v>
       </c>
@@ -15924,7 +15924,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="808" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A808" t="s">
         <v>1512</v>
       </c>
@@ -15935,7 +15935,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="809" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A809" t="s">
         <v>1513</v>
       </c>
@@ -15946,7 +15946,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="810" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A810" t="s">
         <v>1515</v>
       </c>
@@ -15957,7 +15957,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="811" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A811" t="s">
         <v>1516</v>
       </c>
@@ -15968,7 +15968,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="812" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A812" t="s">
         <v>1518</v>
       </c>
@@ -15979,7 +15979,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="813" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A813" t="s">
         <v>1520</v>
       </c>

--- a/data/tables/main.xlsx
+++ b/data/tables/main.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jgcha\Desktop\Python\Códigos\TsakonianDB\data\tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://havas-my.sharepoint.com/personal/jaime_garcia_globalservs_com/Documents/Desktop/Proyectos/Personal/TsakonianDB/data/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C0018B-C507-426C-A535-480500FA6886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="187" documentId="13_ncr:1_{20C0018B-C507-426C-A535-480500FA6886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AACA6B57-72C6-4EAE-BA74-560DA2941640}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2340" uniqueCount="1523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2493" uniqueCount="1613">
   <si>
     <t>tsakonian</t>
   </si>
@@ -4589,6 +4589,276 @@
   </si>
   <si>
     <t>A6</t>
+  </si>
+  <si>
+    <t>προσεχκικά</t>
+  </si>
+  <si>
+    <t>προσεκτικά</t>
+  </si>
+  <si>
+    <t>μέρη</t>
+  </si>
+  <si>
+    <t>μέρος</t>
+  </si>
+  <si>
+    <t>όπ̇ου</t>
+  </si>
+  <si>
+    <t>όπως</t>
+  </si>
+  <si>
+    <t>μπομπαρδισμό</t>
+  </si>
+  <si>
+    <t>βομβαρδισμός</t>
+  </si>
+  <si>
+    <t>γούρνα</t>
+  </si>
+  <si>
+    <t>γούβα</t>
+  </si>
+  <si>
+    <t>αίμα</t>
+  </si>
+  <si>
+    <t>ερυθρέ</t>
+  </si>
+  <si>
+    <t>ερυθρός</t>
+  </si>
+  <si>
+    <t>σταυρέ</t>
+  </si>
+  <si>
+    <t>σταυρός</t>
+  </si>
+  <si>
+    <t>τσιουφά</t>
+  </si>
+  <si>
+    <t>γλυτούκ̇ου</t>
+  </si>
+  <si>
+    <t>γλυτώνω</t>
+  </si>
+  <si>
+    <t>σκοτούνου</t>
+  </si>
+  <si>
+    <t>σκοτώνω</t>
+  </si>
+  <si>
+    <t>κειράζου</t>
+  </si>
+  <si>
+    <t>παναϊθούρι</t>
+  </si>
+  <si>
+    <t>λεφτερία</t>
+  </si>
+  <si>
+    <t>ελευθερία</t>
+  </si>
+  <si>
+    <t>υγεία</t>
+  </si>
+  <si>
+    <t>κορμοστασία</t>
+  </si>
+  <si>
+    <t>κορμοστασιά</t>
+  </si>
+  <si>
+    <t>κατσαφάρα</t>
+  </si>
+  <si>
+    <t>ομίχλη</t>
+  </si>
+  <si>
+    <t>λεβεκγία</t>
+  </si>
+  <si>
+    <t>λεβεντιά</t>
+  </si>
+  <si>
+    <t>χλιφτέ</t>
+  </si>
+  <si>
+    <t>χλιμένος</t>
+  </si>
+  <si>
+    <t>ουρανέ</t>
+  </si>
+  <si>
+    <t>ουρανός</t>
+  </si>
+  <si>
+    <t>σύγνεφο</t>
+  </si>
+  <si>
+    <t>σύγνέφο</t>
+  </si>
+  <si>
+    <t>δακρύζου</t>
+  </si>
+  <si>
+    <t>δακρύζω</t>
+  </si>
+  <si>
+    <t>δάκρυ</t>
+  </si>
+  <si>
+    <t>κέντρο</t>
+  </si>
+  <si>
+    <t>τσέντρη</t>
+  </si>
+  <si>
+    <t>ταβέρνα</t>
+  </si>
+  <si>
+    <t>παντοπωλείο</t>
+  </si>
+  <si>
+    <t>γκάνα</t>
+  </si>
+  <si>
+    <t>κάνα</t>
+  </si>
+  <si>
+    <t>τσιγάρο</t>
+  </si>
+  <si>
+    <t>ρέγκα</t>
+  </si>
+  <si>
+    <t>ρέγγα</t>
+  </si>
+  <si>
+    <t>καννιά</t>
+  </si>
+  <si>
+    <t>καμιά</t>
+  </si>
+  <si>
+    <t>σαρδέλα</t>
+  </si>
+  <si>
+    <t>σαρδέα</t>
+  </si>
+  <si>
+    <t>κιλέ</t>
+  </si>
+  <si>
+    <t>κιλό</t>
+  </si>
+  <si>
+    <t>ρύζι</t>
+  </si>
+  <si>
+    <t>γυαλί</t>
+  </si>
+  <si>
+    <t>μπουκάλι</t>
+  </si>
+  <si>
+    <t>βότσι</t>
+  </si>
+  <si>
+    <t>σπίρτα</t>
+  </si>
+  <si>
+    <t>αφεγκικό</t>
+  </si>
+  <si>
+    <t>αφεντικό</t>
+  </si>
+  <si>
+    <t>ντόμπρε</t>
+  </si>
+  <si>
+    <t>ντόμπρος</t>
+  </si>
+  <si>
+    <t>ίσιε</t>
+  </si>
+  <si>
+    <t>ευθύς</t>
+  </si>
+  <si>
+    <t>γιούρε</t>
+  </si>
+  <si>
+    <t>γύρω</t>
+  </si>
+  <si>
+    <t>συνομίλικο</t>
+  </si>
+  <si>
+    <t>συνομήλικος</t>
+  </si>
+  <si>
+    <t>ηλικία</t>
+  </si>
+  <si>
+    <t>ογή</t>
+  </si>
+  <si>
+    <t>τυροκομείε</t>
+  </si>
+  <si>
+    <t>τυροκομείο</t>
+  </si>
+  <si>
+    <t>τόπο</t>
+  </si>
+  <si>
+    <t>τόπος</t>
+  </si>
+  <si>
+    <t>κάποτε</t>
+  </si>
+  <si>
+    <t>γλέγκι</t>
+  </si>
+  <si>
+    <t>γλέντι</t>
+  </si>
+  <si>
+    <t>μετά</t>
+  </si>
+  <si>
+    <t>πάρα</t>
+  </si>
+  <si>
+    <t>τραγούϊδι</t>
+  </si>
+  <si>
+    <t>κόσμο</t>
+  </si>
+  <si>
+    <t>κόσμος</t>
+  </si>
+  <si>
+    <t>αλλά</t>
+  </si>
+  <si>
+    <t>ύστερα</t>
+  </si>
+  <si>
+    <t>μοναστσήρι</t>
+  </si>
+  <si>
+    <t>μοναστήρι</t>
+  </si>
+  <si>
+    <t>πλέον</t>
+  </si>
+  <si>
+    <t>μόνιου</t>
   </si>
 </sst>
 </file>
@@ -4951,15 +5221,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D813"/>
+  <dimension ref="A1:D873"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A682" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C696" sqref="C696"/>
+    <sheetView tabSelected="1" topLeftCell="A853" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A874" sqref="A874"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4973,7 +5243,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -4987,7 +5257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -4998,7 +5268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -5009,7 +5279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -5023,7 +5293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -5037,7 +5307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -5051,7 +5321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -5065,7 +5335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -5079,7 +5349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -5090,7 +5360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -5101,7 +5371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -5115,7 +5385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -5129,7 +5399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -5143,7 +5413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>38</v>
       </c>
@@ -5157,7 +5427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>40</v>
       </c>
@@ -5171,7 +5441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>43</v>
       </c>
@@ -5185,7 +5455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>45</v>
       </c>
@@ -5199,7 +5469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>47</v>
       </c>
@@ -5213,7 +5483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>50</v>
       </c>
@@ -5227,7 +5497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>52</v>
       </c>
@@ -5241,7 +5511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>55</v>
       </c>
@@ -5255,7 +5525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>57</v>
       </c>
@@ -5269,7 +5539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>59</v>
       </c>
@@ -5283,7 +5553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>61</v>
       </c>
@@ -5297,7 +5567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>63</v>
       </c>
@@ -5311,7 +5581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>66</v>
       </c>
@@ -5325,7 +5595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>69</v>
       </c>
@@ -5339,7 +5609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>71</v>
       </c>
@@ -5353,7 +5623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>74</v>
       </c>
@@ -5367,7 +5637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>76</v>
       </c>
@@ -5381,7 +5651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>78</v>
       </c>
@@ -5392,7 +5662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>80</v>
       </c>
@@ -5406,7 +5676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>82</v>
       </c>
@@ -5417,7 +5687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>84</v>
       </c>
@@ -5428,7 +5698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>86</v>
       </c>
@@ -5442,7 +5712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>88</v>
       </c>
@@ -5456,7 +5726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>91</v>
       </c>
@@ -5470,7 +5740,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>93</v>
       </c>
@@ -5484,7 +5754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>95</v>
       </c>
@@ -5495,7 +5765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>97</v>
       </c>
@@ -5509,7 +5779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>99</v>
       </c>
@@ -5520,7 +5790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>101</v>
       </c>
@@ -5534,7 +5804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>103</v>
       </c>
@@ -5548,7 +5818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>105</v>
       </c>
@@ -5562,7 +5832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>107</v>
       </c>
@@ -5576,7 +5846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>109</v>
       </c>
@@ -5590,7 +5860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>111</v>
       </c>
@@ -5604,7 +5874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>113</v>
       </c>
@@ -5618,7 +5888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>115</v>
       </c>
@@ -5629,7 +5899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>117</v>
       </c>
@@ -5643,7 +5913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>119</v>
       </c>
@@ -5657,7 +5927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>121</v>
       </c>
@@ -5668,7 +5938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>122</v>
       </c>
@@ -5682,7 +5952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>124</v>
       </c>
@@ -5693,7 +5963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>126</v>
       </c>
@@ -5707,7 +5977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>128</v>
       </c>
@@ -5721,7 +5991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>130</v>
       </c>
@@ -5735,7 +6005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>132</v>
       </c>
@@ -5749,7 +6019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>134</v>
       </c>
@@ -5763,7 +6033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>136</v>
       </c>
@@ -5777,7 +6047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>138</v>
       </c>
@@ -5791,7 +6061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>140</v>
       </c>
@@ -5805,7 +6075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>142</v>
       </c>
@@ -5819,7 +6089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>144</v>
       </c>
@@ -5833,7 +6103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>146</v>
       </c>
@@ -5847,7 +6117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>148</v>
       </c>
@@ -5861,7 +6131,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>150</v>
       </c>
@@ -5875,7 +6145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>152</v>
       </c>
@@ -5889,7 +6159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>154</v>
       </c>
@@ -5903,7 +6173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>156</v>
       </c>
@@ -5914,7 +6184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>158</v>
       </c>
@@ -5928,7 +6198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>159</v>
       </c>
@@ -5942,7 +6212,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>161</v>
       </c>
@@ -5956,7 +6226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>163</v>
       </c>
@@ -5970,7 +6240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>166</v>
       </c>
@@ -5984,7 +6254,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>168</v>
       </c>
@@ -5998,7 +6268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>170</v>
       </c>
@@ -6009,7 +6279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>172</v>
       </c>
@@ -6023,7 +6293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>174</v>
       </c>
@@ -6037,7 +6307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>176</v>
       </c>
@@ -6051,7 +6321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>178</v>
       </c>
@@ -6065,7 +6335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>181</v>
       </c>
@@ -6079,7 +6349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>183</v>
       </c>
@@ -6093,7 +6363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>185</v>
       </c>
@@ -6107,7 +6377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>186</v>
       </c>
@@ -6121,7 +6391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>188</v>
       </c>
@@ -6132,7 +6402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>190</v>
       </c>
@@ -6146,7 +6416,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>192</v>
       </c>
@@ -6160,7 +6430,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>194</v>
       </c>
@@ -6174,7 +6444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>196</v>
       </c>
@@ -6188,7 +6458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>198</v>
       </c>
@@ -6202,7 +6472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>200</v>
       </c>
@@ -6216,7 +6486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>202</v>
       </c>
@@ -6230,7 +6500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>204</v>
       </c>
@@ -6244,7 +6514,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>206</v>
       </c>
@@ -6258,7 +6528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>208</v>
       </c>
@@ -6272,7 +6542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>210</v>
       </c>
@@ -6286,7 +6556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>212</v>
       </c>
@@ -6300,7 +6570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>213</v>
       </c>
@@ -6314,7 +6584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>215</v>
       </c>
@@ -6328,7 +6598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>217</v>
       </c>
@@ -6342,7 +6612,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>219</v>
       </c>
@@ -6356,7 +6626,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>221</v>
       </c>
@@ -6370,7 +6640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>223</v>
       </c>
@@ -6384,7 +6654,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>225</v>
       </c>
@@ -6398,7 +6668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>227</v>
       </c>
@@ -6412,7 +6682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>229</v>
       </c>
@@ -6426,7 +6696,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>231</v>
       </c>
@@ -6440,7 +6710,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>233</v>
       </c>
@@ -6454,7 +6724,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>235</v>
       </c>
@@ -6468,7 +6738,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>237</v>
       </c>
@@ -6482,7 +6752,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>239</v>
       </c>
@@ -6493,7 +6763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>241</v>
       </c>
@@ -6507,7 +6777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>243</v>
       </c>
@@ -6518,7 +6788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>244</v>
       </c>
@@ -6529,7 +6799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>246</v>
       </c>
@@ -6543,7 +6813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>248</v>
       </c>
@@ -6557,7 +6827,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>250</v>
       </c>
@@ -6571,7 +6841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>252</v>
       </c>
@@ -6585,7 +6855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>254</v>
       </c>
@@ -6599,7 +6869,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>256</v>
       </c>
@@ -6613,7 +6883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>258</v>
       </c>
@@ -6627,7 +6897,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>260</v>
       </c>
@@ -6638,7 +6908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>262</v>
       </c>
@@ -6652,7 +6922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>264</v>
       </c>
@@ -6666,7 +6936,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>266</v>
       </c>
@@ -6677,7 +6947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>267</v>
       </c>
@@ -6691,7 +6961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>269</v>
       </c>
@@ -6705,7 +6975,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>271</v>
       </c>
@@ -6719,7 +6989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>273</v>
       </c>
@@ -6733,7 +7003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>275</v>
       </c>
@@ -6747,7 +7017,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>277</v>
       </c>
@@ -6761,7 +7031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>279</v>
       </c>
@@ -6775,7 +7045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>280</v>
       </c>
@@ -6789,7 +7059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>283</v>
       </c>
@@ -6803,7 +7073,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>285</v>
       </c>
@@ -6817,7 +7087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>287</v>
       </c>
@@ -6831,7 +7101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>289</v>
       </c>
@@ -6845,7 +7115,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>291</v>
       </c>
@@ -6859,7 +7129,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>292</v>
       </c>
@@ -6873,7 +7143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>295</v>
       </c>
@@ -6887,7 +7157,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>297</v>
       </c>
@@ -6901,7 +7171,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>299</v>
       </c>
@@ -6915,7 +7185,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>300</v>
       </c>
@@ -6929,7 +7199,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>302</v>
       </c>
@@ -6943,7 +7213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>304</v>
       </c>
@@ -6957,7 +7227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>306</v>
       </c>
@@ -6971,7 +7241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>308</v>
       </c>
@@ -6982,7 +7252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>310</v>
       </c>
@@ -6996,7 +7266,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>312</v>
       </c>
@@ -7010,7 +7280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>314</v>
       </c>
@@ -7024,7 +7294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>316</v>
       </c>
@@ -7038,7 +7308,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>318</v>
       </c>
@@ -7052,7 +7322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>319</v>
       </c>
@@ -7063,7 +7333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>320</v>
       </c>
@@ -7077,7 +7347,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>322</v>
       </c>
@@ -7091,7 +7361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>325</v>
       </c>
@@ -7105,7 +7375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>327</v>
       </c>
@@ -7119,7 +7389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>328</v>
       </c>
@@ -7133,7 +7403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>330</v>
       </c>
@@ -7147,7 +7417,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>332</v>
       </c>
@@ -7161,7 +7431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>334</v>
       </c>
@@ -7175,7 +7445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>336</v>
       </c>
@@ -7189,7 +7459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>338</v>
       </c>
@@ -7203,7 +7473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>340</v>
       </c>
@@ -7217,7 +7487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>342</v>
       </c>
@@ -7231,7 +7501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>344</v>
       </c>
@@ -7245,7 +7515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>344</v>
       </c>
@@ -7259,7 +7529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>348</v>
       </c>
@@ -7273,7 +7543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>350</v>
       </c>
@@ -7287,7 +7557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>351</v>
       </c>
@@ -7301,7 +7571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>353</v>
       </c>
@@ -7312,7 +7582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>355</v>
       </c>
@@ -7323,7 +7593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>357</v>
       </c>
@@ -7334,7 +7604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>359</v>
       </c>
@@ -7348,7 +7618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>361</v>
       </c>
@@ -7362,7 +7632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>364</v>
       </c>
@@ -7376,7 +7646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>366</v>
       </c>
@@ -7390,7 +7660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>367</v>
       </c>
@@ -7401,7 +7671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>368</v>
       </c>
@@ -7415,7 +7685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>370</v>
       </c>
@@ -7429,7 +7699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>372</v>
       </c>
@@ -7443,7 +7713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>373</v>
       </c>
@@ -7457,7 +7727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>375</v>
       </c>
@@ -7471,7 +7741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>377</v>
       </c>
@@ -7485,7 +7755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>379</v>
       </c>
@@ -7499,7 +7769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>381</v>
       </c>
@@ -7510,7 +7780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>383</v>
       </c>
@@ -7524,7 +7794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>385</v>
       </c>
@@ -7535,7 +7805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>386</v>
       </c>
@@ -7549,7 +7819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>388</v>
       </c>
@@ -7563,7 +7833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>390</v>
       </c>
@@ -7577,7 +7847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>392</v>
       </c>
@@ -7591,7 +7861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>394</v>
       </c>
@@ -7605,7 +7875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>396</v>
       </c>
@@ -7616,7 +7886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>398</v>
       </c>
@@ -7630,7 +7900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>400</v>
       </c>
@@ -7644,7 +7914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>402</v>
       </c>
@@ -7658,7 +7928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>404</v>
       </c>
@@ -7672,7 +7942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>406</v>
       </c>
@@ -7686,7 +7956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>408</v>
       </c>
@@ -7700,7 +7970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>410</v>
       </c>
@@ -7714,7 +7984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>412</v>
       </c>
@@ -7728,7 +7998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>414</v>
       </c>
@@ -7742,7 +8012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>416</v>
       </c>
@@ -7756,7 +8026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>417</v>
       </c>
@@ -7770,7 +8040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>419</v>
       </c>
@@ -7784,7 +8054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>421</v>
       </c>
@@ -7798,7 +8068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>423</v>
       </c>
@@ -7812,7 +8082,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>425</v>
       </c>
@@ -7826,7 +8096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>426</v>
       </c>
@@ -7840,7 +8110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>428</v>
       </c>
@@ -7854,7 +8124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>430</v>
       </c>
@@ -7865,7 +8135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>432</v>
       </c>
@@ -7879,7 +8149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>434</v>
       </c>
@@ -7893,7 +8163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>436</v>
       </c>
@@ -7907,7 +8177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>438</v>
       </c>
@@ -7921,7 +8191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>440</v>
       </c>
@@ -7935,7 +8205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>442</v>
       </c>
@@ -7949,7 +8219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>444</v>
       </c>
@@ -7963,7 +8233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>446</v>
       </c>
@@ -7974,7 +8244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>448</v>
       </c>
@@ -7988,7 +8258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>449</v>
       </c>
@@ -8002,7 +8272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>451</v>
       </c>
@@ -8016,7 +8286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>453</v>
       </c>
@@ -8027,7 +8297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>455</v>
       </c>
@@ -8041,7 +8311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>457</v>
       </c>
@@ -8052,7 +8322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>459</v>
       </c>
@@ -8066,7 +8336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>461</v>
       </c>
@@ -8080,7 +8350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>463</v>
       </c>
@@ -8094,7 +8364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>465</v>
       </c>
@@ -8108,7 +8378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>466</v>
       </c>
@@ -8122,7 +8392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>467</v>
       </c>
@@ -8136,7 +8406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>469</v>
       </c>
@@ -8150,7 +8420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>471</v>
       </c>
@@ -8164,7 +8434,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>473</v>
       </c>
@@ -8178,7 +8448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>475</v>
       </c>
@@ -8192,7 +8462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>476</v>
       </c>
@@ -8206,7 +8476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>478</v>
       </c>
@@ -8217,7 +8487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>479</v>
       </c>
@@ -8231,7 +8501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>481</v>
       </c>
@@ -8245,7 +8515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>483</v>
       </c>
@@ -8259,7 +8529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>485</v>
       </c>
@@ -8273,7 +8543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>487</v>
       </c>
@@ -8287,7 +8557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>488</v>
       </c>
@@ -8301,7 +8571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>490</v>
       </c>
@@ -8312,7 +8582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>492</v>
       </c>
@@ -8326,7 +8596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>494</v>
       </c>
@@ -8340,7 +8610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>495</v>
       </c>
@@ -8351,7 +8621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>497</v>
       </c>
@@ -8365,7 +8635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>499</v>
       </c>
@@ -8376,7 +8646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>501</v>
       </c>
@@ -8390,7 +8660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>503</v>
       </c>
@@ -8404,7 +8674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>505</v>
       </c>
@@ -8415,7 +8685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>507</v>
       </c>
@@ -8429,7 +8699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>509</v>
       </c>
@@ -8440,7 +8710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>511</v>
       </c>
@@ -8454,7 +8724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>513</v>
       </c>
@@ -8468,7 +8738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>515</v>
       </c>
@@ -8482,7 +8752,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>516</v>
       </c>
@@ -8496,7 +8766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>518</v>
       </c>
@@ -8510,7 +8780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>519</v>
       </c>
@@ -8524,7 +8794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>521</v>
       </c>
@@ -8538,7 +8808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>523</v>
       </c>
@@ -8552,7 +8822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>525</v>
       </c>
@@ -8566,7 +8836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>527</v>
       </c>
@@ -8580,7 +8850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>529</v>
       </c>
@@ -8591,7 +8861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>531</v>
       </c>
@@ -8605,7 +8875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>533</v>
       </c>
@@ -8619,7 +8889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>535</v>
       </c>
@@ -8633,7 +8903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>537</v>
       </c>
@@ -8647,7 +8917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>539</v>
       </c>
@@ -8661,7 +8931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>540</v>
       </c>
@@ -8675,7 +8945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>542</v>
       </c>
@@ -8689,7 +8959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>543</v>
       </c>
@@ -8703,7 +8973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>545</v>
       </c>
@@ -8717,7 +8987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>547</v>
       </c>
@@ -8728,7 +8998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>548</v>
       </c>
@@ -8742,7 +9012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>550</v>
       </c>
@@ -8756,7 +9026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>552</v>
       </c>
@@ -8770,7 +9040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>554</v>
       </c>
@@ -8784,7 +9054,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>555</v>
       </c>
@@ -8798,7 +9068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>557</v>
       </c>
@@ -8812,7 +9082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>559</v>
       </c>
@@ -8826,7 +9096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>561</v>
       </c>
@@ -8840,7 +9110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>562</v>
       </c>
@@ -8854,7 +9124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>564</v>
       </c>
@@ -8868,7 +9138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>566</v>
       </c>
@@ -8882,7 +9152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>568</v>
       </c>
@@ -8896,7 +9166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>570</v>
       </c>
@@ -8910,7 +9180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>572</v>
       </c>
@@ -8924,7 +9194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>575</v>
       </c>
@@ -8938,7 +9208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>577</v>
       </c>
@@ -8952,7 +9222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>579</v>
       </c>
@@ -8966,7 +9236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>581</v>
       </c>
@@ -8980,7 +9250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>583</v>
       </c>
@@ -8994,7 +9264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>585</v>
       </c>
@@ -9008,7 +9278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>587</v>
       </c>
@@ -9022,7 +9292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>588</v>
       </c>
@@ -9036,7 +9306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>591</v>
       </c>
@@ -9050,7 +9320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>593</v>
       </c>
@@ -9064,7 +9334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>595</v>
       </c>
@@ -9075,7 +9345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>597</v>
       </c>
@@ -9086,7 +9356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>598</v>
       </c>
@@ -9100,7 +9370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>600</v>
       </c>
@@ -9114,7 +9384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>602</v>
       </c>
@@ -9128,7 +9398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>604</v>
       </c>
@@ -9142,7 +9412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>606</v>
       </c>
@@ -9156,7 +9426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>608</v>
       </c>
@@ -9170,7 +9440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>610</v>
       </c>
@@ -9184,7 +9454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>612</v>
       </c>
@@ -9198,7 +9468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>614</v>
       </c>
@@ -9212,7 +9482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>616</v>
       </c>
@@ -9226,7 +9496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>618</v>
       </c>
@@ -9240,7 +9510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>619</v>
       </c>
@@ -9254,7 +9524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>621</v>
       </c>
@@ -9268,7 +9538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>623</v>
       </c>
@@ -9282,7 +9552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>625</v>
       </c>
@@ -9293,7 +9563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>627</v>
       </c>
@@ -9307,7 +9577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>629</v>
       </c>
@@ -9321,7 +9591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>631</v>
       </c>
@@ -9335,7 +9605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>633</v>
       </c>
@@ -9349,7 +9619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>635</v>
       </c>
@@ -9363,7 +9633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>637</v>
       </c>
@@ -9377,7 +9647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>639</v>
       </c>
@@ -9391,7 +9661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>641</v>
       </c>
@@ -9405,7 +9675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>642</v>
       </c>
@@ -9419,7 +9689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>644</v>
       </c>
@@ -9433,7 +9703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>646</v>
       </c>
@@ -9447,7 +9717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>648</v>
       </c>
@@ -9461,7 +9731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>650</v>
       </c>
@@ -9475,7 +9745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>652</v>
       </c>
@@ -9489,7 +9759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>654</v>
       </c>
@@ -9503,7 +9773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>656</v>
       </c>
@@ -9517,7 +9787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>658</v>
       </c>
@@ -9531,7 +9801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>660</v>
       </c>
@@ -9545,7 +9815,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>661</v>
       </c>
@@ -9559,7 +9829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>663</v>
       </c>
@@ -9573,7 +9843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>665</v>
       </c>
@@ -9584,7 +9854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>665</v>
       </c>
@@ -9598,7 +9868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>668</v>
       </c>
@@ -9612,7 +9882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>670</v>
       </c>
@@ -9626,7 +9896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>672</v>
       </c>
@@ -9640,7 +9910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>674</v>
       </c>
@@ -9654,7 +9924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>676</v>
       </c>
@@ -9668,7 +9938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>678</v>
       </c>
@@ -9682,7 +9952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>680</v>
       </c>
@@ -9696,7 +9966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>681</v>
       </c>
@@ -9710,7 +9980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>683</v>
       </c>
@@ -9724,7 +9994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>685</v>
       </c>
@@ -9738,7 +10008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>687</v>
       </c>
@@ -9752,7 +10022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>689</v>
       </c>
@@ -9766,7 +10036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>691</v>
       </c>
@@ -9780,7 +10050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>693</v>
       </c>
@@ -9794,7 +10064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>695</v>
       </c>
@@ -9808,7 +10078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>697</v>
       </c>
@@ -9822,7 +10092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>187</v>
       </c>
@@ -9833,7 +10103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>699</v>
       </c>
@@ -9847,7 +10117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>701</v>
       </c>
@@ -9858,7 +10128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>703</v>
       </c>
@@ -9872,7 +10142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>705</v>
       </c>
@@ -9883,7 +10153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>707</v>
       </c>
@@ -9897,7 +10167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>709</v>
       </c>
@@ -9911,7 +10181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>711</v>
       </c>
@@ -9925,7 +10195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>713</v>
       </c>
@@ -9939,7 +10209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>715</v>
       </c>
@@ -9953,7 +10223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>717</v>
       </c>
@@ -9967,7 +10237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>719</v>
       </c>
@@ -9981,7 +10251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>721</v>
       </c>
@@ -9992,7 +10262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>723</v>
       </c>
@@ -10006,7 +10276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>725</v>
       </c>
@@ -10020,7 +10290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>727</v>
       </c>
@@ -10034,7 +10304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>729</v>
       </c>
@@ -10048,7 +10318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>732</v>
       </c>
@@ -10062,7 +10332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>733</v>
       </c>
@@ -10076,7 +10346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>735</v>
       </c>
@@ -10090,7 +10360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>737</v>
       </c>
@@ -10104,7 +10374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>739</v>
       </c>
@@ -10118,7 +10388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>741</v>
       </c>
@@ -10132,7 +10402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>743</v>
       </c>
@@ -10146,7 +10416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>745</v>
       </c>
@@ -10160,7 +10430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>747</v>
       </c>
@@ -10174,7 +10444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>749</v>
       </c>
@@ -10188,7 +10458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>751</v>
       </c>
@@ -10202,7 +10472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>753</v>
       </c>
@@ -10216,7 +10486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>756</v>
       </c>
@@ -10230,7 +10500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>757</v>
       </c>
@@ -10241,7 +10511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>759</v>
       </c>
@@ -10255,7 +10525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>760</v>
       </c>
@@ -10269,7 +10539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>762</v>
       </c>
@@ -10283,7 +10553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>764</v>
       </c>
@@ -10297,7 +10567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>766</v>
       </c>
@@ -10311,7 +10581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>768</v>
       </c>
@@ -10325,7 +10595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>770</v>
       </c>
@@ -10339,7 +10609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>771</v>
       </c>
@@ -10353,7 +10623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>773</v>
       </c>
@@ -10364,7 +10634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>775</v>
       </c>
@@ -10378,7 +10648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>777</v>
       </c>
@@ -10392,7 +10662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>779</v>
       </c>
@@ -10406,7 +10676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>780</v>
       </c>
@@ -10420,7 +10690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>782</v>
       </c>
@@ -10434,7 +10704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>784</v>
       </c>
@@ -10448,7 +10718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>785</v>
       </c>
@@ -10462,7 +10732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>787</v>
       </c>
@@ -10476,7 +10746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>788</v>
       </c>
@@ -10490,7 +10760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>790</v>
       </c>
@@ -10504,7 +10774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>792</v>
       </c>
@@ -10518,7 +10788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>793</v>
       </c>
@@ -10532,7 +10802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>795</v>
       </c>
@@ -10546,7 +10816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>796</v>
       </c>
@@ -10560,7 +10830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>798</v>
       </c>
@@ -10574,7 +10844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>800</v>
       </c>
@@ -10585,7 +10855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>802</v>
       </c>
@@ -10596,7 +10866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>804</v>
       </c>
@@ -10610,7 +10880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>806</v>
       </c>
@@ -10624,7 +10894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>807</v>
       </c>
@@ -10638,7 +10908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>809</v>
       </c>
@@ -10649,7 +10919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>811</v>
       </c>
@@ -10660,7 +10930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>813</v>
       </c>
@@ -10674,7 +10944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>816</v>
       </c>
@@ -10688,7 +10958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>818</v>
       </c>
@@ -10702,7 +10972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>98</v>
       </c>
@@ -10713,7 +10983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>819</v>
       </c>
@@ -10727,7 +10997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>820</v>
       </c>
@@ -10741,7 +11011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>822</v>
       </c>
@@ -10755,7 +11025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>824</v>
       </c>
@@ -10766,7 +11036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>826</v>
       </c>
@@ -10780,7 +11050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>829</v>
       </c>
@@ -10794,7 +11064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>830</v>
       </c>
@@ -10808,7 +11078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>831</v>
       </c>
@@ -10822,7 +11092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>832</v>
       </c>
@@ -10836,7 +11106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>833</v>
       </c>
@@ -10850,7 +11120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>835</v>
       </c>
@@ -10864,7 +11134,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>837</v>
       </c>
@@ -10878,7 +11148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>839</v>
       </c>
@@ -10889,7 +11159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>841</v>
       </c>
@@ -10900,7 +11170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>842</v>
       </c>
@@ -10914,7 +11184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>843</v>
       </c>
@@ -10928,7 +11198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>845</v>
       </c>
@@ -10942,7 +11212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>848</v>
       </c>
@@ -10956,7 +11226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>850</v>
       </c>
@@ -10970,7 +11240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>851</v>
       </c>
@@ -10984,7 +11254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>852</v>
       </c>
@@ -10998,7 +11268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>854</v>
       </c>
@@ -11012,7 +11282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>856</v>
       </c>
@@ -11026,7 +11296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>858</v>
       </c>
@@ -11037,7 +11307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>859</v>
       </c>
@@ -11048,7 +11318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>860</v>
       </c>
@@ -11062,7 +11332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>862</v>
       </c>
@@ -11076,7 +11346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>864</v>
       </c>
@@ -11087,7 +11357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>866</v>
       </c>
@@ -11101,7 +11371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>868</v>
       </c>
@@ -11115,7 +11385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>870</v>
       </c>
@@ -11129,7 +11399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>872</v>
       </c>
@@ -11143,7 +11413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
         <v>874</v>
       </c>
@@ -11157,7 +11427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>876</v>
       </c>
@@ -11171,7 +11441,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
         <v>878</v>
       </c>
@@ -11185,7 +11455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
         <v>880</v>
       </c>
@@ -11199,7 +11469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>882</v>
       </c>
@@ -11210,7 +11480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>884</v>
       </c>
@@ -11224,7 +11494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>886</v>
       </c>
@@ -11238,7 +11508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>888</v>
       </c>
@@ -11252,7 +11522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>890</v>
       </c>
@@ -11266,7 +11536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>892</v>
       </c>
@@ -11280,7 +11550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>894</v>
       </c>
@@ -11294,7 +11564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>895</v>
       </c>
@@ -11308,7 +11578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
         <v>897</v>
       </c>
@@ -11322,7 +11592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
         <v>899</v>
       </c>
@@ -11333,7 +11603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
         <v>900</v>
       </c>
@@ -11347,7 +11617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
         <v>901</v>
       </c>
@@ -11361,7 +11631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
         <v>903</v>
       </c>
@@ -11375,7 +11645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
         <v>905</v>
       </c>
@@ -11386,7 +11656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
         <v>906</v>
       </c>
@@ -11400,7 +11670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
         <v>908</v>
       </c>
@@ -11414,7 +11684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
         <v>910</v>
       </c>
@@ -11428,7 +11698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
         <v>912</v>
       </c>
@@ -11442,7 +11712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
         <v>27</v>
       </c>
@@ -11453,7 +11723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
         <v>914</v>
       </c>
@@ -11467,7 +11737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
         <v>915</v>
       </c>
@@ -11481,7 +11751,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
         <v>917</v>
       </c>
@@ -11495,7 +11765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
         <v>919</v>
       </c>
@@ -11509,7 +11779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
         <v>921</v>
       </c>
@@ -11523,7 +11793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
         <v>923</v>
       </c>
@@ -11534,7 +11804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
         <v>925</v>
       </c>
@@ -11548,7 +11818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
         <v>926</v>
       </c>
@@ -11562,7 +11832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
         <v>928</v>
       </c>
@@ -11576,7 +11846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
         <v>930</v>
       </c>
@@ -11590,7 +11860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
         <v>932</v>
       </c>
@@ -11604,7 +11874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
         <v>934</v>
       </c>
@@ -11618,7 +11888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
         <v>936</v>
       </c>
@@ -11632,7 +11902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
         <v>937</v>
       </c>
@@ -11646,7 +11916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
         <v>939</v>
       </c>
@@ -11660,7 +11930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="494" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
         <v>941</v>
       </c>
@@ -11674,7 +11944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="495" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
         <v>943</v>
       </c>
@@ -11688,7 +11958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="496" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
         <v>945</v>
       </c>
@@ -11702,7 +11972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="497" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
         <v>947</v>
       </c>
@@ -11716,7 +11986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="498" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
         <v>949</v>
       </c>
@@ -11727,7 +11997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="499" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
         <v>951</v>
       </c>
@@ -11741,7 +12011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="500" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
         <v>952</v>
       </c>
@@ -11755,7 +12025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="501" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
         <v>954</v>
       </c>
@@ -11769,7 +12039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="502" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
         <v>955</v>
       </c>
@@ -11783,7 +12053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="503" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
         <v>956</v>
       </c>
@@ -11797,7 +12067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="504" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
         <v>958</v>
       </c>
@@ -11811,7 +12081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="505" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
         <v>960</v>
       </c>
@@ -11825,7 +12095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="506" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
         <v>962</v>
       </c>
@@ -11839,7 +12109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="507" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
         <v>964</v>
       </c>
@@ -11853,7 +12123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="508" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
         <v>966</v>
       </c>
@@ -11864,7 +12134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="509" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
         <v>968</v>
       </c>
@@ -11878,7 +12148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="510" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
         <v>970</v>
       </c>
@@ -11889,7 +12159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="511" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
         <v>972</v>
       </c>
@@ -11903,7 +12173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="512" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
         <v>974</v>
       </c>
@@ -11917,7 +12187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="513" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
         <v>975</v>
       </c>
@@ -11931,7 +12201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="514" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
         <v>976</v>
       </c>
@@ -11945,7 +12215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="515" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
         <v>978</v>
       </c>
@@ -11959,7 +12229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="516" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
         <v>980</v>
       </c>
@@ -11973,7 +12243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="517" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
         <v>982</v>
       </c>
@@ -11987,7 +12257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="518" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
         <v>984</v>
       </c>
@@ -11998,7 +12268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="519" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
         <v>986</v>
       </c>
@@ -12012,7 +12282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="520" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
         <v>987</v>
       </c>
@@ -12026,7 +12296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="521" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
         <v>989</v>
       </c>
@@ -12040,7 +12310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="522" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
         <v>991</v>
       </c>
@@ -12054,7 +12324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="523" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
         <v>993</v>
       </c>
@@ -12065,7 +12335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="524" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
         <v>995</v>
       </c>
@@ -12076,7 +12346,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="525" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
         <v>997</v>
       </c>
@@ -12090,7 +12360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="526" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
         <v>998</v>
       </c>
@@ -12104,7 +12374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="527" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
         <v>1000</v>
       </c>
@@ -12118,7 +12388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="528" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
         <v>1002</v>
       </c>
@@ -12132,7 +12402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="529" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
         <v>1004</v>
       </c>
@@ -12146,7 +12416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="530" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
         <v>1006</v>
       </c>
@@ -12160,7 +12430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="531" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
         <v>1007</v>
       </c>
@@ -12174,7 +12444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="532" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
         <v>1009</v>
       </c>
@@ -12188,7 +12458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="533" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
         <v>1011</v>
       </c>
@@ -12199,7 +12469,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="534" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
         <v>1013</v>
       </c>
@@ -12213,7 +12483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="535" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
         <v>1015</v>
       </c>
@@ -12227,7 +12497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="536" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
         <v>1017</v>
       </c>
@@ -12241,7 +12511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="537" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
         <v>1019</v>
       </c>
@@ -12252,7 +12522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="538" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
         <v>1021</v>
       </c>
@@ -12263,7 +12533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="539" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
         <v>1023</v>
       </c>
@@ -12277,7 +12547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="540" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
         <v>1024</v>
       </c>
@@ -12291,7 +12561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="541" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
         <v>1026</v>
       </c>
@@ -12305,7 +12575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="542" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
         <v>1028</v>
       </c>
@@ -12319,7 +12589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="543" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
         <v>1029</v>
       </c>
@@ -12330,7 +12600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="544" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
         <v>1030</v>
       </c>
@@ -12344,7 +12614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="545" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
         <v>1032</v>
       </c>
@@ -12355,7 +12625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="546" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
         <v>1034</v>
       </c>
@@ -12369,7 +12639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="547" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
         <v>1035</v>
       </c>
@@ -12383,7 +12653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="548" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
         <v>1037</v>
       </c>
@@ -12397,7 +12667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="549" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
         <v>1039</v>
       </c>
@@ -12411,7 +12681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="550" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
         <v>1041</v>
       </c>
@@ -12425,7 +12695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="551" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
         <v>1043</v>
       </c>
@@ -12439,7 +12709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="552" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
         <v>1045</v>
       </c>
@@ -12453,7 +12723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="553" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
         <v>1047</v>
       </c>
@@ -12467,7 +12737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="554" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
         <v>1049</v>
       </c>
@@ -12481,7 +12751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="555" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A555" t="s">
         <v>1051</v>
       </c>
@@ -12495,7 +12765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="556" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
         <v>1053</v>
       </c>
@@ -12509,7 +12779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="557" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
         <v>1055</v>
       </c>
@@ -12523,7 +12793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="558" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A558" t="s">
         <v>1057</v>
       </c>
@@ -12537,7 +12807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="559" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
         <v>1058</v>
       </c>
@@ -12551,7 +12821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="560" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
         <v>1060</v>
       </c>
@@ -12565,7 +12835,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="561" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A561" t="s">
         <v>1062</v>
       </c>
@@ -12576,7 +12846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="562" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A562" t="s">
         <v>1064</v>
       </c>
@@ -12587,7 +12857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="563" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A563" t="s">
         <v>1066</v>
       </c>
@@ -12601,7 +12871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="564" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A564" t="s">
         <v>1068</v>
       </c>
@@ -12615,7 +12885,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="565" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A565" t="s">
         <v>1069</v>
       </c>
@@ -12629,7 +12899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="566" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A566" t="s">
         <v>1071</v>
       </c>
@@ -12643,7 +12913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="567" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A567" t="s">
         <v>1073</v>
       </c>
@@ -12657,7 +12927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="568" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A568" t="s">
         <v>1075</v>
       </c>
@@ -12671,7 +12941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="569" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A569" t="s">
         <v>1077</v>
       </c>
@@ -12685,7 +12955,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="570" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A570" t="s">
         <v>1079</v>
       </c>
@@ -12699,7 +12969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="571" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A571" t="s">
         <v>1081</v>
       </c>
@@ -12713,7 +12983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="572" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A572" t="s">
         <v>1083</v>
       </c>
@@ -12727,7 +12997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="573" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A573" t="s">
         <v>1085</v>
       </c>
@@ -12741,7 +13011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="574" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A574" t="s">
         <v>1087</v>
       </c>
@@ -12755,7 +13025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="575" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A575" t="s">
         <v>669</v>
       </c>
@@ -12769,7 +13039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="576" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A576" t="s">
         <v>1090</v>
       </c>
@@ -12780,7 +13050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="577" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A577" t="s">
         <v>1091</v>
       </c>
@@ -12794,7 +13064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="578" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
         <v>1093</v>
       </c>
@@ -12808,7 +13078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="579" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A579" t="s">
         <v>1095</v>
       </c>
@@ -12822,7 +13092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="580" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A580" t="s">
         <v>1097</v>
       </c>
@@ -12836,7 +13106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="581" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A581" t="s">
         <v>1099</v>
       </c>
@@ -12847,7 +13117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="582" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A582" t="s">
         <v>1100</v>
       </c>
@@ -12861,7 +13131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="583" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A583" t="s">
         <v>1102</v>
       </c>
@@ -12875,7 +13145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="584" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A584" t="s">
         <v>1104</v>
       </c>
@@ -12889,7 +13159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="585" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A585" t="s">
         <v>1106</v>
       </c>
@@ -12903,7 +13173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="586" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A586" t="s">
         <v>1108</v>
       </c>
@@ -12917,7 +13187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="587" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A587" t="s">
         <v>1109</v>
       </c>
@@ -12931,7 +13201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="588" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A588" t="s">
         <v>1111</v>
       </c>
@@ -12945,7 +13215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="589" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A589" t="s">
         <v>1112</v>
       </c>
@@ -12959,7 +13229,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="590" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A590" t="s">
         <v>1113</v>
       </c>
@@ -12973,7 +13243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="591" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A591" t="s">
         <v>1115</v>
       </c>
@@ -12987,7 +13257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="592" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A592" t="s">
         <v>1117</v>
       </c>
@@ -13001,7 +13271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="593" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A593" t="s">
         <v>1119</v>
       </c>
@@ -13015,7 +13285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="594" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A594" t="s">
         <v>1121</v>
       </c>
@@ -13026,7 +13296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="595" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A595" t="s">
         <v>1123</v>
       </c>
@@ -13040,7 +13310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="596" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A596" t="s">
         <v>1125</v>
       </c>
@@ -13054,7 +13324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="597" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A597" t="s">
         <v>1127</v>
       </c>
@@ -13068,7 +13338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="598" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A598" t="s">
         <v>1129</v>
       </c>
@@ -13082,7 +13352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="599" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A599" t="s">
         <v>1131</v>
       </c>
@@ -13096,7 +13366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="600" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A600" t="s">
         <v>1134</v>
       </c>
@@ -13110,7 +13380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="601" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A601" t="s">
         <v>1136</v>
       </c>
@@ -13124,7 +13394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="602" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A602" t="s">
         <v>1138</v>
       </c>
@@ -13138,7 +13408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="603" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A603" t="s">
         <v>1140</v>
       </c>
@@ -13149,7 +13419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="604" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A604" t="s">
         <v>1142</v>
       </c>
@@ -13163,7 +13433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="605" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A605" t="s">
         <v>1144</v>
       </c>
@@ -13177,7 +13447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="606" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A606" t="s">
         <v>1146</v>
       </c>
@@ -13191,7 +13461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="607" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A607" t="s">
         <v>1148</v>
       </c>
@@ -13205,7 +13475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="608" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A608" t="s">
         <v>1150</v>
       </c>
@@ -13219,7 +13489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="609" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A609" t="s">
         <v>1152</v>
       </c>
@@ -13233,7 +13503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="610" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A610" t="s">
         <v>1154</v>
       </c>
@@ -13244,7 +13514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="611" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A611" t="s">
         <v>1156</v>
       </c>
@@ -13258,7 +13528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="612" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A612" t="s">
         <v>1158</v>
       </c>
@@ -13272,7 +13542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="613" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A613" t="s">
         <v>1160</v>
       </c>
@@ -13286,7 +13556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="614" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A614" t="s">
         <v>1162</v>
       </c>
@@ -13300,7 +13570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="615" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A615" t="s">
         <v>1164</v>
       </c>
@@ -13314,7 +13584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="616" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A616" t="s">
         <v>1166</v>
       </c>
@@ -13328,7 +13598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="617" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A617" t="s">
         <v>1167</v>
       </c>
@@ -13342,7 +13612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="618" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A618" t="s">
         <v>1169</v>
       </c>
@@ -13356,7 +13626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="619" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A619" t="s">
         <v>1171</v>
       </c>
@@ -13370,7 +13640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="620" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A620" t="s">
         <v>1173</v>
       </c>
@@ -13384,7 +13654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="621" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A621" t="s">
         <v>1173</v>
       </c>
@@ -13395,7 +13665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="622" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A622" t="s">
         <v>1176</v>
       </c>
@@ -13406,7 +13676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="623" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A623" t="s">
         <v>1178</v>
       </c>
@@ -13420,7 +13690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="624" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A624" t="s">
         <v>1180</v>
       </c>
@@ -13434,7 +13704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="625" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A625" t="s">
         <v>1181</v>
       </c>
@@ -13448,7 +13718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="626" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A626" t="s">
         <v>1183</v>
       </c>
@@ -13462,7 +13732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="627" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A627" t="s">
         <v>1185</v>
       </c>
@@ -13473,7 +13743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="628" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A628" t="s">
         <v>1187</v>
       </c>
@@ -13487,7 +13757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="629" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A629" t="s">
         <v>1189</v>
       </c>
@@ -13501,7 +13771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="630" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A630" t="s">
         <v>1191</v>
       </c>
@@ -13515,7 +13785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="631" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A631" t="s">
         <v>1193</v>
       </c>
@@ -13529,7 +13799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="632" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A632" t="s">
         <v>1195</v>
       </c>
@@ -13543,7 +13813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="633" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A633" t="s">
         <v>1197</v>
       </c>
@@ -13557,7 +13827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="634" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A634" t="s">
         <v>1199</v>
       </c>
@@ -13571,7 +13841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="635" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A635" t="s">
         <v>1201</v>
       </c>
@@ -13585,7 +13855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="636" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A636" t="s">
         <v>1203</v>
       </c>
@@ -13599,7 +13869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="637" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A637" t="s">
         <v>1205</v>
       </c>
@@ -13613,7 +13883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="638" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A638" t="s">
         <v>1207</v>
       </c>
@@ -13627,7 +13897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="639" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A639" t="s">
         <v>1209</v>
       </c>
@@ -13641,7 +13911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="640" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A640" t="s">
         <v>1211</v>
       </c>
@@ -13655,7 +13925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="641" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A641" t="s">
         <v>1212</v>
       </c>
@@ -13669,7 +13939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="642" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A642" t="s">
         <v>1214</v>
       </c>
@@ -13683,7 +13953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="643" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A643" t="s">
         <v>1216</v>
       </c>
@@ -13697,7 +13967,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="644" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A644" t="s">
         <v>1217</v>
       </c>
@@ -13711,7 +13981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="645" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A645" t="s">
         <v>1219</v>
       </c>
@@ -13725,7 +13995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="646" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A646" t="s">
         <v>1220</v>
       </c>
@@ -13739,7 +14009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="647" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A647" t="s">
         <v>1221</v>
       </c>
@@ -13753,7 +14023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="648" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A648" t="s">
         <v>1222</v>
       </c>
@@ -13767,7 +14037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="649" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A649" t="s">
         <v>1224</v>
       </c>
@@ -13778,7 +14048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="650" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A650" t="s">
         <v>1226</v>
       </c>
@@ -13792,7 +14062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="651" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A651" t="s">
         <v>1228</v>
       </c>
@@ -13806,7 +14076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="652" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A652" t="s">
         <v>1230</v>
       </c>
@@ -13820,7 +14090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="653" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A653" t="s">
         <v>1232</v>
       </c>
@@ -13834,7 +14104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="654" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A654" t="s">
         <v>1234</v>
       </c>
@@ -13845,7 +14115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="655" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A655" t="s">
         <v>1235</v>
       </c>
@@ -13859,7 +14129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="656" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A656" t="s">
         <v>1237</v>
       </c>
@@ -13873,7 +14143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="657" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A657" t="s">
         <v>1238</v>
       </c>
@@ -13887,7 +14157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="658" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A658" t="s">
         <v>1240</v>
       </c>
@@ -13901,7 +14171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="659" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A659" t="s">
         <v>1242</v>
       </c>
@@ -13915,7 +14185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="660" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A660" t="s">
         <v>1244</v>
       </c>
@@ -13929,7 +14199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="661" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A661" t="s">
         <v>1246</v>
       </c>
@@ -13943,7 +14213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="662" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A662" t="s">
         <v>1248</v>
       </c>
@@ -13957,7 +14227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="663" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A663" t="s">
         <v>1250</v>
       </c>
@@ -13971,7 +14241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="664" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A664" t="s">
         <v>1252</v>
       </c>
@@ -13985,7 +14255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="665" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A665" t="s">
         <v>1254</v>
       </c>
@@ -13999,7 +14269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="666" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A666" t="s">
         <v>1256</v>
       </c>
@@ -14013,7 +14283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="667" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A667" t="s">
         <v>1258</v>
       </c>
@@ -14027,7 +14297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="668" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A668" t="s">
         <v>1260</v>
       </c>
@@ -14041,7 +14311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="669" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A669" t="s">
         <v>1262</v>
       </c>
@@ -14052,7 +14322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="670" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A670" t="s">
         <v>1264</v>
       </c>
@@ -14066,7 +14336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="671" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A671" t="s">
         <v>1266</v>
       </c>
@@ -14080,7 +14350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="672" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A672" t="s">
         <v>1268</v>
       </c>
@@ -14094,7 +14364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="673" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A673" t="s">
         <v>1270</v>
       </c>
@@ -14108,7 +14378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="674" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A674" t="s">
         <v>1271</v>
       </c>
@@ -14122,7 +14392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="675" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A675" t="s">
         <v>1272</v>
       </c>
@@ -14136,7 +14406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="676" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A676" t="s">
         <v>1273</v>
       </c>
@@ -14150,7 +14420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="677" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A677" t="s">
         <v>1275</v>
       </c>
@@ -14164,7 +14434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="678" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A678" t="s">
         <v>1276</v>
       </c>
@@ -14178,7 +14448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="679" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A679" t="s">
         <v>1278</v>
       </c>
@@ -14192,7 +14462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="680" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A680" t="s">
         <v>1280</v>
       </c>
@@ -14206,7 +14476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="681" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A681" t="s">
         <v>1282</v>
       </c>
@@ -14220,7 +14490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="682" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A682" t="s">
         <v>1283</v>
       </c>
@@ -14231,7 +14501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="683" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A683" t="s">
         <v>1284</v>
       </c>
@@ -14245,7 +14515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="684" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A684" t="s">
         <v>1286</v>
       </c>
@@ -14259,7 +14529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="685" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A685" t="s">
         <v>1288</v>
       </c>
@@ -14273,7 +14543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="686" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A686" t="s">
         <v>1290</v>
       </c>
@@ -14284,7 +14554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="687" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A687" t="s">
         <v>1292</v>
       </c>
@@ -14298,7 +14568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="688" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A688" t="s">
         <v>1294</v>
       </c>
@@ -14312,7 +14582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="689" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A689" t="s">
         <v>1296</v>
       </c>
@@ -14326,7 +14596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="690" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A690" t="s">
         <v>1298</v>
       </c>
@@ -14340,7 +14610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="691" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A691" t="s">
         <v>1299</v>
       </c>
@@ -14354,7 +14624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="692" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A692" t="s">
         <v>1300</v>
       </c>
@@ -14368,7 +14638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="693" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A693" t="s">
         <v>1302</v>
       </c>
@@ -14382,7 +14652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="694" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A694" t="s">
         <v>1304</v>
       </c>
@@ -14396,7 +14666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="695" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A695" t="s">
         <v>1306</v>
       </c>
@@ -14410,7 +14680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="696" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A696" t="s">
         <v>1308</v>
       </c>
@@ -14424,7 +14694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="697" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A697" t="s">
         <v>1310</v>
       </c>
@@ -14438,7 +14708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="698" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A698" t="s">
         <v>1312</v>
       </c>
@@ -14449,7 +14719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="699" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A699" t="s">
         <v>1314</v>
       </c>
@@ -14463,7 +14733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="700" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A700" t="s">
         <v>1316</v>
       </c>
@@ -14477,7 +14747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="701" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A701" t="s">
         <v>1318</v>
       </c>
@@ -14488,7 +14758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="702" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A702" t="s">
         <v>1320</v>
       </c>
@@ -14502,7 +14772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="703" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A703" t="s">
         <v>1322</v>
       </c>
@@ -14516,7 +14786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="704" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A704" t="s">
         <v>1324</v>
       </c>
@@ -14530,7 +14800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="705" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A705" t="s">
         <v>1326</v>
       </c>
@@ -14544,7 +14814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="706" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A706" t="s">
         <v>1328</v>
       </c>
@@ -14555,7 +14825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="707" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A707" t="s">
         <v>1330</v>
       </c>
@@ -14569,7 +14839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="708" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A708" t="s">
         <v>1332</v>
       </c>
@@ -14583,7 +14853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="709" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A709" t="s">
         <v>1334</v>
       </c>
@@ -14597,7 +14867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="710" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A710" t="s">
         <v>1336</v>
       </c>
@@ -14611,7 +14881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="711" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A711" t="s">
         <v>1338</v>
       </c>
@@ -14625,7 +14895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="712" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A712" t="s">
         <v>1339</v>
       </c>
@@ -14639,7 +14909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="713" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A713" t="s">
         <v>1341</v>
       </c>
@@ -14653,7 +14923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="714" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A714" t="s">
         <v>1343</v>
       </c>
@@ -14667,7 +14937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="715" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A715" t="s">
         <v>1345</v>
       </c>
@@ -14681,7 +14951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="716" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A716" t="s">
         <v>1347</v>
       </c>
@@ -14695,7 +14965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="717" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A717" t="s">
         <v>1349</v>
       </c>
@@ -14709,7 +14979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="718" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A718" t="s">
         <v>1351</v>
       </c>
@@ -14723,7 +14993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="719" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A719" t="s">
         <v>1353</v>
       </c>
@@ -14737,7 +15007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="720" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A720" t="s">
         <v>1355</v>
       </c>
@@ -14751,7 +15021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="721" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A721" t="s">
         <v>1356</v>
       </c>
@@ -14765,7 +15035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="722" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A722" t="s">
         <v>1357</v>
       </c>
@@ -14779,7 +15049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="723" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A723" t="s">
         <v>1359</v>
       </c>
@@ -14793,7 +15063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="724" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A724" t="s">
         <v>1361</v>
       </c>
@@ -14807,7 +15077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="725" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A725" t="s">
         <v>1363</v>
       </c>
@@ -14821,7 +15091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="726" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A726" t="s">
         <v>1365</v>
       </c>
@@ -14832,7 +15102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="727" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A727" t="s">
         <v>1367</v>
       </c>
@@ -14846,7 +15116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="728" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A728" t="s">
         <v>1369</v>
       </c>
@@ -14860,7 +15130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="729" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A729" t="s">
         <v>1371</v>
       </c>
@@ -14874,7 +15144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="730" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A730" t="s">
         <v>1372</v>
       </c>
@@ -14888,7 +15158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="731" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A731" t="s">
         <v>1374</v>
       </c>
@@ -14902,7 +15172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="732" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A732" t="s">
         <v>1376</v>
       </c>
@@ -14916,7 +15186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="733" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A733" t="s">
         <v>1378</v>
       </c>
@@ -14930,7 +15200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="734" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A734" t="s">
         <v>1379</v>
       </c>
@@ -14944,7 +15214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="735" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A735" t="s">
         <v>1381</v>
       </c>
@@ -14958,7 +15228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="736" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A736" t="s">
         <v>1383</v>
       </c>
@@ -14972,7 +15242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="737" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A737" t="s">
         <v>1385</v>
       </c>
@@ -14986,7 +15256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="738" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A738" t="s">
         <v>1387</v>
       </c>
@@ -15000,7 +15270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="739" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A739" t="s">
         <v>1389</v>
       </c>
@@ -15014,7 +15284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="740" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A740" t="s">
         <v>1390</v>
       </c>
@@ -15028,7 +15298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="741" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A741" t="s">
         <v>1392</v>
       </c>
@@ -15042,7 +15312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="742" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A742" t="s">
         <v>1394</v>
       </c>
@@ -15053,7 +15323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="743" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A743" t="s">
         <v>1396</v>
       </c>
@@ -15067,7 +15337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="744" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A744" t="s">
         <v>1398</v>
       </c>
@@ -15081,7 +15351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="745" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A745" t="s">
         <v>1400</v>
       </c>
@@ -15095,7 +15365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="746" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A746" t="s">
         <v>1402</v>
       </c>
@@ -15109,7 +15379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="747" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A747" t="s">
         <v>1403</v>
       </c>
@@ -15123,7 +15393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="748" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A748" t="s">
         <v>1405</v>
       </c>
@@ -15137,7 +15407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="749" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A749" t="s">
         <v>1407</v>
       </c>
@@ -15151,7 +15421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="750" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A750" t="s">
         <v>1409</v>
       </c>
@@ -15165,7 +15435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="751" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A751" t="s">
         <v>1411</v>
       </c>
@@ -15179,7 +15449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="752" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A752" t="s">
         <v>1412</v>
       </c>
@@ -15193,7 +15463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="753" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A753" t="s">
         <v>1414</v>
       </c>
@@ -15207,7 +15477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="754" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A754" t="s">
         <v>1415</v>
       </c>
@@ -15221,7 +15491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="755" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A755" t="s">
         <v>1417</v>
       </c>
@@ -15235,7 +15505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="756" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A756" t="s">
         <v>1419</v>
       </c>
@@ -15249,7 +15519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="757" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A757" t="s">
         <v>1421</v>
       </c>
@@ -15263,7 +15533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="758" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A758" t="s">
         <v>1423</v>
       </c>
@@ -15277,7 +15547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="759" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A759" t="s">
         <v>1425</v>
       </c>
@@ -15291,7 +15561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="760" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A760" t="s">
         <v>1427</v>
       </c>
@@ -15305,7 +15575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="761" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A761" t="s">
         <v>1428</v>
       </c>
@@ -15319,7 +15589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="762" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A762" t="s">
         <v>1430</v>
       </c>
@@ -15333,7 +15603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="763" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A763" t="s">
         <v>1432</v>
       </c>
@@ -15347,7 +15617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="764" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A764" t="s">
         <v>1434</v>
       </c>
@@ -15361,7 +15631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="765" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A765" t="s">
         <v>1436</v>
       </c>
@@ -15375,7 +15645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="766" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A766" t="s">
         <v>1438</v>
       </c>
@@ -15389,7 +15659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="767" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A767" t="s">
         <v>1440</v>
       </c>
@@ -15403,7 +15673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="768" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A768" t="s">
         <v>1442</v>
       </c>
@@ -15414,7 +15684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="769" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A769" t="s">
         <v>1444</v>
       </c>
@@ -15425,7 +15695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="770" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A770" t="s">
         <v>1446</v>
       </c>
@@ -15439,7 +15709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="771" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A771" t="s">
         <v>1448</v>
       </c>
@@ -15450,7 +15720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="772" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A772" t="s">
         <v>1450</v>
       </c>
@@ -15464,7 +15734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="773" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A773" t="s">
         <v>1452</v>
       </c>
@@ -15478,7 +15748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="774" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A774" t="s">
         <v>1454</v>
       </c>
@@ -15492,7 +15762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="775" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A775" t="s">
         <v>1456</v>
       </c>
@@ -15506,7 +15776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="776" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A776" t="s">
         <v>1458</v>
       </c>
@@ -15520,7 +15790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="777" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A777" t="s">
         <v>1460</v>
       </c>
@@ -15534,7 +15804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="778" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A778" t="s">
         <v>1462</v>
       </c>
@@ -15548,7 +15818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="779" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A779" t="s">
         <v>1464</v>
       </c>
@@ -15562,7 +15832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="780" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A780" t="s">
         <v>1466</v>
       </c>
@@ -15576,7 +15846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="781" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A781" t="s">
         <v>1468</v>
       </c>
@@ -15590,7 +15860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="782" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A782" t="s">
         <v>1470</v>
       </c>
@@ -15604,7 +15874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="783" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A783" t="s">
         <v>1472</v>
       </c>
@@ -15618,7 +15888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="784" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A784" t="s">
         <v>1474</v>
       </c>
@@ -15632,7 +15902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="785" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A785" t="s">
         <v>1476</v>
       </c>
@@ -15646,7 +15916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="786" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A786" t="s">
         <v>1478</v>
       </c>
@@ -15660,7 +15930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="787" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A787" t="s">
         <v>1480</v>
       </c>
@@ -15674,7 +15944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="788" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A788" t="s">
         <v>1482</v>
       </c>
@@ -15688,7 +15958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="789" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A789" t="s">
         <v>1484</v>
       </c>
@@ -15702,7 +15972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="790" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A790" t="s">
         <v>1485</v>
       </c>
@@ -15716,7 +15986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="791" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A791" t="s">
         <v>1487</v>
       </c>
@@ -15730,7 +16000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="792" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A792" t="s">
         <v>1489</v>
       </c>
@@ -15744,7 +16014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="793" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A793" t="s">
         <v>1491</v>
       </c>
@@ -15758,7 +16028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="794" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A794" t="s">
         <v>1492</v>
       </c>
@@ -15772,7 +16042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="795" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A795" t="s">
         <v>1494</v>
       </c>
@@ -15786,7 +16056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="796" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A796" t="s">
         <v>1495</v>
       </c>
@@ -15800,7 +16070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="797" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A797" t="s">
         <v>1497</v>
       </c>
@@ -15814,7 +16084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="798" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A798" t="s">
         <v>1499</v>
       </c>
@@ -15824,8 +16094,11 @@
       <c r="C798" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="799" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D798">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="799" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A799" t="s">
         <v>1501</v>
       </c>
@@ -15835,8 +16108,11 @@
       <c r="C799" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="800" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D799">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="800" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A800" t="s">
         <v>1503</v>
       </c>
@@ -15846,8 +16122,11 @@
       <c r="C800" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="801" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D800">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="801" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A801" t="s">
         <v>1504</v>
       </c>
@@ -15857,8 +16136,11 @@
       <c r="C801" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="802" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D801">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="802" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A802" t="s">
         <v>1505</v>
       </c>
@@ -15868,8 +16150,11 @@
       <c r="C802" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="803" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D802">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="803" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A803" t="s">
         <v>1506</v>
       </c>
@@ -15879,8 +16164,11 @@
       <c r="C803" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="804" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D803">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="804" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A804" t="s">
         <v>1507</v>
       </c>
@@ -15890,8 +16178,11 @@
       <c r="C804" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="805" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D804">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="805" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A805" t="s">
         <v>1508</v>
       </c>
@@ -15901,8 +16192,11 @@
       <c r="C805" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="806" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D805">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="806" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A806" t="s">
         <v>1509</v>
       </c>
@@ -15912,8 +16206,11 @@
       <c r="C806" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="807" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D806">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="807" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A807" t="s">
         <v>1511</v>
       </c>
@@ -15923,8 +16220,11 @@
       <c r="C807" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="808" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D807">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="808" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A808" t="s">
         <v>1512</v>
       </c>
@@ -15934,8 +16234,11 @@
       <c r="C808" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="809" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D808">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="809" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A809" t="s">
         <v>1513</v>
       </c>
@@ -15945,8 +16248,11 @@
       <c r="C809" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="810" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D809">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="810" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A810" t="s">
         <v>1515</v>
       </c>
@@ -15956,8 +16262,11 @@
       <c r="C810" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="811" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D810">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="811" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A811" t="s">
         <v>1516</v>
       </c>
@@ -15967,8 +16276,11 @@
       <c r="C811" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="812" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D811">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="812" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A812" t="s">
         <v>1518</v>
       </c>
@@ -15978,8 +16290,11 @@
       <c r="C812" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="813" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D812">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="813" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A813" t="s">
         <v>1520</v>
       </c>
@@ -15989,8 +16304,726 @@
       <c r="C813" t="s">
         <v>65</v>
       </c>
+      <c r="D813">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="814" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A814" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B814" t="s">
+        <v>1524</v>
+      </c>
+      <c r="D814">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="815" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A815" t="s">
+        <v>1525</v>
+      </c>
+      <c r="B815" t="s">
+        <v>1526</v>
+      </c>
+      <c r="C815" t="s">
+        <v>54</v>
+      </c>
+      <c r="D815">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="816" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A816" t="s">
+        <v>1527</v>
+      </c>
+      <c r="B816" t="s">
+        <v>1528</v>
+      </c>
+      <c r="D816">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="817" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A817" t="s">
+        <v>1529</v>
+      </c>
+      <c r="B817" t="s">
+        <v>1530</v>
+      </c>
+      <c r="C817" t="s">
+        <v>90</v>
+      </c>
+      <c r="D817">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="818" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A818" t="s">
+        <v>1531</v>
+      </c>
+      <c r="B818" t="s">
+        <v>1532</v>
+      </c>
+      <c r="D818">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="819" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A819" t="s">
+        <v>1533</v>
+      </c>
+      <c r="B819" t="s">
+        <v>1533</v>
+      </c>
+      <c r="C819" t="s">
+        <v>54</v>
+      </c>
+      <c r="D819">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="820" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A820" t="s">
+        <v>1534</v>
+      </c>
+      <c r="B820" t="s">
+        <v>1535</v>
+      </c>
+      <c r="D820">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="821" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A821" t="s">
+        <v>1536</v>
+      </c>
+      <c r="B821" t="s">
+        <v>1537</v>
+      </c>
+      <c r="C821" t="s">
+        <v>90</v>
+      </c>
+      <c r="D821">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="822" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A822" t="s">
+        <v>1538</v>
+      </c>
+      <c r="B822" t="s">
+        <v>1368</v>
+      </c>
+      <c r="D822">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="823" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A823" t="s">
+        <v>1539</v>
+      </c>
+      <c r="B823" t="s">
+        <v>1540</v>
+      </c>
+      <c r="C823" t="s">
+        <v>49</v>
+      </c>
+      <c r="D823">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="824" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A824" t="s">
+        <v>1541</v>
+      </c>
+      <c r="B824" t="s">
+        <v>1542</v>
+      </c>
+      <c r="C824" t="s">
+        <v>49</v>
+      </c>
+      <c r="D824">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="825" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A825" t="s">
+        <v>1543</v>
+      </c>
+      <c r="B825" t="s">
+        <v>933</v>
+      </c>
+      <c r="C825" t="s">
+        <v>49</v>
+      </c>
+      <c r="D825">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="826" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A826" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B826" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C826" t="s">
+        <v>54</v>
+      </c>
+      <c r="D826">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="827" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A827" t="s">
+        <v>1545</v>
+      </c>
+      <c r="B827" t="s">
+        <v>1546</v>
+      </c>
+      <c r="C827" t="s">
+        <v>37</v>
+      </c>
+      <c r="D827">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="828" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A828" t="s">
+        <v>1547</v>
+      </c>
+      <c r="B828" t="s">
+        <v>1547</v>
+      </c>
+      <c r="C828" t="s">
+        <v>37</v>
+      </c>
+      <c r="D828">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="829" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A829" t="s">
+        <v>1548</v>
+      </c>
+      <c r="B829" t="s">
+        <v>1549</v>
+      </c>
+      <c r="D829">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="830" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A830" t="s">
+        <v>1550</v>
+      </c>
+      <c r="B830" t="s">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="831" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A831" t="s">
+        <v>1552</v>
+      </c>
+      <c r="B831" t="s">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="832" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A832" t="s">
+        <v>1554</v>
+      </c>
+      <c r="B832" t="s">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="833" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A833" t="s">
+        <v>1556</v>
+      </c>
+      <c r="B833" t="s">
+        <v>1557</v>
+      </c>
+      <c r="C833" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="834" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A834" t="s">
+        <v>88</v>
+      </c>
+      <c r="B834" t="s">
+        <v>89</v>
+      </c>
+      <c r="C834" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="835" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A835" t="s">
+        <v>1558</v>
+      </c>
+      <c r="B835" t="s">
+        <v>1559</v>
+      </c>
+      <c r="C835" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="836" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A836" t="s">
+        <v>1560</v>
+      </c>
+      <c r="B836" t="s">
+        <v>1561</v>
+      </c>
+      <c r="C836" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="837" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A837" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B837" t="s">
+        <v>1562</v>
+      </c>
+      <c r="C837" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="838" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A838" t="s">
+        <v>1564</v>
+      </c>
+      <c r="B838" t="s">
+        <v>1563</v>
+      </c>
+      <c r="C838" t="s">
+        <v>54</v>
+      </c>
+      <c r="D838">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="839" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A839" t="s">
+        <v>1565</v>
+      </c>
+      <c r="B839" t="s">
+        <v>1565</v>
+      </c>
+      <c r="C839" t="s">
+        <v>37</v>
+      </c>
+      <c r="D839">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="840" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A840" t="s">
+        <v>1566</v>
+      </c>
+      <c r="B840" t="s">
+        <v>1566</v>
+      </c>
+      <c r="D840">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="841" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A841" t="s">
+        <v>52</v>
+      </c>
+      <c r="B841" t="s">
+        <v>53</v>
+      </c>
+      <c r="C841" t="s">
+        <v>54</v>
+      </c>
+      <c r="D841">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="842" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A842" t="s">
+        <v>717</v>
+      </c>
+      <c r="B842" t="s">
+        <v>718</v>
+      </c>
+      <c r="C842" t="s">
+        <v>54</v>
+      </c>
+      <c r="D842">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="843" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A843" t="s">
+        <v>1567</v>
+      </c>
+      <c r="B843" t="s">
+        <v>1568</v>
+      </c>
+      <c r="D843">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="844" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A844" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B844" t="s">
+        <v>1569</v>
+      </c>
+      <c r="D844">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="845" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A845" t="s">
+        <v>1570</v>
+      </c>
+      <c r="B845" t="s">
+        <v>1571</v>
+      </c>
+      <c r="D845">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="846" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A846" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B846" t="s">
+        <v>1573</v>
+      </c>
+      <c r="D846">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="847" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A847" t="s">
+        <v>1575</v>
+      </c>
+      <c r="B847" t="s">
+        <v>1574</v>
+      </c>
+      <c r="C847" t="s">
+        <v>37</v>
+      </c>
+      <c r="D847">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="848" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A848" t="s">
+        <v>1576</v>
+      </c>
+      <c r="B848" t="s">
+        <v>1577</v>
+      </c>
+      <c r="D848">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="849" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A849" t="s">
+        <v>1578</v>
+      </c>
+      <c r="B849" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C849" t="s">
+        <v>54</v>
+      </c>
+      <c r="D849">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="850" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A850" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B850" t="s">
+        <v>1580</v>
+      </c>
+      <c r="D850">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="851" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A851" t="s">
+        <v>1581</v>
+      </c>
+      <c r="B851" t="s">
+        <v>759</v>
+      </c>
+      <c r="D851">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="852" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A852" t="s">
+        <v>1582</v>
+      </c>
+      <c r="B852" t="s">
+        <v>1582</v>
+      </c>
+      <c r="D852">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="853" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A853" t="s">
+        <v>1583</v>
+      </c>
+      <c r="B853" t="s">
+        <v>1584</v>
+      </c>
+      <c r="C853" t="s">
+        <v>54</v>
+      </c>
+      <c r="D853">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="854" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A854" t="s">
+        <v>1585</v>
+      </c>
+      <c r="B854" t="s">
+        <v>1586</v>
+      </c>
+      <c r="D854">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="855" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A855" t="s">
+        <v>1587</v>
+      </c>
+      <c r="B855" t="s">
+        <v>1588</v>
+      </c>
+      <c r="D855">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="856" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A856" t="s">
+        <v>1589</v>
+      </c>
+      <c r="B856" t="s">
+        <v>1590</v>
+      </c>
+      <c r="C856" t="s">
+        <v>65</v>
+      </c>
+      <c r="D856">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="857" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A857" t="s">
+        <v>1591</v>
+      </c>
+      <c r="B857" t="s">
+        <v>1592</v>
+      </c>
+      <c r="D857">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="858" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A858" t="s">
+        <v>1593</v>
+      </c>
+      <c r="B858" t="s">
+        <v>1593</v>
+      </c>
+      <c r="D858">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="859" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A859" t="s">
+        <v>1594</v>
+      </c>
+      <c r="B859" t="s">
+        <v>1490</v>
+      </c>
+      <c r="D859">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="860" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A860" t="s">
+        <v>1595</v>
+      </c>
+      <c r="B860" t="s">
+        <v>1596</v>
+      </c>
+      <c r="C860" t="s">
+        <v>54</v>
+      </c>
+      <c r="D860">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="861" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A861" t="s">
+        <v>1597</v>
+      </c>
+      <c r="B861" t="s">
+        <v>1598</v>
+      </c>
+      <c r="D861">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="862" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A862" t="s">
+        <v>1599</v>
+      </c>
+      <c r="B862" t="s">
+        <v>1599</v>
+      </c>
+      <c r="D862">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="863" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A863" t="s">
+        <v>1600</v>
+      </c>
+      <c r="B863" t="s">
+        <v>1601</v>
+      </c>
+      <c r="C863" t="s">
+        <v>54</v>
+      </c>
+      <c r="D863">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="864" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A864" t="s">
+        <v>213</v>
+      </c>
+      <c r="B864" t="s">
+        <v>1602</v>
+      </c>
+      <c r="C864" t="s">
+        <v>65</v>
+      </c>
+      <c r="D864">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="865" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A865" t="s">
+        <v>1603</v>
+      </c>
+      <c r="B865" t="s">
+        <v>1603</v>
+      </c>
+      <c r="C865" t="s">
+        <v>65</v>
+      </c>
+      <c r="D865">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="866" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A866" t="s">
+        <v>1604</v>
+      </c>
+      <c r="B866" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C866" t="s">
+        <v>54</v>
+      </c>
+      <c r="D866">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="867" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A867" t="s">
+        <v>1605</v>
+      </c>
+      <c r="B867" t="s">
+        <v>1606</v>
+      </c>
+      <c r="C867" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="868" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A868" t="s">
+        <v>539</v>
+      </c>
+      <c r="B868" t="s">
+        <v>539</v>
+      </c>
+      <c r="C868" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="869" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A869" t="s">
+        <v>1607</v>
+      </c>
+      <c r="B869" t="s">
+        <v>1607</v>
+      </c>
+      <c r="C869" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="870" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A870" t="s">
+        <v>1608</v>
+      </c>
+      <c r="B870" t="s">
+        <v>1608</v>
+      </c>
+      <c r="C870" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="871" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A871" t="s">
+        <v>1609</v>
+      </c>
+      <c r="B871" t="s">
+        <v>1610</v>
+      </c>
+      <c r="C871" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="872" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A872" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B872" t="s">
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="873" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A873" t="s">
+        <v>1612</v>
+      </c>
+      <c r="B873" t="s">
+        <v>900</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>